--- a/Einfaches Gantt-Diagramm.xlsx
+++ b/Einfaches Gantt-Diagramm.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B5CD941-F436-46EF-BCB9-4705CD662320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="192" documentId="13_ncr:1_{8C0D8124-33A6-46CB-8084-9AEEAFB8AC29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8889CD3-290A-4B9A-B571-C1F7F9274ADA}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projektplan" sheetId="11" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="87">
   <si>
     <t>Erstellen Sie auf diesem Arbeitsblatt einen Projektplan.
 Geben Sie den Titel dieses Projekts in Zelle B1 ein. 
@@ -133,12 +133,6 @@
   </si>
   <si>
     <t>Aufgabe 5</t>
-  </si>
-  <si>
-    <t>Phase 3 Titel</t>
-  </si>
-  <si>
-    <t>Phase 4 Titel</t>
   </si>
   <si>
     <t>Neue Zeilen ÜBER dieser einfügen</t>
@@ -283,6 +277,69 @@
   </si>
   <si>
     <t>Technologie definieren</t>
+  </si>
+  <si>
+    <t>Implementierung</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Installation</t>
+  </si>
+  <si>
+    <t>Klassen definieren</t>
+  </si>
+  <si>
+    <t>Datenbankanbindung gewährleisten</t>
+  </si>
+  <si>
+    <t>Views erstellen</t>
+  </si>
+  <si>
+    <t>Preisberechnung der Flüge</t>
+  </si>
+  <si>
+    <t>Rechnugen erstellen</t>
+  </si>
+  <si>
+    <t>Zählermanagement implementieren</t>
+  </si>
+  <si>
+    <t>SQL Script erstellen</t>
+  </si>
+  <si>
+    <t>Pilot-Seite Entwurf Implementierung</t>
+  </si>
+  <si>
+    <t>Start/Lande Liste  Entwurf Implementierung</t>
+  </si>
+  <si>
+    <t>Admin-Seite Entwurf Implementierung</t>
+  </si>
+  <si>
+    <t>Datenbank-Ansicht Entwurf Implementierung</t>
+  </si>
+  <si>
+    <t>Login/Registrierung Entwurf Implementierung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Login/Registrierung Seite Entwuf </t>
+  </si>
+  <si>
+    <t>Backend für vorläufigen Datenbank Entwurf Implementieren</t>
+  </si>
+  <si>
+    <t>Backend für vorläufigen Start/Lande Liste Entwurf Implementieren</t>
+  </si>
+  <si>
+    <t>Backend für vorläufigen Admin Entwurf Implementieren</t>
+  </si>
+  <si>
+    <t>Backend für vorläufigen Pilot Entwurf Implementieren</t>
+  </si>
+  <si>
+    <t>Backend für vorläufigen Login/Registrierung Entwurf implementieren</t>
   </si>
 </sst>
 </file>
@@ -567,7 +624,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="45">
+  <fills count="47">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -819,6 +876,18 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF33CCCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="17">
     <border>
@@ -1092,7 +1161,7 @@
     <xf numFmtId="0" fontId="9" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1124,9 +1193,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1259,16 +1325,10 @@
     <xf numFmtId="0" fontId="9" fillId="10" borderId="2" xfId="11" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="11">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="2" xfId="12" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="2" xfId="12" applyFill="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="12">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -1315,9 +1375,6 @@
     <xf numFmtId="168" fontId="9" fillId="10" borderId="2" xfId="10" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="2" xfId="10">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="168" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1356,6 +1413,36 @@
     </xf>
     <xf numFmtId="169" fontId="9" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="45" borderId="2" xfId="12" applyFill="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="45" borderId="2" xfId="11" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="45" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="9" fillId="45" borderId="2" xfId="10" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="46" borderId="2" xfId="12" applyFill="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="46" borderId="2" xfId="11" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="46" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="9" fillId="46" borderId="2" xfId="10" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" xfId="12" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -1620,6 +1707,8 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
     <mruColors>
+      <color rgb="FFCCFFFF"/>
+      <color rgb="FF33CCCC"/>
       <color rgb="FF215881"/>
       <color rgb="FF42648A"/>
       <color rgb="FF969696"/>
@@ -1628,7 +1717,6 @@
       <color rgb="FF44678E"/>
       <color rgb="FF4A6F9C"/>
       <color rgb="FF3969AD"/>
-      <color rgb="FF000000"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1643,7 +1731,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="22" fmlaLink="$E$4" horiz="1" max="100" page="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="22" fmlaLink="$E$4" horiz="1" max="100" page="0" val="3"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1755,6 +1843,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2023,16 +2115,16 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:CP39"/>
+  <dimension ref="A1:CP64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AD3" sqref="AD3"/>
+      <pane ySplit="6" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="45" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" style="44" customWidth="1"/>
     <col min="2" max="2" width="19.85546875" customWidth="1"/>
     <col min="3" max="3" width="30.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
@@ -2045,396 +2137,396 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:94" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49" t="s">
-        <v>46</v>
+      <c r="B1" s="48" t="s">
+        <v>44</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
       <c r="E1" s="4"/>
-      <c r="F1" s="34"/>
+      <c r="F1" s="33"/>
       <c r="H1" s="2"/>
-      <c r="I1" s="65"/>
+      <c r="I1" s="62"/>
     </row>
     <row r="2" spans="1:94" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="I2" s="66"/>
+      <c r="B2" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="63"/>
     </row>
     <row r="3" spans="1:94" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="51" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="88" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="89"/>
-      <c r="E3" s="93">
+      <c r="B3" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="84" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="85"/>
+      <c r="E3" s="89">
         <v>45819</v>
       </c>
-      <c r="F3" s="93"/>
+      <c r="F3" s="89"/>
     </row>
     <row r="4" spans="1:94" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="88" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="89"/>
+      <c r="B4" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="84" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="85"/>
       <c r="E4" s="7">
-        <v>1</v>
-      </c>
-      <c r="I4" s="90">
+        <v>3</v>
+      </c>
+      <c r="I4" s="86">
         <f>I5</f>
-        <v>45817</v>
-      </c>
-      <c r="J4" s="91"/>
-      <c r="K4" s="91"/>
-      <c r="L4" s="91"/>
-      <c r="M4" s="91"/>
-      <c r="N4" s="91"/>
-      <c r="O4" s="92"/>
-      <c r="P4" s="90">
+        <v>45831</v>
+      </c>
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
+      <c r="N4" s="87"/>
+      <c r="O4" s="88"/>
+      <c r="P4" s="86">
         <f>P5</f>
-        <v>45824</v>
-      </c>
-      <c r="Q4" s="91"/>
-      <c r="R4" s="91"/>
-      <c r="S4" s="91"/>
-      <c r="T4" s="91"/>
-      <c r="U4" s="91"/>
-      <c r="V4" s="92"/>
-      <c r="W4" s="90">
+        <v>45838</v>
+      </c>
+      <c r="Q4" s="87"/>
+      <c r="R4" s="87"/>
+      <c r="S4" s="87"/>
+      <c r="T4" s="87"/>
+      <c r="U4" s="87"/>
+      <c r="V4" s="88"/>
+      <c r="W4" s="86">
         <f>W5</f>
-        <v>45831</v>
-      </c>
-      <c r="X4" s="91"/>
-      <c r="Y4" s="91"/>
-      <c r="Z4" s="91"/>
-      <c r="AA4" s="91"/>
-      <c r="AB4" s="91"/>
-      <c r="AC4" s="92"/>
-      <c r="AD4" s="90">
+        <v>45845</v>
+      </c>
+      <c r="X4" s="87"/>
+      <c r="Y4" s="87"/>
+      <c r="Z4" s="87"/>
+      <c r="AA4" s="87"/>
+      <c r="AB4" s="87"/>
+      <c r="AC4" s="88"/>
+      <c r="AD4" s="86">
         <f>AD5</f>
-        <v>45838</v>
-      </c>
-      <c r="AE4" s="91"/>
-      <c r="AF4" s="91"/>
-      <c r="AG4" s="91"/>
-      <c r="AH4" s="91"/>
-      <c r="AI4" s="91"/>
-      <c r="AJ4" s="92"/>
-      <c r="AK4" s="90">
+        <v>45852</v>
+      </c>
+      <c r="AE4" s="87"/>
+      <c r="AF4" s="87"/>
+      <c r="AG4" s="87"/>
+      <c r="AH4" s="87"/>
+      <c r="AI4" s="87"/>
+      <c r="AJ4" s="88"/>
+      <c r="AK4" s="86">
         <f>AK5</f>
-        <v>45845</v>
-      </c>
-      <c r="AL4" s="91"/>
-      <c r="AM4" s="91"/>
-      <c r="AN4" s="91"/>
-      <c r="AO4" s="91"/>
-      <c r="AP4" s="91"/>
-      <c r="AQ4" s="92"/>
-      <c r="AR4" s="90">
+        <v>45859</v>
+      </c>
+      <c r="AL4" s="87"/>
+      <c r="AM4" s="87"/>
+      <c r="AN4" s="87"/>
+      <c r="AO4" s="87"/>
+      <c r="AP4" s="87"/>
+      <c r="AQ4" s="88"/>
+      <c r="AR4" s="86">
         <f>AR5</f>
-        <v>45852</v>
-      </c>
-      <c r="AS4" s="91"/>
-      <c r="AT4" s="91"/>
-      <c r="AU4" s="91"/>
-      <c r="AV4" s="91"/>
-      <c r="AW4" s="91"/>
-      <c r="AX4" s="92"/>
-      <c r="AY4" s="90">
+        <v>45866</v>
+      </c>
+      <c r="AS4" s="87"/>
+      <c r="AT4" s="87"/>
+      <c r="AU4" s="87"/>
+      <c r="AV4" s="87"/>
+      <c r="AW4" s="87"/>
+      <c r="AX4" s="88"/>
+      <c r="AY4" s="86">
         <f>AY5</f>
-        <v>45859</v>
-      </c>
-      <c r="AZ4" s="91"/>
-      <c r="BA4" s="91"/>
-      <c r="BB4" s="91"/>
-      <c r="BC4" s="91"/>
-      <c r="BD4" s="91"/>
-      <c r="BE4" s="92"/>
-      <c r="BF4" s="90">
+        <v>45873</v>
+      </c>
+      <c r="AZ4" s="87"/>
+      <c r="BA4" s="87"/>
+      <c r="BB4" s="87"/>
+      <c r="BC4" s="87"/>
+      <c r="BD4" s="87"/>
+      <c r="BE4" s="88"/>
+      <c r="BF4" s="86">
         <f>BF5</f>
-        <v>45866</v>
-      </c>
-      <c r="BG4" s="91"/>
-      <c r="BH4" s="91"/>
-      <c r="BI4" s="91"/>
-      <c r="BJ4" s="91"/>
-      <c r="BK4" s="91"/>
-      <c r="BL4" s="92"/>
+        <v>45880</v>
+      </c>
+      <c r="BG4" s="87"/>
+      <c r="BH4" s="87"/>
+      <c r="BI4" s="87"/>
+      <c r="BJ4" s="87"/>
+      <c r="BK4" s="87"/>
+      <c r="BL4" s="88"/>
     </row>
     <row r="5" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="I5" s="83">
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="I5" s="79">
         <f>Projektanfang-WEEKDAY(Projektanfang,1)+2+7*(Anzeigewoche-1)</f>
-        <v>45817</v>
-      </c>
-      <c r="J5" s="84">
+        <v>45831</v>
+      </c>
+      <c r="J5" s="80">
         <f>I5+1</f>
-        <v>45818</v>
-      </c>
-      <c r="K5" s="84">
+        <v>45832</v>
+      </c>
+      <c r="K5" s="80">
         <f t="shared" ref="K5:AX5" si="0">J5+1</f>
-        <v>45819</v>
-      </c>
-      <c r="L5" s="84">
-        <f t="shared" si="0"/>
-        <v>45820</v>
-      </c>
-      <c r="M5" s="84">
-        <f t="shared" si="0"/>
-        <v>45821</v>
-      </c>
-      <c r="N5" s="84">
-        <f t="shared" si="0"/>
-        <v>45822</v>
-      </c>
-      <c r="O5" s="85">
-        <f t="shared" si="0"/>
-        <v>45823</v>
-      </c>
-      <c r="P5" s="83">
-        <f>O5+1</f>
-        <v>45824</v>
-      </c>
-      <c r="Q5" s="84">
-        <f>P5+1</f>
-        <v>45825</v>
-      </c>
-      <c r="R5" s="84">
-        <f t="shared" si="0"/>
-        <v>45826</v>
-      </c>
-      <c r="S5" s="84">
-        <f t="shared" si="0"/>
-        <v>45827</v>
-      </c>
-      <c r="T5" s="84">
-        <f t="shared" si="0"/>
-        <v>45828</v>
-      </c>
-      <c r="U5" s="84">
-        <f t="shared" si="0"/>
-        <v>45829</v>
-      </c>
-      <c r="V5" s="85">
-        <f t="shared" si="0"/>
-        <v>45830</v>
-      </c>
-      <c r="W5" s="83">
-        <f>V5+1</f>
-        <v>45831</v>
-      </c>
-      <c r="X5" s="84">
-        <f>W5+1</f>
-        <v>45832</v>
-      </c>
-      <c r="Y5" s="84">
-        <f t="shared" si="0"/>
         <v>45833</v>
       </c>
-      <c r="Z5" s="84">
+      <c r="L5" s="80">
         <f t="shared" si="0"/>
         <v>45834</v>
       </c>
-      <c r="AA5" s="84">
+      <c r="M5" s="80">
         <f t="shared" si="0"/>
         <v>45835</v>
       </c>
-      <c r="AB5" s="84">
+      <c r="N5" s="80">
         <f t="shared" si="0"/>
         <v>45836</v>
       </c>
-      <c r="AC5" s="85">
+      <c r="O5" s="81">
         <f t="shared" si="0"/>
         <v>45837</v>
       </c>
-      <c r="AD5" s="83">
-        <f>AC5+1</f>
+      <c r="P5" s="79">
+        <f>O5+1</f>
         <v>45838</v>
       </c>
-      <c r="AE5" s="84">
-        <f>AD5+1</f>
+      <c r="Q5" s="80">
+        <f>P5+1</f>
         <v>45839</v>
       </c>
-      <c r="AF5" s="84">
+      <c r="R5" s="80">
         <f t="shared" si="0"/>
         <v>45840</v>
       </c>
-      <c r="AG5" s="84">
+      <c r="S5" s="80">
         <f t="shared" si="0"/>
         <v>45841</v>
       </c>
-      <c r="AH5" s="84">
+      <c r="T5" s="80">
         <f t="shared" si="0"/>
         <v>45842</v>
       </c>
-      <c r="AI5" s="84">
+      <c r="U5" s="80">
         <f t="shared" si="0"/>
         <v>45843</v>
       </c>
-      <c r="AJ5" s="85">
+      <c r="V5" s="81">
         <f t="shared" si="0"/>
         <v>45844</v>
       </c>
-      <c r="AK5" s="83">
-        <f>AJ5+1</f>
+      <c r="W5" s="79">
+        <f>V5+1</f>
         <v>45845</v>
       </c>
-      <c r="AL5" s="84">
-        <f>AK5+1</f>
+      <c r="X5" s="80">
+        <f>W5+1</f>
         <v>45846</v>
       </c>
-      <c r="AM5" s="84">
+      <c r="Y5" s="80">
         <f t="shared" si="0"/>
         <v>45847</v>
       </c>
-      <c r="AN5" s="84">
+      <c r="Z5" s="80">
         <f t="shared" si="0"/>
         <v>45848</v>
       </c>
-      <c r="AO5" s="84">
+      <c r="AA5" s="80">
         <f t="shared" si="0"/>
         <v>45849</v>
       </c>
-      <c r="AP5" s="84">
+      <c r="AB5" s="80">
         <f t="shared" si="0"/>
         <v>45850</v>
       </c>
-      <c r="AQ5" s="85">
+      <c r="AC5" s="81">
         <f t="shared" si="0"/>
         <v>45851</v>
       </c>
-      <c r="AR5" s="83">
-        <f>AQ5+1</f>
+      <c r="AD5" s="79">
+        <f>AC5+1</f>
         <v>45852</v>
       </c>
-      <c r="AS5" s="84">
-        <f>AR5+1</f>
+      <c r="AE5" s="80">
+        <f>AD5+1</f>
         <v>45853</v>
       </c>
-      <c r="AT5" s="84">
+      <c r="AF5" s="80">
         <f t="shared" si="0"/>
         <v>45854</v>
       </c>
-      <c r="AU5" s="84">
+      <c r="AG5" s="80">
         <f t="shared" si="0"/>
         <v>45855</v>
       </c>
-      <c r="AV5" s="84">
+      <c r="AH5" s="80">
         <f t="shared" si="0"/>
         <v>45856</v>
       </c>
-      <c r="AW5" s="84">
+      <c r="AI5" s="80">
         <f t="shared" si="0"/>
         <v>45857</v>
       </c>
-      <c r="AX5" s="85">
+      <c r="AJ5" s="81">
         <f t="shared" si="0"/>
         <v>45858</v>
       </c>
-      <c r="AY5" s="83">
+      <c r="AK5" s="79">
+        <f>AJ5+1</f>
+        <v>45859</v>
+      </c>
+      <c r="AL5" s="80">
+        <f>AK5+1</f>
+        <v>45860</v>
+      </c>
+      <c r="AM5" s="80">
+        <f t="shared" si="0"/>
+        <v>45861</v>
+      </c>
+      <c r="AN5" s="80">
+        <f t="shared" si="0"/>
+        <v>45862</v>
+      </c>
+      <c r="AO5" s="80">
+        <f t="shared" si="0"/>
+        <v>45863</v>
+      </c>
+      <c r="AP5" s="80">
+        <f t="shared" si="0"/>
+        <v>45864</v>
+      </c>
+      <c r="AQ5" s="81">
+        <f t="shared" si="0"/>
+        <v>45865</v>
+      </c>
+      <c r="AR5" s="79">
+        <f>AQ5+1</f>
+        <v>45866</v>
+      </c>
+      <c r="AS5" s="80">
+        <f>AR5+1</f>
+        <v>45867</v>
+      </c>
+      <c r="AT5" s="80">
+        <f t="shared" si="0"/>
+        <v>45868</v>
+      </c>
+      <c r="AU5" s="80">
+        <f t="shared" si="0"/>
+        <v>45869</v>
+      </c>
+      <c r="AV5" s="80">
+        <f t="shared" si="0"/>
+        <v>45870</v>
+      </c>
+      <c r="AW5" s="80">
+        <f t="shared" si="0"/>
+        <v>45871</v>
+      </c>
+      <c r="AX5" s="81">
+        <f t="shared" si="0"/>
+        <v>45872</v>
+      </c>
+      <c r="AY5" s="79">
         <f>AX5+1</f>
-        <v>45859</v>
-      </c>
-      <c r="AZ5" s="84">
+        <v>45873</v>
+      </c>
+      <c r="AZ5" s="80">
         <f>AY5+1</f>
-        <v>45860</v>
-      </c>
-      <c r="BA5" s="84">
+        <v>45874</v>
+      </c>
+      <c r="BA5" s="80">
         <f t="shared" ref="BA5:BE5" si="1">AZ5+1</f>
-        <v>45861</v>
-      </c>
-      <c r="BB5" s="84">
+        <v>45875</v>
+      </c>
+      <c r="BB5" s="80">
         <f t="shared" si="1"/>
-        <v>45862</v>
-      </c>
-      <c r="BC5" s="84">
+        <v>45876</v>
+      </c>
+      <c r="BC5" s="80">
         <f t="shared" si="1"/>
-        <v>45863</v>
-      </c>
-      <c r="BD5" s="84">
+        <v>45877</v>
+      </c>
+      <c r="BD5" s="80">
         <f t="shared" si="1"/>
-        <v>45864</v>
-      </c>
-      <c r="BE5" s="85">
+        <v>45878</v>
+      </c>
+      <c r="BE5" s="81">
         <f t="shared" si="1"/>
-        <v>45865</v>
-      </c>
-      <c r="BF5" s="83">
+        <v>45879</v>
+      </c>
+      <c r="BF5" s="79">
         <f>BE5+1</f>
-        <v>45866</v>
-      </c>
-      <c r="BG5" s="84">
+        <v>45880</v>
+      </c>
+      <c r="BG5" s="80">
         <f>BF5+1</f>
-        <v>45867</v>
-      </c>
-      <c r="BH5" s="84">
+        <v>45881</v>
+      </c>
+      <c r="BH5" s="80">
         <f t="shared" ref="BH5:BK5" si="2">BG5+1</f>
-        <v>45868</v>
-      </c>
-      <c r="BI5" s="84">
+        <v>45882</v>
+      </c>
+      <c r="BI5" s="80">
         <f t="shared" si="2"/>
-        <v>45869</v>
-      </c>
-      <c r="BJ5" s="84">
+        <v>45883</v>
+      </c>
+      <c r="BJ5" s="80">
         <f t="shared" si="2"/>
-        <v>45870</v>
-      </c>
-      <c r="BK5" s="84">
+        <v>45884</v>
+      </c>
+      <c r="BK5" s="80">
         <f t="shared" si="2"/>
-        <v>45871</v>
-      </c>
-      <c r="BL5" s="85">
+        <v>45885</v>
+      </c>
+      <c r="BL5" s="81">
         <f>BK5+1</f>
-        <v>45872</v>
+        <v>45886</v>
       </c>
     </row>
     <row r="6" spans="1:94" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="45" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="9" t="s">
+      <c r="F6" s="9" t="s">
         <v>27</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>29</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I6" s="10" t="str">
         <f t="shared" ref="I6:AN6" si="3">LEFT(TEXT(I5,"TTTT"),1)</f>
@@ -2661,145 +2753,145 @@
         <v>S</v>
       </c>
     </row>
-    <row r="7" spans="1:94" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="45" t="s">
+    <row r="7" spans="1:94" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="48"/>
+      <c r="C7" s="47"/>
       <c r="E7"/>
       <c r="H7" t="str">
         <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="31"/>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="31"/>
-      <c r="R7" s="31"/>
-      <c r="S7" s="31"/>
-      <c r="T7" s="31"/>
-      <c r="U7" s="31"/>
-      <c r="V7" s="31"/>
-      <c r="W7" s="31"/>
-      <c r="X7" s="31"/>
-      <c r="Y7" s="31"/>
-      <c r="Z7" s="31"/>
-      <c r="AA7" s="31"/>
-      <c r="AB7" s="31"/>
-      <c r="AC7" s="31"/>
-      <c r="AD7" s="31"/>
-      <c r="AE7" s="31"/>
-      <c r="AF7" s="31"/>
-      <c r="AG7" s="31"/>
-      <c r="AH7" s="31"/>
-      <c r="AI7" s="31"/>
-      <c r="AJ7" s="31"/>
-      <c r="AK7" s="31"/>
-      <c r="AL7" s="31"/>
-      <c r="AM7" s="31"/>
-      <c r="AN7" s="31"/>
-      <c r="AO7" s="31"/>
-      <c r="AP7" s="31"/>
-      <c r="AQ7" s="31"/>
-      <c r="AR7" s="31"/>
-      <c r="AS7" s="31"/>
-      <c r="AT7" s="31"/>
-      <c r="AU7" s="31"/>
-      <c r="AV7" s="31"/>
-      <c r="AW7" s="31"/>
-      <c r="AX7" s="31"/>
-      <c r="AY7" s="31"/>
-      <c r="AZ7" s="31"/>
-      <c r="BA7" s="31"/>
-      <c r="BB7" s="31"/>
-      <c r="BC7" s="31"/>
-      <c r="BD7" s="31"/>
-      <c r="BE7" s="31"/>
-      <c r="BF7" s="31"/>
-      <c r="BG7" s="31"/>
-      <c r="BH7" s="31"/>
-      <c r="BI7" s="31"/>
-      <c r="BJ7" s="31"/>
-      <c r="BK7" s="31"/>
-      <c r="BL7" s="31"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="30"/>
+      <c r="T7" s="30"/>
+      <c r="U7" s="30"/>
+      <c r="V7" s="30"/>
+      <c r="W7" s="30"/>
+      <c r="X7" s="30"/>
+      <c r="Y7" s="30"/>
+      <c r="Z7" s="30"/>
+      <c r="AA7" s="30"/>
+      <c r="AB7" s="30"/>
+      <c r="AC7" s="30"/>
+      <c r="AD7" s="30"/>
+      <c r="AE7" s="30"/>
+      <c r="AF7" s="30"/>
+      <c r="AG7" s="30"/>
+      <c r="AH7" s="30"/>
+      <c r="AI7" s="30"/>
+      <c r="AJ7" s="30"/>
+      <c r="AK7" s="30"/>
+      <c r="AL7" s="30"/>
+      <c r="AM7" s="30"/>
+      <c r="AN7" s="30"/>
+      <c r="AO7" s="30"/>
+      <c r="AP7" s="30"/>
+      <c r="AQ7" s="30"/>
+      <c r="AR7" s="30"/>
+      <c r="AS7" s="30"/>
+      <c r="AT7" s="30"/>
+      <c r="AU7" s="30"/>
+      <c r="AV7" s="30"/>
+      <c r="AW7" s="30"/>
+      <c r="AX7" s="30"/>
+      <c r="AY7" s="30"/>
+      <c r="AZ7" s="30"/>
+      <c r="BA7" s="30"/>
+      <c r="BB7" s="30"/>
+      <c r="BC7" s="30"/>
+      <c r="BD7" s="30"/>
+      <c r="BE7" s="30"/>
+      <c r="BF7" s="30"/>
+      <c r="BG7" s="30"/>
+      <c r="BH7" s="30"/>
+      <c r="BI7" s="30"/>
+      <c r="BJ7" s="30"/>
+      <c r="BK7" s="30"/>
+      <c r="BL7" s="30"/>
     </row>
     <row r="8" spans="1:94" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="46" t="s">
+      <c r="A8" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="52"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14" t="str">
-        <f t="shared" ref="H8:H36" si="5">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+      <c r="B8" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="51"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13" t="str">
+        <f t="shared" ref="H8:H61" si="5">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31"/>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="31"/>
-      <c r="R8" s="31"/>
-      <c r="S8" s="31"/>
-      <c r="T8" s="31"/>
-      <c r="U8" s="31"/>
-      <c r="V8" s="31"/>
-      <c r="W8" s="31"/>
-      <c r="X8" s="31"/>
-      <c r="Y8" s="31"/>
-      <c r="Z8" s="31"/>
-      <c r="AA8" s="31"/>
-      <c r="AB8" s="31"/>
-      <c r="AC8" s="31"/>
-      <c r="AD8" s="31"/>
-      <c r="AE8" s="31"/>
-      <c r="AF8" s="31"/>
-      <c r="AG8" s="31"/>
-      <c r="AH8" s="31"/>
-      <c r="AI8" s="31"/>
-      <c r="AJ8" s="31"/>
-      <c r="AK8" s="31"/>
-      <c r="AL8" s="31"/>
-      <c r="AM8" s="31"/>
-      <c r="AN8" s="31"/>
-      <c r="AO8" s="31"/>
-      <c r="AP8" s="31"/>
-      <c r="AQ8" s="31"/>
-      <c r="AR8" s="31"/>
-      <c r="AS8" s="31"/>
-      <c r="AT8" s="31"/>
-      <c r="AU8" s="31"/>
-      <c r="AV8" s="31"/>
-      <c r="AW8" s="31"/>
-      <c r="AX8" s="31"/>
-      <c r="AY8" s="31"/>
-      <c r="AZ8" s="31"/>
-      <c r="BA8" s="31"/>
-      <c r="BB8" s="31"/>
-      <c r="BC8" s="31"/>
-      <c r="BD8" s="31"/>
-      <c r="BE8" s="31"/>
-      <c r="BF8" s="31"/>
-      <c r="BG8" s="31"/>
-      <c r="BH8" s="31"/>
-      <c r="BI8" s="31"/>
-      <c r="BJ8" s="31"/>
-      <c r="BK8" s="31"/>
-      <c r="BL8" s="31"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="30"/>
+      <c r="R8" s="30"/>
+      <c r="S8" s="30"/>
+      <c r="T8" s="30"/>
+      <c r="U8" s="30"/>
+      <c r="V8" s="30"/>
+      <c r="W8" s="30"/>
+      <c r="X8" s="30"/>
+      <c r="Y8" s="30"/>
+      <c r="Z8" s="30"/>
+      <c r="AA8" s="30"/>
+      <c r="AB8" s="30"/>
+      <c r="AC8" s="30"/>
+      <c r="AD8" s="30"/>
+      <c r="AE8" s="30"/>
+      <c r="AF8" s="30"/>
+      <c r="AG8" s="30"/>
+      <c r="AH8" s="30"/>
+      <c r="AI8" s="30"/>
+      <c r="AJ8" s="30"/>
+      <c r="AK8" s="30"/>
+      <c r="AL8" s="30"/>
+      <c r="AM8" s="30"/>
+      <c r="AN8" s="30"/>
+      <c r="AO8" s="30"/>
+      <c r="AP8" s="30"/>
+      <c r="AQ8" s="30"/>
+      <c r="AR8" s="30"/>
+      <c r="AS8" s="30"/>
+      <c r="AT8" s="30"/>
+      <c r="AU8" s="30"/>
+      <c r="AV8" s="30"/>
+      <c r="AW8" s="30"/>
+      <c r="AX8" s="30"/>
+      <c r="AY8" s="30"/>
+      <c r="AZ8" s="30"/>
+      <c r="BA8" s="30"/>
+      <c r="BB8" s="30"/>
+      <c r="BC8" s="30"/>
+      <c r="BD8" s="30"/>
+      <c r="BE8" s="30"/>
+      <c r="BF8" s="30"/>
+      <c r="BG8" s="30"/>
+      <c r="BH8" s="30"/>
+      <c r="BI8" s="30"/>
+      <c r="BJ8" s="30"/>
+      <c r="BK8" s="30"/>
+      <c r="BL8" s="30"/>
       <c r="BM8"/>
       <c r="BO8"/>
       <c r="BP8"/>
@@ -2831,86 +2923,86 @@
       <c r="CP8"/>
     </row>
     <row r="9" spans="1:94" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="86" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="53" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" s="17">
+      <c r="B9" s="82" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="16">
         <v>1</v>
       </c>
-      <c r="E9" s="70">
+      <c r="E9" s="67">
         <f>Projektanfang</f>
         <v>45819</v>
       </c>
-      <c r="F9" s="70">
+      <c r="F9" s="67">
         <v>45821</v>
       </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14">
+      <c r="G9" s="13"/>
+      <c r="H9" s="13">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="31"/>
-      <c r="R9" s="31"/>
-      <c r="S9" s="31"/>
-      <c r="T9" s="31"/>
-      <c r="U9" s="31"/>
-      <c r="V9" s="31"/>
-      <c r="W9" s="31"/>
-      <c r="X9" s="31"/>
-      <c r="Y9" s="31"/>
-      <c r="Z9" s="31"/>
-      <c r="AA9" s="31"/>
-      <c r="AB9" s="31"/>
-      <c r="AC9" s="31"/>
-      <c r="AD9" s="31"/>
-      <c r="AE9" s="31"/>
-      <c r="AF9" s="31"/>
-      <c r="AG9" s="31"/>
-      <c r="AH9" s="31"/>
-      <c r="AI9" s="31"/>
-      <c r="AJ9" s="31"/>
-      <c r="AK9" s="31"/>
-      <c r="AL9" s="31"/>
-      <c r="AM9" s="31"/>
-      <c r="AN9" s="31"/>
-      <c r="AO9" s="31"/>
-      <c r="AP9" s="31"/>
-      <c r="AQ9" s="31"/>
-      <c r="AR9" s="31"/>
-      <c r="AS9" s="31"/>
-      <c r="AT9" s="31"/>
-      <c r="AU9" s="31"/>
-      <c r="AV9" s="31"/>
-      <c r="AW9" s="31"/>
-      <c r="AX9" s="31"/>
-      <c r="AY9" s="31"/>
-      <c r="AZ9" s="31"/>
-      <c r="BA9" s="31"/>
-      <c r="BB9" s="31"/>
-      <c r="BC9" s="31"/>
-      <c r="BD9" s="31"/>
-      <c r="BE9" s="31"/>
-      <c r="BF9" s="31"/>
-      <c r="BG9" s="31"/>
-      <c r="BH9" s="31"/>
-      <c r="BI9" s="31"/>
-      <c r="BJ9" s="31"/>
-      <c r="BK9" s="31"/>
-      <c r="BL9" s="31"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="30"/>
+      <c r="S9" s="30"/>
+      <c r="T9" s="30"/>
+      <c r="U9" s="30"/>
+      <c r="V9" s="30"/>
+      <c r="W9" s="30"/>
+      <c r="X9" s="30"/>
+      <c r="Y9" s="30"/>
+      <c r="Z9" s="30"/>
+      <c r="AA9" s="30"/>
+      <c r="AB9" s="30"/>
+      <c r="AC9" s="30"/>
+      <c r="AD9" s="30"/>
+      <c r="AE9" s="30"/>
+      <c r="AF9" s="30"/>
+      <c r="AG9" s="30"/>
+      <c r="AH9" s="30"/>
+      <c r="AI9" s="30"/>
+      <c r="AJ9" s="30"/>
+      <c r="AK9" s="30"/>
+      <c r="AL9" s="30"/>
+      <c r="AM9" s="30"/>
+      <c r="AN9" s="30"/>
+      <c r="AO9" s="30"/>
+      <c r="AP9" s="30"/>
+      <c r="AQ9" s="30"/>
+      <c r="AR9" s="30"/>
+      <c r="AS9" s="30"/>
+      <c r="AT9" s="30"/>
+      <c r="AU9" s="30"/>
+      <c r="AV9" s="30"/>
+      <c r="AW9" s="30"/>
+      <c r="AX9" s="30"/>
+      <c r="AY9" s="30"/>
+      <c r="AZ9" s="30"/>
+      <c r="BA9" s="30"/>
+      <c r="BB9" s="30"/>
+      <c r="BC9" s="30"/>
+      <c r="BD9" s="30"/>
+      <c r="BE9" s="30"/>
+      <c r="BF9" s="30"/>
+      <c r="BG9" s="30"/>
+      <c r="BH9" s="30"/>
+      <c r="BI9" s="30"/>
+      <c r="BJ9" s="30"/>
+      <c r="BK9" s="30"/>
+      <c r="BL9" s="30"/>
       <c r="BM9"/>
       <c r="BN9"/>
       <c r="BO9"/>
@@ -2943,86 +3035,86 @@
       <c r="CP9"/>
     </row>
     <row r="10" spans="1:94" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="46" t="s">
+      <c r="A10" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="86" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="53" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="17">
+      <c r="B10" s="82" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="16">
         <v>1</v>
       </c>
-      <c r="E10" s="70">
+      <c r="E10" s="67">
         <f>F9</f>
         <v>45821</v>
       </c>
-      <c r="F10" s="70">
+      <c r="F10" s="67">
         <v>45823</v>
       </c>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14">
+      <c r="G10" s="13"/>
+      <c r="H10" s="13">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="31"/>
-      <c r="P10" s="31"/>
-      <c r="Q10" s="31"/>
-      <c r="R10" s="31"/>
-      <c r="S10" s="31"/>
-      <c r="T10" s="31"/>
-      <c r="U10" s="32"/>
-      <c r="V10" s="32"/>
-      <c r="W10" s="31"/>
-      <c r="X10" s="31"/>
-      <c r="Y10" s="31"/>
-      <c r="Z10" s="31"/>
-      <c r="AA10" s="31"/>
-      <c r="AB10" s="31"/>
-      <c r="AC10" s="31"/>
-      <c r="AD10" s="31"/>
-      <c r="AE10" s="31"/>
-      <c r="AF10" s="31"/>
-      <c r="AG10" s="31"/>
-      <c r="AH10" s="31"/>
-      <c r="AI10" s="31"/>
-      <c r="AJ10" s="31"/>
-      <c r="AK10" s="31"/>
-      <c r="AL10" s="31"/>
-      <c r="AM10" s="31"/>
-      <c r="AN10" s="31"/>
-      <c r="AO10" s="31"/>
-      <c r="AP10" s="31"/>
-      <c r="AQ10" s="31"/>
-      <c r="AR10" s="31"/>
-      <c r="AS10" s="31"/>
-      <c r="AT10" s="31"/>
-      <c r="AU10" s="31"/>
-      <c r="AV10" s="31"/>
-      <c r="AW10" s="31"/>
-      <c r="AX10" s="31"/>
-      <c r="AY10" s="31"/>
-      <c r="AZ10" s="31"/>
-      <c r="BA10" s="31"/>
-      <c r="BB10" s="31"/>
-      <c r="BC10" s="31"/>
-      <c r="BD10" s="31"/>
-      <c r="BE10" s="31"/>
-      <c r="BF10" s="31"/>
-      <c r="BG10" s="31"/>
-      <c r="BH10" s="31"/>
-      <c r="BI10" s="31"/>
-      <c r="BJ10" s="31"/>
-      <c r="BK10" s="31"/>
-      <c r="BL10" s="31"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="30"/>
+      <c r="S10" s="30"/>
+      <c r="T10" s="30"/>
+      <c r="U10" s="31"/>
+      <c r="V10" s="31"/>
+      <c r="W10" s="30"/>
+      <c r="X10" s="30"/>
+      <c r="Y10" s="30"/>
+      <c r="Z10" s="30"/>
+      <c r="AA10" s="30"/>
+      <c r="AB10" s="30"/>
+      <c r="AC10" s="30"/>
+      <c r="AD10" s="30"/>
+      <c r="AE10" s="30"/>
+      <c r="AF10" s="30"/>
+      <c r="AG10" s="30"/>
+      <c r="AH10" s="30"/>
+      <c r="AI10" s="30"/>
+      <c r="AJ10" s="30"/>
+      <c r="AK10" s="30"/>
+      <c r="AL10" s="30"/>
+      <c r="AM10" s="30"/>
+      <c r="AN10" s="30"/>
+      <c r="AO10" s="30"/>
+      <c r="AP10" s="30"/>
+      <c r="AQ10" s="30"/>
+      <c r="AR10" s="30"/>
+      <c r="AS10" s="30"/>
+      <c r="AT10" s="30"/>
+      <c r="AU10" s="30"/>
+      <c r="AV10" s="30"/>
+      <c r="AW10" s="30"/>
+      <c r="AX10" s="30"/>
+      <c r="AY10" s="30"/>
+      <c r="AZ10" s="30"/>
+      <c r="BA10" s="30"/>
+      <c r="BB10" s="30"/>
+      <c r="BC10" s="30"/>
+      <c r="BD10" s="30"/>
+      <c r="BE10" s="30"/>
+      <c r="BF10" s="30"/>
+      <c r="BG10" s="30"/>
+      <c r="BH10" s="30"/>
+      <c r="BI10" s="30"/>
+      <c r="BJ10" s="30"/>
+      <c r="BK10" s="30"/>
+      <c r="BL10" s="30"/>
       <c r="BM10"/>
       <c r="BN10"/>
       <c r="BO10"/>
@@ -3055,85 +3147,85 @@
       <c r="CP10"/>
     </row>
     <row r="11" spans="1:94" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="45"/>
-      <c r="B11" s="86" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="53" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="17">
+      <c r="A11" s="44"/>
+      <c r="B11" s="82" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="16">
         <v>1</v>
       </c>
-      <c r="E11" s="70">
+      <c r="E11" s="67">
         <f>F10</f>
         <v>45823</v>
       </c>
-      <c r="F11" s="70">
+      <c r="F11" s="67">
         <f>E11+4</f>
         <v>45827</v>
       </c>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14">
+      <c r="G11" s="13"/>
+      <c r="H11" s="13">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31"/>
-      <c r="P11" s="31"/>
-      <c r="Q11" s="31"/>
-      <c r="R11" s="31"/>
-      <c r="S11" s="31"/>
-      <c r="T11" s="31"/>
-      <c r="U11" s="31"/>
-      <c r="V11" s="31"/>
-      <c r="W11" s="31"/>
-      <c r="X11" s="31"/>
-      <c r="Y11" s="31"/>
-      <c r="Z11" s="31"/>
-      <c r="AA11" s="31"/>
-      <c r="AB11" s="31"/>
-      <c r="AC11" s="31"/>
-      <c r="AD11" s="31"/>
-      <c r="AE11" s="31"/>
-      <c r="AF11" s="31"/>
-      <c r="AG11" s="31"/>
-      <c r="AH11" s="31"/>
-      <c r="AI11" s="31"/>
-      <c r="AJ11" s="31"/>
-      <c r="AK11" s="31"/>
-      <c r="AL11" s="31"/>
-      <c r="AM11" s="31"/>
-      <c r="AN11" s="31"/>
-      <c r="AO11" s="31"/>
-      <c r="AP11" s="31"/>
-      <c r="AQ11" s="31"/>
-      <c r="AR11" s="31"/>
-      <c r="AS11" s="31"/>
-      <c r="AT11" s="31"/>
-      <c r="AU11" s="31"/>
-      <c r="AV11" s="31"/>
-      <c r="AW11" s="31"/>
-      <c r="AX11" s="31"/>
-      <c r="AY11" s="31"/>
-      <c r="AZ11" s="31"/>
-      <c r="BA11" s="31"/>
-      <c r="BB11" s="31"/>
-      <c r="BC11" s="31"/>
-      <c r="BD11" s="31"/>
-      <c r="BE11" s="31"/>
-      <c r="BF11" s="31"/>
-      <c r="BG11" s="31"/>
-      <c r="BH11" s="31"/>
-      <c r="BI11" s="31"/>
-      <c r="BJ11" s="31"/>
-      <c r="BK11" s="31"/>
-      <c r="BL11" s="31"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="30"/>
+      <c r="S11" s="30"/>
+      <c r="T11" s="30"/>
+      <c r="U11" s="30"/>
+      <c r="V11" s="30"/>
+      <c r="W11" s="30"/>
+      <c r="X11" s="30"/>
+      <c r="Y11" s="30"/>
+      <c r="Z11" s="30"/>
+      <c r="AA11" s="30"/>
+      <c r="AB11" s="30"/>
+      <c r="AC11" s="30"/>
+      <c r="AD11" s="30"/>
+      <c r="AE11" s="30"/>
+      <c r="AF11" s="30"/>
+      <c r="AG11" s="30"/>
+      <c r="AH11" s="30"/>
+      <c r="AI11" s="30"/>
+      <c r="AJ11" s="30"/>
+      <c r="AK11" s="30"/>
+      <c r="AL11" s="30"/>
+      <c r="AM11" s="30"/>
+      <c r="AN11" s="30"/>
+      <c r="AO11" s="30"/>
+      <c r="AP11" s="30"/>
+      <c r="AQ11" s="30"/>
+      <c r="AR11" s="30"/>
+      <c r="AS11" s="30"/>
+      <c r="AT11" s="30"/>
+      <c r="AU11" s="30"/>
+      <c r="AV11" s="30"/>
+      <c r="AW11" s="30"/>
+      <c r="AX11" s="30"/>
+      <c r="AY11" s="30"/>
+      <c r="AZ11" s="30"/>
+      <c r="BA11" s="30"/>
+      <c r="BB11" s="30"/>
+      <c r="BC11" s="30"/>
+      <c r="BD11" s="30"/>
+      <c r="BE11" s="30"/>
+      <c r="BF11" s="30"/>
+      <c r="BG11" s="30"/>
+      <c r="BH11" s="30"/>
+      <c r="BI11" s="30"/>
+      <c r="BJ11" s="30"/>
+      <c r="BK11" s="30"/>
+      <c r="BL11" s="30"/>
       <c r="BM11"/>
       <c r="BN11"/>
       <c r="BO11"/>
@@ -3166,83 +3258,83 @@
       <c r="CP11"/>
     </row>
     <row r="12" spans="1:94" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="45"/>
-      <c r="B12" s="86" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="53" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="17">
-        <v>0</v>
-      </c>
-      <c r="E12" s="70">
+      <c r="A12" s="44"/>
+      <c r="B12" s="82" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="16">
+        <v>1</v>
+      </c>
+      <c r="E12" s="67">
         <v>45839</v>
       </c>
-      <c r="F12" s="70">
+      <c r="F12" s="67">
         <v>45840</v>
       </c>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14">
+      <c r="G12" s="13"/>
+      <c r="H12" s="13">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="31"/>
-      <c r="P12" s="31"/>
-      <c r="Q12" s="31"/>
-      <c r="R12" s="31"/>
-      <c r="S12" s="31"/>
-      <c r="T12" s="31"/>
-      <c r="U12" s="31"/>
-      <c r="V12" s="31"/>
-      <c r="W12" s="31"/>
-      <c r="X12" s="31"/>
-      <c r="Y12" s="32"/>
-      <c r="Z12" s="31"/>
-      <c r="AA12" s="31"/>
-      <c r="AB12" s="31"/>
-      <c r="AC12" s="31"/>
-      <c r="AD12" s="31"/>
-      <c r="AE12" s="31"/>
-      <c r="AF12" s="31"/>
-      <c r="AG12" s="31"/>
-      <c r="AH12" s="31"/>
-      <c r="AI12" s="31"/>
-      <c r="AJ12" s="31"/>
-      <c r="AK12" s="31"/>
-      <c r="AL12" s="31"/>
-      <c r="AM12" s="31"/>
-      <c r="AN12" s="31"/>
-      <c r="AO12" s="31"/>
-      <c r="AP12" s="31"/>
-      <c r="AQ12" s="31"/>
-      <c r="AR12" s="31"/>
-      <c r="AS12" s="31"/>
-      <c r="AT12" s="31"/>
-      <c r="AU12" s="31"/>
-      <c r="AV12" s="31"/>
-      <c r="AW12" s="31"/>
-      <c r="AX12" s="31"/>
-      <c r="AY12" s="31"/>
-      <c r="AZ12" s="31"/>
-      <c r="BA12" s="31"/>
-      <c r="BB12" s="31"/>
-      <c r="BC12" s="31"/>
-      <c r="BD12" s="31"/>
-      <c r="BE12" s="31"/>
-      <c r="BF12" s="31"/>
-      <c r="BG12" s="31"/>
-      <c r="BH12" s="31"/>
-      <c r="BI12" s="31"/>
-      <c r="BJ12" s="31"/>
-      <c r="BK12" s="31"/>
-      <c r="BL12" s="31"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="30"/>
+      <c r="R12" s="30"/>
+      <c r="S12" s="30"/>
+      <c r="T12" s="30"/>
+      <c r="U12" s="30"/>
+      <c r="V12" s="30"/>
+      <c r="W12" s="30"/>
+      <c r="X12" s="30"/>
+      <c r="Y12" s="31"/>
+      <c r="Z12" s="30"/>
+      <c r="AA12" s="30"/>
+      <c r="AB12" s="30"/>
+      <c r="AC12" s="30"/>
+      <c r="AD12" s="30"/>
+      <c r="AE12" s="30"/>
+      <c r="AF12" s="30"/>
+      <c r="AG12" s="30"/>
+      <c r="AH12" s="30"/>
+      <c r="AI12" s="30"/>
+      <c r="AJ12" s="30"/>
+      <c r="AK12" s="30"/>
+      <c r="AL12" s="30"/>
+      <c r="AM12" s="30"/>
+      <c r="AN12" s="30"/>
+      <c r="AO12" s="30"/>
+      <c r="AP12" s="30"/>
+      <c r="AQ12" s="30"/>
+      <c r="AR12" s="30"/>
+      <c r="AS12" s="30"/>
+      <c r="AT12" s="30"/>
+      <c r="AU12" s="30"/>
+      <c r="AV12" s="30"/>
+      <c r="AW12" s="30"/>
+      <c r="AX12" s="30"/>
+      <c r="AY12" s="30"/>
+      <c r="AZ12" s="30"/>
+      <c r="BA12" s="30"/>
+      <c r="BB12" s="30"/>
+      <c r="BC12" s="30"/>
+      <c r="BD12" s="30"/>
+      <c r="BE12" s="30"/>
+      <c r="BF12" s="30"/>
+      <c r="BG12" s="30"/>
+      <c r="BH12" s="30"/>
+      <c r="BI12" s="30"/>
+      <c r="BJ12" s="30"/>
+      <c r="BK12" s="30"/>
+      <c r="BL12" s="30"/>
       <c r="BM12"/>
       <c r="BN12"/>
       <c r="BO12"/>
@@ -3275,85 +3367,85 @@
       <c r="CP12"/>
     </row>
     <row r="13" spans="1:94" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="45"/>
-      <c r="B13" s="86" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="53" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="17">
+      <c r="A13" s="44"/>
+      <c r="B13" s="82" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="16">
         <v>0.5</v>
       </c>
-      <c r="E13" s="70">
+      <c r="E13" s="67">
         <f>F12</f>
         <v>45840</v>
       </c>
-      <c r="F13" s="70">
+      <c r="F13" s="67">
         <f>E13+2</f>
         <v>45842</v>
       </c>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14">
+      <c r="G13" s="13"/>
+      <c r="H13" s="13">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="31"/>
-      <c r="O13" s="31"/>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="31"/>
-      <c r="R13" s="31"/>
-      <c r="S13" s="31"/>
-      <c r="T13" s="31"/>
-      <c r="U13" s="31"/>
-      <c r="V13" s="31"/>
-      <c r="W13" s="31"/>
-      <c r="X13" s="31"/>
-      <c r="Y13" s="31"/>
-      <c r="Z13" s="31"/>
-      <c r="AA13" s="31"/>
-      <c r="AB13" s="31"/>
-      <c r="AC13" s="31"/>
-      <c r="AD13" s="31"/>
-      <c r="AE13" s="31"/>
-      <c r="AF13" s="31"/>
-      <c r="AG13" s="31"/>
-      <c r="AH13" s="31"/>
-      <c r="AI13" s="31"/>
-      <c r="AJ13" s="31"/>
-      <c r="AK13" s="31"/>
-      <c r="AL13" s="31"/>
-      <c r="AM13" s="31"/>
-      <c r="AN13" s="31"/>
-      <c r="AO13" s="31"/>
-      <c r="AP13" s="31"/>
-      <c r="AQ13" s="31"/>
-      <c r="AR13" s="31"/>
-      <c r="AS13" s="31"/>
-      <c r="AT13" s="31"/>
-      <c r="AU13" s="31"/>
-      <c r="AV13" s="31"/>
-      <c r="AW13" s="31"/>
-      <c r="AX13" s="31"/>
-      <c r="AY13" s="31"/>
-      <c r="AZ13" s="31"/>
-      <c r="BA13" s="31"/>
-      <c r="BB13" s="31"/>
-      <c r="BC13" s="31"/>
-      <c r="BD13" s="31"/>
-      <c r="BE13" s="31"/>
-      <c r="BF13" s="31"/>
-      <c r="BG13" s="31"/>
-      <c r="BH13" s="31"/>
-      <c r="BI13" s="31"/>
-      <c r="BJ13" s="31"/>
-      <c r="BK13" s="31"/>
-      <c r="BL13" s="31"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="30"/>
+      <c r="R13" s="30"/>
+      <c r="S13" s="30"/>
+      <c r="T13" s="30"/>
+      <c r="U13" s="30"/>
+      <c r="V13" s="30"/>
+      <c r="W13" s="30"/>
+      <c r="X13" s="30"/>
+      <c r="Y13" s="30"/>
+      <c r="Z13" s="30"/>
+      <c r="AA13" s="30"/>
+      <c r="AB13" s="30"/>
+      <c r="AC13" s="30"/>
+      <c r="AD13" s="30"/>
+      <c r="AE13" s="30"/>
+      <c r="AF13" s="30"/>
+      <c r="AG13" s="30"/>
+      <c r="AH13" s="30"/>
+      <c r="AI13" s="30"/>
+      <c r="AJ13" s="30"/>
+      <c r="AK13" s="30"/>
+      <c r="AL13" s="30"/>
+      <c r="AM13" s="30"/>
+      <c r="AN13" s="30"/>
+      <c r="AO13" s="30"/>
+      <c r="AP13" s="30"/>
+      <c r="AQ13" s="30"/>
+      <c r="AR13" s="30"/>
+      <c r="AS13" s="30"/>
+      <c r="AT13" s="30"/>
+      <c r="AU13" s="30"/>
+      <c r="AV13" s="30"/>
+      <c r="AW13" s="30"/>
+      <c r="AX13" s="30"/>
+      <c r="AY13" s="30"/>
+      <c r="AZ13" s="30"/>
+      <c r="BA13" s="30"/>
+      <c r="BB13" s="30"/>
+      <c r="BC13" s="30"/>
+      <c r="BD13" s="30"/>
+      <c r="BE13" s="30"/>
+      <c r="BF13" s="30"/>
+      <c r="BG13" s="30"/>
+      <c r="BH13" s="30"/>
+      <c r="BI13" s="30"/>
+      <c r="BJ13" s="30"/>
+      <c r="BK13" s="30"/>
+      <c r="BL13" s="30"/>
       <c r="BM13"/>
       <c r="BN13"/>
       <c r="BO13"/>
@@ -3386,77 +3478,77 @@
       <c r="CP13"/>
     </row>
     <row r="14" spans="1:94" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="46" t="s">
+      <c r="A14" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="54"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="72"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14" t="str">
+      <c r="B14" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="53"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="31"/>
-      <c r="P14" s="31"/>
-      <c r="Q14" s="31"/>
-      <c r="R14" s="31"/>
-      <c r="S14" s="31"/>
-      <c r="T14" s="31"/>
-      <c r="U14" s="31"/>
-      <c r="V14" s="31"/>
-      <c r="W14" s="31"/>
-      <c r="X14" s="31"/>
-      <c r="Y14" s="31"/>
-      <c r="Z14" s="31"/>
-      <c r="AA14" s="31"/>
-      <c r="AB14" s="31"/>
-      <c r="AC14" s="31"/>
-      <c r="AD14" s="31"/>
-      <c r="AE14" s="31"/>
-      <c r="AF14" s="31"/>
-      <c r="AG14" s="31"/>
-      <c r="AH14" s="31"/>
-      <c r="AI14" s="31"/>
-      <c r="AJ14" s="31"/>
-      <c r="AK14" s="31"/>
-      <c r="AL14" s="31"/>
-      <c r="AM14" s="31"/>
-      <c r="AN14" s="31"/>
-      <c r="AO14" s="31"/>
-      <c r="AP14" s="31"/>
-      <c r="AQ14" s="31"/>
-      <c r="AR14" s="31"/>
-      <c r="AS14" s="31"/>
-      <c r="AT14" s="31"/>
-      <c r="AU14" s="31"/>
-      <c r="AV14" s="31"/>
-      <c r="AW14" s="31"/>
-      <c r="AX14" s="31"/>
-      <c r="AY14" s="31"/>
-      <c r="AZ14" s="31"/>
-      <c r="BA14" s="31"/>
-      <c r="BB14" s="31"/>
-      <c r="BC14" s="31"/>
-      <c r="BD14" s="31"/>
-      <c r="BE14" s="31"/>
-      <c r="BF14" s="31"/>
-      <c r="BG14" s="31"/>
-      <c r="BH14" s="31"/>
-      <c r="BI14" s="31"/>
-      <c r="BJ14" s="31"/>
-      <c r="BK14" s="31"/>
-      <c r="BL14" s="31"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="30"/>
+      <c r="R14" s="30"/>
+      <c r="S14" s="30"/>
+      <c r="T14" s="30"/>
+      <c r="U14" s="30"/>
+      <c r="V14" s="30"/>
+      <c r="W14" s="30"/>
+      <c r="X14" s="30"/>
+      <c r="Y14" s="30"/>
+      <c r="Z14" s="30"/>
+      <c r="AA14" s="30"/>
+      <c r="AB14" s="30"/>
+      <c r="AC14" s="30"/>
+      <c r="AD14" s="30"/>
+      <c r="AE14" s="30"/>
+      <c r="AF14" s="30"/>
+      <c r="AG14" s="30"/>
+      <c r="AH14" s="30"/>
+      <c r="AI14" s="30"/>
+      <c r="AJ14" s="30"/>
+      <c r="AK14" s="30"/>
+      <c r="AL14" s="30"/>
+      <c r="AM14" s="30"/>
+      <c r="AN14" s="30"/>
+      <c r="AO14" s="30"/>
+      <c r="AP14" s="30"/>
+      <c r="AQ14" s="30"/>
+      <c r="AR14" s="30"/>
+      <c r="AS14" s="30"/>
+      <c r="AT14" s="30"/>
+      <c r="AU14" s="30"/>
+      <c r="AV14" s="30"/>
+      <c r="AW14" s="30"/>
+      <c r="AX14" s="30"/>
+      <c r="AY14" s="30"/>
+      <c r="AZ14" s="30"/>
+      <c r="BA14" s="30"/>
+      <c r="BB14" s="30"/>
+      <c r="BC14" s="30"/>
+      <c r="BD14" s="30"/>
+      <c r="BE14" s="30"/>
+      <c r="BF14" s="30"/>
+      <c r="BG14" s="30"/>
+      <c r="BH14" s="30"/>
+      <c r="BI14" s="30"/>
+      <c r="BJ14" s="30"/>
+      <c r="BK14" s="30"/>
+      <c r="BL14" s="30"/>
       <c r="BM14"/>
       <c r="BN14"/>
       <c r="BO14"/>
@@ -3489,83 +3581,83 @@
       <c r="CP14"/>
     </row>
     <row r="15" spans="1:94" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="46"/>
-      <c r="B15" s="87" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="55" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" s="20">
+      <c r="A15" s="45"/>
+      <c r="B15" s="83" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="19">
         <v>0</v>
       </c>
-      <c r="E15" s="73">
+      <c r="E15" s="70">
         <v>45839</v>
       </c>
-      <c r="F15" s="73">
+      <c r="F15" s="70">
         <v>45841</v>
       </c>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14">
+      <c r="G15" s="13"/>
+      <c r="H15" s="13">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="31"/>
-      <c r="O15" s="31"/>
-      <c r="P15" s="31"/>
-      <c r="Q15" s="31"/>
-      <c r="R15" s="31"/>
-      <c r="S15" s="31"/>
-      <c r="T15" s="31"/>
-      <c r="U15" s="31"/>
-      <c r="V15" s="31"/>
-      <c r="W15" s="31"/>
-      <c r="X15" s="31"/>
-      <c r="Y15" s="31"/>
-      <c r="Z15" s="31"/>
-      <c r="AA15" s="31"/>
-      <c r="AB15" s="31"/>
-      <c r="AC15" s="31"/>
-      <c r="AD15" s="31"/>
-      <c r="AE15" s="31"/>
-      <c r="AF15" s="31"/>
-      <c r="AG15" s="31"/>
-      <c r="AH15" s="31"/>
-      <c r="AI15" s="31"/>
-      <c r="AJ15" s="31"/>
-      <c r="AK15" s="31"/>
-      <c r="AL15" s="31"/>
-      <c r="AM15" s="31"/>
-      <c r="AN15" s="31"/>
-      <c r="AO15" s="31"/>
-      <c r="AP15" s="31"/>
-      <c r="AQ15" s="31"/>
-      <c r="AR15" s="31"/>
-      <c r="AS15" s="31"/>
-      <c r="AT15" s="31"/>
-      <c r="AU15" s="31"/>
-      <c r="AV15" s="31"/>
-      <c r="AW15" s="31"/>
-      <c r="AX15" s="31"/>
-      <c r="AY15" s="31"/>
-      <c r="AZ15" s="31"/>
-      <c r="BA15" s="31"/>
-      <c r="BB15" s="31"/>
-      <c r="BC15" s="31"/>
-      <c r="BD15" s="31"/>
-      <c r="BE15" s="31"/>
-      <c r="BF15" s="31"/>
-      <c r="BG15" s="31"/>
-      <c r="BH15" s="31"/>
-      <c r="BI15" s="31"/>
-      <c r="BJ15" s="31"/>
-      <c r="BK15" s="31"/>
-      <c r="BL15" s="31"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="30"/>
+      <c r="P15" s="30"/>
+      <c r="Q15" s="30"/>
+      <c r="R15" s="30"/>
+      <c r="S15" s="30"/>
+      <c r="T15" s="30"/>
+      <c r="U15" s="30"/>
+      <c r="V15" s="30"/>
+      <c r="W15" s="30"/>
+      <c r="X15" s="30"/>
+      <c r="Y15" s="30"/>
+      <c r="Z15" s="30"/>
+      <c r="AA15" s="30"/>
+      <c r="AB15" s="30"/>
+      <c r="AC15" s="30"/>
+      <c r="AD15" s="30"/>
+      <c r="AE15" s="30"/>
+      <c r="AF15" s="30"/>
+      <c r="AG15" s="30"/>
+      <c r="AH15" s="30"/>
+      <c r="AI15" s="30"/>
+      <c r="AJ15" s="30"/>
+      <c r="AK15" s="30"/>
+      <c r="AL15" s="30"/>
+      <c r="AM15" s="30"/>
+      <c r="AN15" s="30"/>
+      <c r="AO15" s="30"/>
+      <c r="AP15" s="30"/>
+      <c r="AQ15" s="30"/>
+      <c r="AR15" s="30"/>
+      <c r="AS15" s="30"/>
+      <c r="AT15" s="30"/>
+      <c r="AU15" s="30"/>
+      <c r="AV15" s="30"/>
+      <c r="AW15" s="30"/>
+      <c r="AX15" s="30"/>
+      <c r="AY15" s="30"/>
+      <c r="AZ15" s="30"/>
+      <c r="BA15" s="30"/>
+      <c r="BB15" s="30"/>
+      <c r="BC15" s="30"/>
+      <c r="BD15" s="30"/>
+      <c r="BE15" s="30"/>
+      <c r="BF15" s="30"/>
+      <c r="BG15" s="30"/>
+      <c r="BH15" s="30"/>
+      <c r="BI15" s="30"/>
+      <c r="BJ15" s="30"/>
+      <c r="BK15" s="30"/>
+      <c r="BL15" s="30"/>
       <c r="BM15"/>
       <c r="BN15"/>
       <c r="BO15"/>
@@ -3598,85 +3690,85 @@
       <c r="CP15"/>
     </row>
     <row r="16" spans="1:94" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="45"/>
-      <c r="B16" s="87" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" s="55" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" s="20">
+      <c r="A16" s="44"/>
+      <c r="B16" s="83" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="19">
         <v>0</v>
       </c>
-      <c r="E16" s="73">
+      <c r="E16" s="70">
         <f>E15+2</f>
         <v>45841</v>
       </c>
-      <c r="F16" s="73">
+      <c r="F16" s="70">
         <f>E16+5</f>
         <v>45846</v>
       </c>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14">
+      <c r="G16" s="13"/>
+      <c r="H16" s="13">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="31"/>
-      <c r="O16" s="31"/>
-      <c r="P16" s="31"/>
-      <c r="Q16" s="31"/>
-      <c r="R16" s="31"/>
-      <c r="S16" s="31"/>
-      <c r="T16" s="31"/>
-      <c r="U16" s="32"/>
-      <c r="V16" s="32"/>
-      <c r="W16" s="31"/>
-      <c r="X16" s="31"/>
-      <c r="Y16" s="31"/>
-      <c r="Z16" s="31"/>
-      <c r="AA16" s="31"/>
-      <c r="AB16" s="31"/>
-      <c r="AC16" s="31"/>
-      <c r="AD16" s="31"/>
-      <c r="AE16" s="31"/>
-      <c r="AF16" s="31"/>
-      <c r="AG16" s="31"/>
-      <c r="AH16" s="31"/>
-      <c r="AI16" s="31"/>
-      <c r="AJ16" s="31"/>
-      <c r="AK16" s="31"/>
-      <c r="AL16" s="31"/>
-      <c r="AM16" s="31"/>
-      <c r="AN16" s="31"/>
-      <c r="AO16" s="31"/>
-      <c r="AP16" s="31"/>
-      <c r="AQ16" s="31"/>
-      <c r="AR16" s="31"/>
-      <c r="AS16" s="31"/>
-      <c r="AT16" s="31"/>
-      <c r="AU16" s="31"/>
-      <c r="AV16" s="31"/>
-      <c r="AW16" s="31"/>
-      <c r="AX16" s="31"/>
-      <c r="AY16" s="31"/>
-      <c r="AZ16" s="31"/>
-      <c r="BA16" s="31"/>
-      <c r="BB16" s="31"/>
-      <c r="BC16" s="31"/>
-      <c r="BD16" s="31"/>
-      <c r="BE16" s="31"/>
-      <c r="BF16" s="31"/>
-      <c r="BG16" s="31"/>
-      <c r="BH16" s="31"/>
-      <c r="BI16" s="31"/>
-      <c r="BJ16" s="31"/>
-      <c r="BK16" s="31"/>
-      <c r="BL16" s="31"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="30"/>
+      <c r="R16" s="30"/>
+      <c r="S16" s="30"/>
+      <c r="T16" s="30"/>
+      <c r="U16" s="31"/>
+      <c r="V16" s="31"/>
+      <c r="W16" s="30"/>
+      <c r="X16" s="30"/>
+      <c r="Y16" s="30"/>
+      <c r="Z16" s="30"/>
+      <c r="AA16" s="30"/>
+      <c r="AB16" s="30"/>
+      <c r="AC16" s="30"/>
+      <c r="AD16" s="30"/>
+      <c r="AE16" s="30"/>
+      <c r="AF16" s="30"/>
+      <c r="AG16" s="30"/>
+      <c r="AH16" s="30"/>
+      <c r="AI16" s="30"/>
+      <c r="AJ16" s="30"/>
+      <c r="AK16" s="30"/>
+      <c r="AL16" s="30"/>
+      <c r="AM16" s="30"/>
+      <c r="AN16" s="30"/>
+      <c r="AO16" s="30"/>
+      <c r="AP16" s="30"/>
+      <c r="AQ16" s="30"/>
+      <c r="AR16" s="30"/>
+      <c r="AS16" s="30"/>
+      <c r="AT16" s="30"/>
+      <c r="AU16" s="30"/>
+      <c r="AV16" s="30"/>
+      <c r="AW16" s="30"/>
+      <c r="AX16" s="30"/>
+      <c r="AY16" s="30"/>
+      <c r="AZ16" s="30"/>
+      <c r="BA16" s="30"/>
+      <c r="BB16" s="30"/>
+      <c r="BC16" s="30"/>
+      <c r="BD16" s="30"/>
+      <c r="BE16" s="30"/>
+      <c r="BF16" s="30"/>
+      <c r="BG16" s="30"/>
+      <c r="BH16" s="30"/>
+      <c r="BI16" s="30"/>
+      <c r="BJ16" s="30"/>
+      <c r="BK16" s="30"/>
+      <c r="BL16" s="30"/>
       <c r="BM16"/>
       <c r="BN16"/>
       <c r="BO16"/>
@@ -3709,85 +3801,85 @@
       <c r="CP16"/>
     </row>
     <row r="17" spans="1:94" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="45"/>
-      <c r="B17" s="87" t="s">
+      <c r="A17" s="44"/>
+      <c r="B17" s="83" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="55" t="s">
-        <v>61</v>
-      </c>
-      <c r="D17" s="20">
+      <c r="D17" s="19">
         <v>0</v>
       </c>
-      <c r="E17" s="73">
+      <c r="E17" s="70">
         <f>F16</f>
         <v>45846</v>
       </c>
-      <c r="F17" s="73">
+      <c r="F17" s="70">
         <f>E17+3</f>
         <v>45849</v>
       </c>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14">
+      <c r="G17" s="13"/>
+      <c r="H17" s="13">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="31"/>
-      <c r="N17" s="31"/>
-      <c r="O17" s="31"/>
-      <c r="P17" s="31"/>
-      <c r="Q17" s="31"/>
-      <c r="R17" s="31"/>
-      <c r="S17" s="31"/>
-      <c r="T17" s="31"/>
-      <c r="U17" s="31"/>
-      <c r="V17" s="31"/>
-      <c r="W17" s="31"/>
-      <c r="X17" s="31"/>
-      <c r="Y17" s="31"/>
-      <c r="Z17" s="31"/>
-      <c r="AA17" s="31"/>
-      <c r="AB17" s="31"/>
-      <c r="AC17" s="31"/>
-      <c r="AD17" s="31"/>
-      <c r="AE17" s="31"/>
-      <c r="AF17" s="31"/>
-      <c r="AG17" s="31"/>
-      <c r="AH17" s="31"/>
-      <c r="AI17" s="31"/>
-      <c r="AJ17" s="31"/>
-      <c r="AK17" s="31"/>
-      <c r="AL17" s="31"/>
-      <c r="AM17" s="31"/>
-      <c r="AN17" s="31"/>
-      <c r="AO17" s="31"/>
-      <c r="AP17" s="31"/>
-      <c r="AQ17" s="31"/>
-      <c r="AR17" s="31"/>
-      <c r="AS17" s="31"/>
-      <c r="AT17" s="31"/>
-      <c r="AU17" s="31"/>
-      <c r="AV17" s="31"/>
-      <c r="AW17" s="31"/>
-      <c r="AX17" s="31"/>
-      <c r="AY17" s="31"/>
-      <c r="AZ17" s="31"/>
-      <c r="BA17" s="31"/>
-      <c r="BB17" s="31"/>
-      <c r="BC17" s="31"/>
-      <c r="BD17" s="31"/>
-      <c r="BE17" s="31"/>
-      <c r="BF17" s="31"/>
-      <c r="BG17" s="31"/>
-      <c r="BH17" s="31"/>
-      <c r="BI17" s="31"/>
-      <c r="BJ17" s="31"/>
-      <c r="BK17" s="31"/>
-      <c r="BL17" s="31"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="30"/>
+      <c r="Q17" s="30"/>
+      <c r="R17" s="30"/>
+      <c r="S17" s="30"/>
+      <c r="T17" s="30"/>
+      <c r="U17" s="30"/>
+      <c r="V17" s="30"/>
+      <c r="W17" s="30"/>
+      <c r="X17" s="30"/>
+      <c r="Y17" s="30"/>
+      <c r="Z17" s="30"/>
+      <c r="AA17" s="30"/>
+      <c r="AB17" s="30"/>
+      <c r="AC17" s="30"/>
+      <c r="AD17" s="30"/>
+      <c r="AE17" s="30"/>
+      <c r="AF17" s="30"/>
+      <c r="AG17" s="30"/>
+      <c r="AH17" s="30"/>
+      <c r="AI17" s="30"/>
+      <c r="AJ17" s="30"/>
+      <c r="AK17" s="30"/>
+      <c r="AL17" s="30"/>
+      <c r="AM17" s="30"/>
+      <c r="AN17" s="30"/>
+      <c r="AO17" s="30"/>
+      <c r="AP17" s="30"/>
+      <c r="AQ17" s="30"/>
+      <c r="AR17" s="30"/>
+      <c r="AS17" s="30"/>
+      <c r="AT17" s="30"/>
+      <c r="AU17" s="30"/>
+      <c r="AV17" s="30"/>
+      <c r="AW17" s="30"/>
+      <c r="AX17" s="30"/>
+      <c r="AY17" s="30"/>
+      <c r="AZ17" s="30"/>
+      <c r="BA17" s="30"/>
+      <c r="BB17" s="30"/>
+      <c r="BC17" s="30"/>
+      <c r="BD17" s="30"/>
+      <c r="BE17" s="30"/>
+      <c r="BF17" s="30"/>
+      <c r="BG17" s="30"/>
+      <c r="BH17" s="30"/>
+      <c r="BI17" s="30"/>
+      <c r="BJ17" s="30"/>
+      <c r="BK17" s="30"/>
+      <c r="BL17" s="30"/>
       <c r="BM17"/>
       <c r="BN17"/>
       <c r="BO17"/>
@@ -3820,83 +3912,83 @@
       <c r="CP17"/>
     </row>
     <row r="18" spans="1:94" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="45"/>
-      <c r="B18" s="87" t="s">
-        <v>62</v>
-      </c>
-      <c r="C18" s="55" t="s">
-        <v>66</v>
-      </c>
-      <c r="D18" s="20">
+      <c r="A18" s="44"/>
+      <c r="B18" s="83" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="19">
         <v>0</v>
       </c>
-      <c r="E18" s="73">
+      <c r="E18" s="70">
         <v>45839</v>
       </c>
-      <c r="F18" s="73">
+      <c r="F18" s="70">
         <v>45845</v>
       </c>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14">
+      <c r="G18" s="13"/>
+      <c r="H18" s="13">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="31"/>
-      <c r="O18" s="31"/>
-      <c r="P18" s="31"/>
-      <c r="Q18" s="31"/>
-      <c r="R18" s="31"/>
-      <c r="S18" s="31"/>
-      <c r="T18" s="31"/>
-      <c r="U18" s="31"/>
-      <c r="V18" s="31"/>
-      <c r="W18" s="31"/>
-      <c r="X18" s="31"/>
-      <c r="Y18" s="32"/>
-      <c r="Z18" s="31"/>
-      <c r="AA18" s="31"/>
-      <c r="AB18" s="31"/>
-      <c r="AC18" s="31"/>
-      <c r="AD18" s="31"/>
-      <c r="AE18" s="31"/>
-      <c r="AF18" s="31"/>
-      <c r="AG18" s="31"/>
-      <c r="AH18" s="31"/>
-      <c r="AI18" s="31"/>
-      <c r="AJ18" s="31"/>
-      <c r="AK18" s="31"/>
-      <c r="AL18" s="31"/>
-      <c r="AM18" s="31"/>
-      <c r="AN18" s="31"/>
-      <c r="AO18" s="31"/>
-      <c r="AP18" s="31"/>
-      <c r="AQ18" s="31"/>
-      <c r="AR18" s="31"/>
-      <c r="AS18" s="31"/>
-      <c r="AT18" s="31"/>
-      <c r="AU18" s="31"/>
-      <c r="AV18" s="31"/>
-      <c r="AW18" s="31"/>
-      <c r="AX18" s="31"/>
-      <c r="AY18" s="31"/>
-      <c r="AZ18" s="31"/>
-      <c r="BA18" s="31"/>
-      <c r="BB18" s="31"/>
-      <c r="BC18" s="31"/>
-      <c r="BD18" s="31"/>
-      <c r="BE18" s="31"/>
-      <c r="BF18" s="31"/>
-      <c r="BG18" s="31"/>
-      <c r="BH18" s="31"/>
-      <c r="BI18" s="31"/>
-      <c r="BJ18" s="31"/>
-      <c r="BK18" s="31"/>
-      <c r="BL18" s="31"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="30"/>
+      <c r="R18" s="30"/>
+      <c r="S18" s="30"/>
+      <c r="T18" s="30"/>
+      <c r="U18" s="30"/>
+      <c r="V18" s="30"/>
+      <c r="W18" s="30"/>
+      <c r="X18" s="30"/>
+      <c r="Y18" s="31"/>
+      <c r="Z18" s="30"/>
+      <c r="AA18" s="30"/>
+      <c r="AB18" s="30"/>
+      <c r="AC18" s="30"/>
+      <c r="AD18" s="30"/>
+      <c r="AE18" s="30"/>
+      <c r="AF18" s="30"/>
+      <c r="AG18" s="30"/>
+      <c r="AH18" s="30"/>
+      <c r="AI18" s="30"/>
+      <c r="AJ18" s="30"/>
+      <c r="AK18" s="30"/>
+      <c r="AL18" s="30"/>
+      <c r="AM18" s="30"/>
+      <c r="AN18" s="30"/>
+      <c r="AO18" s="30"/>
+      <c r="AP18" s="30"/>
+      <c r="AQ18" s="30"/>
+      <c r="AR18" s="30"/>
+      <c r="AS18" s="30"/>
+      <c r="AT18" s="30"/>
+      <c r="AU18" s="30"/>
+      <c r="AV18" s="30"/>
+      <c r="AW18" s="30"/>
+      <c r="AX18" s="30"/>
+      <c r="AY18" s="30"/>
+      <c r="AZ18" s="30"/>
+      <c r="BA18" s="30"/>
+      <c r="BB18" s="30"/>
+      <c r="BC18" s="30"/>
+      <c r="BD18" s="30"/>
+      <c r="BE18" s="30"/>
+      <c r="BF18" s="30"/>
+      <c r="BG18" s="30"/>
+      <c r="BH18" s="30"/>
+      <c r="BI18" s="30"/>
+      <c r="BJ18" s="30"/>
+      <c r="BK18" s="30"/>
+      <c r="BL18" s="30"/>
       <c r="BM18"/>
       <c r="BN18"/>
       <c r="BO18"/>
@@ -3929,84 +4021,84 @@
       <c r="CP18"/>
     </row>
     <row r="19" spans="1:94" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="45"/>
-      <c r="B19" s="87" t="s">
-        <v>63</v>
-      </c>
-      <c r="C19" s="55" t="s">
-        <v>66</v>
-      </c>
-      <c r="D19" s="20">
+      <c r="A19" s="44"/>
+      <c r="B19" s="83" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="19">
         <v>0</v>
       </c>
-      <c r="E19" s="73">
+      <c r="E19" s="70">
         <v>45845</v>
       </c>
-      <c r="F19" s="73">
+      <c r="F19" s="70">
         <f>E19+2</f>
         <v>45847</v>
       </c>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14">
+      <c r="G19" s="13"/>
+      <c r="H19" s="13">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="31"/>
-      <c r="P19" s="31"/>
-      <c r="Q19" s="31"/>
-      <c r="R19" s="31"/>
-      <c r="S19" s="31"/>
-      <c r="T19" s="31"/>
-      <c r="U19" s="31"/>
-      <c r="V19" s="31"/>
-      <c r="W19" s="31"/>
-      <c r="X19" s="31"/>
-      <c r="Y19" s="31"/>
-      <c r="Z19" s="31"/>
-      <c r="AA19" s="31"/>
-      <c r="AB19" s="31"/>
-      <c r="AC19" s="31"/>
-      <c r="AD19" s="31"/>
-      <c r="AE19" s="31"/>
-      <c r="AF19" s="31"/>
-      <c r="AG19" s="31"/>
-      <c r="AH19" s="31"/>
-      <c r="AI19" s="31"/>
-      <c r="AJ19" s="31"/>
-      <c r="AK19" s="31"/>
-      <c r="AL19" s="31"/>
-      <c r="AM19" s="31"/>
-      <c r="AN19" s="31"/>
-      <c r="AO19" s="31"/>
-      <c r="AP19" s="31"/>
-      <c r="AQ19" s="31"/>
-      <c r="AR19" s="31"/>
-      <c r="AS19" s="31"/>
-      <c r="AT19" s="31"/>
-      <c r="AU19" s="31"/>
-      <c r="AV19" s="31"/>
-      <c r="AW19" s="31"/>
-      <c r="AX19" s="31"/>
-      <c r="AY19" s="31"/>
-      <c r="AZ19" s="31"/>
-      <c r="BA19" s="31"/>
-      <c r="BB19" s="31"/>
-      <c r="BC19" s="31"/>
-      <c r="BD19" s="31"/>
-      <c r="BE19" s="31"/>
-      <c r="BF19" s="31"/>
-      <c r="BG19" s="31"/>
-      <c r="BH19" s="31"/>
-      <c r="BI19" s="31"/>
-      <c r="BJ19" s="31"/>
-      <c r="BK19" s="31"/>
-      <c r="BL19" s="31"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="30"/>
+      <c r="O19" s="30"/>
+      <c r="P19" s="30"/>
+      <c r="Q19" s="30"/>
+      <c r="R19" s="30"/>
+      <c r="S19" s="30"/>
+      <c r="T19" s="30"/>
+      <c r="U19" s="30"/>
+      <c r="V19" s="30"/>
+      <c r="W19" s="30"/>
+      <c r="X19" s="30"/>
+      <c r="Y19" s="30"/>
+      <c r="Z19" s="30"/>
+      <c r="AA19" s="30"/>
+      <c r="AB19" s="30"/>
+      <c r="AC19" s="30"/>
+      <c r="AD19" s="30"/>
+      <c r="AE19" s="30"/>
+      <c r="AF19" s="30"/>
+      <c r="AG19" s="30"/>
+      <c r="AH19" s="30"/>
+      <c r="AI19" s="30"/>
+      <c r="AJ19" s="30"/>
+      <c r="AK19" s="30"/>
+      <c r="AL19" s="30"/>
+      <c r="AM19" s="30"/>
+      <c r="AN19" s="30"/>
+      <c r="AO19" s="30"/>
+      <c r="AP19" s="30"/>
+      <c r="AQ19" s="30"/>
+      <c r="AR19" s="30"/>
+      <c r="AS19" s="30"/>
+      <c r="AT19" s="30"/>
+      <c r="AU19" s="30"/>
+      <c r="AV19" s="30"/>
+      <c r="AW19" s="30"/>
+      <c r="AX19" s="30"/>
+      <c r="AY19" s="30"/>
+      <c r="AZ19" s="30"/>
+      <c r="BA19" s="30"/>
+      <c r="BB19" s="30"/>
+      <c r="BC19" s="30"/>
+      <c r="BD19" s="30"/>
+      <c r="BE19" s="30"/>
+      <c r="BF19" s="30"/>
+      <c r="BG19" s="30"/>
+      <c r="BH19" s="30"/>
+      <c r="BI19" s="30"/>
+      <c r="BJ19" s="30"/>
+      <c r="BK19" s="30"/>
+      <c r="BL19" s="30"/>
       <c r="BM19"/>
       <c r="BN19"/>
       <c r="BO19"/>
@@ -4039,81 +4131,81 @@
       <c r="CP19"/>
     </row>
     <row r="20" spans="1:94" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="45"/>
-      <c r="B20" s="87" t="s">
+      <c r="A20" s="44"/>
+      <c r="B20" s="83" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="C20" s="55" t="s">
-        <v>66</v>
-      </c>
-      <c r="D20" s="20">
+      <c r="D20" s="19">
         <v>0</v>
       </c>
-      <c r="E20" s="73">
+      <c r="E20" s="70">
         <f>F19</f>
         <v>45847</v>
       </c>
-      <c r="F20" s="73">
+      <c r="F20" s="70">
         <v>45849</v>
       </c>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="31"/>
-      <c r="O20" s="31"/>
-      <c r="P20" s="31"/>
-      <c r="Q20" s="31"/>
-      <c r="R20" s="31"/>
-      <c r="S20" s="31"/>
-      <c r="T20" s="31"/>
-      <c r="U20" s="31"/>
-      <c r="V20" s="31"/>
-      <c r="W20" s="31"/>
-      <c r="X20" s="31"/>
-      <c r="Y20" s="31"/>
-      <c r="Z20" s="31"/>
-      <c r="AA20" s="31"/>
-      <c r="AB20" s="31"/>
-      <c r="AC20" s="31"/>
-      <c r="AD20" s="31"/>
-      <c r="AE20" s="31"/>
-      <c r="AF20" s="31"/>
-      <c r="AG20" s="31"/>
-      <c r="AH20" s="31"/>
-      <c r="AI20" s="31"/>
-      <c r="AJ20" s="31"/>
-      <c r="AK20" s="31"/>
-      <c r="AL20" s="31"/>
-      <c r="AM20" s="31"/>
-      <c r="AN20" s="31"/>
-      <c r="AO20" s="31"/>
-      <c r="AP20" s="31"/>
-      <c r="AQ20" s="31"/>
-      <c r="AR20" s="31"/>
-      <c r="AS20" s="31"/>
-      <c r="AT20" s="31"/>
-      <c r="AU20" s="31"/>
-      <c r="AV20" s="31"/>
-      <c r="AW20" s="31"/>
-      <c r="AX20" s="31"/>
-      <c r="AY20" s="31"/>
-      <c r="AZ20" s="31"/>
-      <c r="BA20" s="31"/>
-      <c r="BB20" s="31"/>
-      <c r="BC20" s="31"/>
-      <c r="BD20" s="31"/>
-      <c r="BE20" s="31"/>
-      <c r="BF20" s="31"/>
-      <c r="BG20" s="31"/>
-      <c r="BH20" s="31"/>
-      <c r="BI20" s="31"/>
-      <c r="BJ20" s="31"/>
-      <c r="BK20" s="31"/>
-      <c r="BL20" s="31"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="30"/>
+      <c r="R20" s="30"/>
+      <c r="S20" s="30"/>
+      <c r="T20" s="30"/>
+      <c r="U20" s="30"/>
+      <c r="V20" s="30"/>
+      <c r="W20" s="30"/>
+      <c r="X20" s="30"/>
+      <c r="Y20" s="30"/>
+      <c r="Z20" s="30"/>
+      <c r="AA20" s="30"/>
+      <c r="AB20" s="30"/>
+      <c r="AC20" s="30"/>
+      <c r="AD20" s="30"/>
+      <c r="AE20" s="30"/>
+      <c r="AF20" s="30"/>
+      <c r="AG20" s="30"/>
+      <c r="AH20" s="30"/>
+      <c r="AI20" s="30"/>
+      <c r="AJ20" s="30"/>
+      <c r="AK20" s="30"/>
+      <c r="AL20" s="30"/>
+      <c r="AM20" s="30"/>
+      <c r="AN20" s="30"/>
+      <c r="AO20" s="30"/>
+      <c r="AP20" s="30"/>
+      <c r="AQ20" s="30"/>
+      <c r="AR20" s="30"/>
+      <c r="AS20" s="30"/>
+      <c r="AT20" s="30"/>
+      <c r="AU20" s="30"/>
+      <c r="AV20" s="30"/>
+      <c r="AW20" s="30"/>
+      <c r="AX20" s="30"/>
+      <c r="AY20" s="30"/>
+      <c r="AZ20" s="30"/>
+      <c r="BA20" s="30"/>
+      <c r="BB20" s="30"/>
+      <c r="BC20" s="30"/>
+      <c r="BD20" s="30"/>
+      <c r="BE20" s="30"/>
+      <c r="BF20" s="30"/>
+      <c r="BG20" s="30"/>
+      <c r="BH20" s="30"/>
+      <c r="BI20" s="30"/>
+      <c r="BJ20" s="30"/>
+      <c r="BK20" s="30"/>
+      <c r="BL20" s="30"/>
       <c r="BM20"/>
       <c r="BN20"/>
       <c r="BO20"/>
@@ -4146,81 +4238,81 @@
       <c r="CP20"/>
     </row>
     <row r="21" spans="1:94" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="45"/>
-      <c r="B21" s="87" t="s">
-        <v>65</v>
-      </c>
-      <c r="C21" s="55" t="s">
-        <v>66</v>
-      </c>
-      <c r="D21" s="20">
+      <c r="A21" s="44"/>
+      <c r="B21" s="83" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="19">
         <v>0</v>
       </c>
-      <c r="E21" s="73">
+      <c r="E21" s="70">
         <f>F20</f>
         <v>45849</v>
       </c>
-      <c r="F21" s="73">
+      <c r="F21" s="70">
         <v>45850</v>
       </c>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="31"/>
-      <c r="O21" s="31"/>
-      <c r="P21" s="31"/>
-      <c r="Q21" s="31"/>
-      <c r="R21" s="31"/>
-      <c r="S21" s="31"/>
-      <c r="T21" s="31"/>
-      <c r="U21" s="31"/>
-      <c r="V21" s="31"/>
-      <c r="W21" s="31"/>
-      <c r="X21" s="31"/>
-      <c r="Y21" s="31"/>
-      <c r="Z21" s="31"/>
-      <c r="AA21" s="31"/>
-      <c r="AB21" s="31"/>
-      <c r="AC21" s="31"/>
-      <c r="AD21" s="31"/>
-      <c r="AE21" s="31"/>
-      <c r="AF21" s="31"/>
-      <c r="AG21" s="31"/>
-      <c r="AH21" s="31"/>
-      <c r="AI21" s="31"/>
-      <c r="AJ21" s="31"/>
-      <c r="AK21" s="31"/>
-      <c r="AL21" s="31"/>
-      <c r="AM21" s="31"/>
-      <c r="AN21" s="31"/>
-      <c r="AO21" s="31"/>
-      <c r="AP21" s="31"/>
-      <c r="AQ21" s="31"/>
-      <c r="AR21" s="31"/>
-      <c r="AS21" s="31"/>
-      <c r="AT21" s="31"/>
-      <c r="AU21" s="31"/>
-      <c r="AV21" s="31"/>
-      <c r="AW21" s="31"/>
-      <c r="AX21" s="31"/>
-      <c r="AY21" s="31"/>
-      <c r="AZ21" s="31"/>
-      <c r="BA21" s="31"/>
-      <c r="BB21" s="31"/>
-      <c r="BC21" s="31"/>
-      <c r="BD21" s="31"/>
-      <c r="BE21" s="31"/>
-      <c r="BF21" s="31"/>
-      <c r="BG21" s="31"/>
-      <c r="BH21" s="31"/>
-      <c r="BI21" s="31"/>
-      <c r="BJ21" s="31"/>
-      <c r="BK21" s="31"/>
-      <c r="BL21" s="31"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="30"/>
+      <c r="P21" s="30"/>
+      <c r="Q21" s="30"/>
+      <c r="R21" s="30"/>
+      <c r="S21" s="30"/>
+      <c r="T21" s="30"/>
+      <c r="U21" s="30"/>
+      <c r="V21" s="30"/>
+      <c r="W21" s="30"/>
+      <c r="X21" s="30"/>
+      <c r="Y21" s="30"/>
+      <c r="Z21" s="30"/>
+      <c r="AA21" s="30"/>
+      <c r="AB21" s="30"/>
+      <c r="AC21" s="30"/>
+      <c r="AD21" s="30"/>
+      <c r="AE21" s="30"/>
+      <c r="AF21" s="30"/>
+      <c r="AG21" s="30"/>
+      <c r="AH21" s="30"/>
+      <c r="AI21" s="30"/>
+      <c r="AJ21" s="30"/>
+      <c r="AK21" s="30"/>
+      <c r="AL21" s="30"/>
+      <c r="AM21" s="30"/>
+      <c r="AN21" s="30"/>
+      <c r="AO21" s="30"/>
+      <c r="AP21" s="30"/>
+      <c r="AQ21" s="30"/>
+      <c r="AR21" s="30"/>
+      <c r="AS21" s="30"/>
+      <c r="AT21" s="30"/>
+      <c r="AU21" s="30"/>
+      <c r="AV21" s="30"/>
+      <c r="AW21" s="30"/>
+      <c r="AX21" s="30"/>
+      <c r="AY21" s="30"/>
+      <c r="AZ21" s="30"/>
+      <c r="BA21" s="30"/>
+      <c r="BB21" s="30"/>
+      <c r="BC21" s="30"/>
+      <c r="BD21" s="30"/>
+      <c r="BE21" s="30"/>
+      <c r="BF21" s="30"/>
+      <c r="BG21" s="30"/>
+      <c r="BH21" s="30"/>
+      <c r="BI21" s="30"/>
+      <c r="BJ21" s="30"/>
+      <c r="BK21" s="30"/>
+      <c r="BL21" s="30"/>
       <c r="BM21"/>
       <c r="BN21"/>
       <c r="BO21"/>
@@ -4253,81 +4345,80 @@
       <c r="CP21"/>
     </row>
     <row r="22" spans="1:94" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="45"/>
-      <c r="B22" s="87" t="s">
-        <v>67</v>
-      </c>
-      <c r="C22" s="55" t="s">
-        <v>50</v>
-      </c>
-      <c r="D22" s="20">
+      <c r="A22" s="44"/>
+      <c r="B22" s="83" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="19">
         <v>0</v>
       </c>
-      <c r="E22" s="73">
+      <c r="E22" s="70">
         <v>45850</v>
       </c>
-      <c r="F22" s="73">
-        <f>E22+1</f>
-        <v>45851</v>
-      </c>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="31"/>
-      <c r="M22" s="31"/>
-      <c r="N22" s="31"/>
-      <c r="O22" s="31"/>
-      <c r="P22" s="31"/>
-      <c r="Q22" s="31"/>
-      <c r="R22" s="31"/>
-      <c r="S22" s="31"/>
-      <c r="T22" s="31"/>
-      <c r="U22" s="31"/>
-      <c r="V22" s="31"/>
-      <c r="W22" s="31"/>
-      <c r="X22" s="31"/>
-      <c r="Y22" s="31"/>
-      <c r="Z22" s="31"/>
-      <c r="AA22" s="31"/>
-      <c r="AB22" s="31"/>
-      <c r="AC22" s="31"/>
-      <c r="AD22" s="31"/>
-      <c r="AE22" s="31"/>
-      <c r="AF22" s="31"/>
-      <c r="AG22" s="31"/>
-      <c r="AH22" s="31"/>
-      <c r="AI22" s="31"/>
-      <c r="AJ22" s="31"/>
-      <c r="AK22" s="31"/>
-      <c r="AL22" s="31"/>
-      <c r="AM22" s="31"/>
-      <c r="AN22" s="31"/>
-      <c r="AO22" s="31"/>
-      <c r="AP22" s="31"/>
-      <c r="AQ22" s="31"/>
-      <c r="AR22" s="31"/>
-      <c r="AS22" s="31"/>
-      <c r="AT22" s="31"/>
-      <c r="AU22" s="31"/>
-      <c r="AV22" s="31"/>
-      <c r="AW22" s="31"/>
-      <c r="AX22" s="31"/>
-      <c r="AY22" s="31"/>
-      <c r="AZ22" s="31"/>
-      <c r="BA22" s="31"/>
-      <c r="BB22" s="31"/>
-      <c r="BC22" s="31"/>
-      <c r="BD22" s="31"/>
-      <c r="BE22" s="31"/>
-      <c r="BF22" s="31"/>
-      <c r="BG22" s="31"/>
-      <c r="BH22" s="31"/>
-      <c r="BI22" s="31"/>
-      <c r="BJ22" s="31"/>
-      <c r="BK22" s="31"/>
-      <c r="BL22" s="31"/>
+      <c r="F22" s="70">
+        <v>45850</v>
+      </c>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="30"/>
+      <c r="N22" s="30"/>
+      <c r="O22" s="30"/>
+      <c r="P22" s="30"/>
+      <c r="Q22" s="30"/>
+      <c r="R22" s="30"/>
+      <c r="S22" s="30"/>
+      <c r="T22" s="30"/>
+      <c r="U22" s="30"/>
+      <c r="V22" s="30"/>
+      <c r="W22" s="30"/>
+      <c r="X22" s="30"/>
+      <c r="Y22" s="30"/>
+      <c r="Z22" s="30"/>
+      <c r="AA22" s="30"/>
+      <c r="AB22" s="30"/>
+      <c r="AC22" s="30"/>
+      <c r="AD22" s="30"/>
+      <c r="AE22" s="30"/>
+      <c r="AF22" s="30"/>
+      <c r="AG22" s="30"/>
+      <c r="AH22" s="30"/>
+      <c r="AI22" s="30"/>
+      <c r="AJ22" s="30"/>
+      <c r="AK22" s="30"/>
+      <c r="AL22" s="30"/>
+      <c r="AM22" s="30"/>
+      <c r="AN22" s="30"/>
+      <c r="AO22" s="30"/>
+      <c r="AP22" s="30"/>
+      <c r="AQ22" s="30"/>
+      <c r="AR22" s="30"/>
+      <c r="AS22" s="30"/>
+      <c r="AT22" s="30"/>
+      <c r="AU22" s="30"/>
+      <c r="AV22" s="30"/>
+      <c r="AW22" s="30"/>
+      <c r="AX22" s="30"/>
+      <c r="AY22" s="30"/>
+      <c r="AZ22" s="30"/>
+      <c r="BA22" s="30"/>
+      <c r="BB22" s="30"/>
+      <c r="BC22" s="30"/>
+      <c r="BD22" s="30"/>
+      <c r="BE22" s="30"/>
+      <c r="BF22" s="30"/>
+      <c r="BG22" s="30"/>
+      <c r="BH22" s="30"/>
+      <c r="BI22" s="30"/>
+      <c r="BJ22" s="30"/>
+      <c r="BK22" s="30"/>
+      <c r="BL22" s="30"/>
       <c r="BM22"/>
       <c r="BN22"/>
       <c r="BO22"/>
@@ -4360,77 +4451,81 @@
       <c r="CP22"/>
     </row>
     <row r="23" spans="1:94" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="56"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="74"/>
-      <c r="F23" s="75"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="31"/>
-      <c r="M23" s="31"/>
-      <c r="N23" s="31"/>
-      <c r="O23" s="31"/>
-      <c r="P23" s="31"/>
-      <c r="Q23" s="31"/>
-      <c r="R23" s="31"/>
-      <c r="S23" s="31"/>
-      <c r="T23" s="31"/>
-      <c r="U23" s="31"/>
-      <c r="V23" s="31"/>
-      <c r="W23" s="31"/>
-      <c r="X23" s="31"/>
-      <c r="Y23" s="31"/>
-      <c r="Z23" s="31"/>
-      <c r="AA23" s="31"/>
-      <c r="AB23" s="31"/>
-      <c r="AC23" s="31"/>
-      <c r="AD23" s="31"/>
-      <c r="AE23" s="31"/>
-      <c r="AF23" s="31"/>
-      <c r="AG23" s="31"/>
-      <c r="AH23" s="31"/>
-      <c r="AI23" s="31"/>
-      <c r="AJ23" s="31"/>
-      <c r="AK23" s="31"/>
-      <c r="AL23" s="31"/>
-      <c r="AM23" s="31"/>
-      <c r="AN23" s="31"/>
-      <c r="AO23" s="31"/>
-      <c r="AP23" s="31"/>
-      <c r="AQ23" s="31"/>
-      <c r="AR23" s="31"/>
-      <c r="AS23" s="31"/>
-      <c r="AT23" s="31"/>
-      <c r="AU23" s="31"/>
-      <c r="AV23" s="31"/>
-      <c r="AW23" s="31"/>
-      <c r="AX23" s="31"/>
-      <c r="AY23" s="31"/>
-      <c r="AZ23" s="31"/>
-      <c r="BA23" s="31"/>
-      <c r="BB23" s="31"/>
-      <c r="BC23" s="31"/>
-      <c r="BD23" s="31"/>
-      <c r="BE23" s="31"/>
-      <c r="BF23" s="31"/>
-      <c r="BG23" s="31"/>
-      <c r="BH23" s="31"/>
-      <c r="BI23" s="31"/>
-      <c r="BJ23" s="31"/>
-      <c r="BK23" s="31"/>
-      <c r="BL23" s="31"/>
+      <c r="A23" s="44"/>
+      <c r="B23" s="83" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="19">
+        <v>0</v>
+      </c>
+      <c r="E23" s="70">
+        <v>45850</v>
+      </c>
+      <c r="F23" s="70">
+        <f>E23+1</f>
+        <v>45851</v>
+      </c>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="30"/>
+      <c r="N23" s="30"/>
+      <c r="O23" s="30"/>
+      <c r="P23" s="30"/>
+      <c r="Q23" s="30"/>
+      <c r="R23" s="30"/>
+      <c r="S23" s="30"/>
+      <c r="T23" s="30"/>
+      <c r="U23" s="30"/>
+      <c r="V23" s="30"/>
+      <c r="W23" s="30"/>
+      <c r="X23" s="30"/>
+      <c r="Y23" s="30"/>
+      <c r="Z23" s="30"/>
+      <c r="AA23" s="30"/>
+      <c r="AB23" s="30"/>
+      <c r="AC23" s="30"/>
+      <c r="AD23" s="30"/>
+      <c r="AE23" s="30"/>
+      <c r="AF23" s="30"/>
+      <c r="AG23" s="30"/>
+      <c r="AH23" s="30"/>
+      <c r="AI23" s="30"/>
+      <c r="AJ23" s="30"/>
+      <c r="AK23" s="30"/>
+      <c r="AL23" s="30"/>
+      <c r="AM23" s="30"/>
+      <c r="AN23" s="30"/>
+      <c r="AO23" s="30"/>
+      <c r="AP23" s="30"/>
+      <c r="AQ23" s="30"/>
+      <c r="AR23" s="30"/>
+      <c r="AS23" s="30"/>
+      <c r="AT23" s="30"/>
+      <c r="AU23" s="30"/>
+      <c r="AV23" s="30"/>
+      <c r="AW23" s="30"/>
+      <c r="AX23" s="30"/>
+      <c r="AY23" s="30"/>
+      <c r="AZ23" s="30"/>
+      <c r="BA23" s="30"/>
+      <c r="BB23" s="30"/>
+      <c r="BC23" s="30"/>
+      <c r="BD23" s="30"/>
+      <c r="BE23" s="30"/>
+      <c r="BF23" s="30"/>
+      <c r="BG23" s="30"/>
+      <c r="BH23" s="30"/>
+      <c r="BI23" s="30"/>
+      <c r="BJ23" s="30"/>
+      <c r="BK23" s="30"/>
+      <c r="BL23" s="30"/>
       <c r="BM23"/>
       <c r="BN23"/>
       <c r="BO23"/>
@@ -4463,81 +4558,77 @@
       <c r="CP23"/>
     </row>
     <row r="24" spans="1:94" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="45"/>
-      <c r="B24" s="61" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="57"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="76">
-        <f>E9+15</f>
-        <v>45834</v>
-      </c>
-      <c r="F24" s="76">
-        <f>E24+5</f>
-        <v>45839</v>
-      </c>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14">
+      <c r="A24" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="55"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13" t="str">
         <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="I24" s="31"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="31"/>
-      <c r="M24" s="31"/>
-      <c r="N24" s="31"/>
-      <c r="O24" s="31"/>
-      <c r="P24" s="31"/>
-      <c r="Q24" s="31"/>
-      <c r="R24" s="31"/>
-      <c r="S24" s="31"/>
-      <c r="T24" s="31"/>
-      <c r="U24" s="31"/>
-      <c r="V24" s="31"/>
-      <c r="W24" s="31"/>
-      <c r="X24" s="31"/>
-      <c r="Y24" s="31"/>
-      <c r="Z24" s="31"/>
-      <c r="AA24" s="31"/>
-      <c r="AB24" s="31"/>
-      <c r="AC24" s="31"/>
-      <c r="AD24" s="31"/>
-      <c r="AE24" s="31"/>
-      <c r="AF24" s="31"/>
-      <c r="AG24" s="31"/>
-      <c r="AH24" s="31"/>
-      <c r="AI24" s="31"/>
-      <c r="AJ24" s="31"/>
-      <c r="AK24" s="31"/>
-      <c r="AL24" s="31"/>
-      <c r="AM24" s="31"/>
-      <c r="AN24" s="31"/>
-      <c r="AO24" s="31"/>
-      <c r="AP24" s="31"/>
-      <c r="AQ24" s="31"/>
-      <c r="AR24" s="31"/>
-      <c r="AS24" s="31"/>
-      <c r="AT24" s="31"/>
-      <c r="AU24" s="31"/>
-      <c r="AV24" s="31"/>
-      <c r="AW24" s="31"/>
-      <c r="AX24" s="31"/>
-      <c r="AY24" s="31"/>
-      <c r="AZ24" s="31"/>
-      <c r="BA24" s="31"/>
-      <c r="BB24" s="31"/>
-      <c r="BC24" s="31"/>
-      <c r="BD24" s="31"/>
-      <c r="BE24" s="31"/>
-      <c r="BF24" s="31"/>
-      <c r="BG24" s="31"/>
-      <c r="BH24" s="31"/>
-      <c r="BI24" s="31"/>
-      <c r="BJ24" s="31"/>
-      <c r="BK24" s="31"/>
-      <c r="BL24" s="31"/>
+        <v/>
+      </c>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="30"/>
+      <c r="N24" s="30"/>
+      <c r="O24" s="30"/>
+      <c r="P24" s="30"/>
+      <c r="Q24" s="30"/>
+      <c r="R24" s="30"/>
+      <c r="S24" s="30"/>
+      <c r="T24" s="30"/>
+      <c r="U24" s="30"/>
+      <c r="V24" s="30"/>
+      <c r="W24" s="30"/>
+      <c r="X24" s="30"/>
+      <c r="Y24" s="30"/>
+      <c r="Z24" s="30"/>
+      <c r="AA24" s="30"/>
+      <c r="AB24" s="30"/>
+      <c r="AC24" s="30"/>
+      <c r="AD24" s="30"/>
+      <c r="AE24" s="30"/>
+      <c r="AF24" s="30"/>
+      <c r="AG24" s="30"/>
+      <c r="AH24" s="30"/>
+      <c r="AI24" s="30"/>
+      <c r="AJ24" s="30"/>
+      <c r="AK24" s="30"/>
+      <c r="AL24" s="30"/>
+      <c r="AM24" s="30"/>
+      <c r="AN24" s="30"/>
+      <c r="AO24" s="30"/>
+      <c r="AP24" s="30"/>
+      <c r="AQ24" s="30"/>
+      <c r="AR24" s="30"/>
+      <c r="AS24" s="30"/>
+      <c r="AT24" s="30"/>
+      <c r="AU24" s="30"/>
+      <c r="AV24" s="30"/>
+      <c r="AW24" s="30"/>
+      <c r="AX24" s="30"/>
+      <c r="AY24" s="30"/>
+      <c r="AZ24" s="30"/>
+      <c r="BA24" s="30"/>
+      <c r="BB24" s="30"/>
+      <c r="BC24" s="30"/>
+      <c r="BD24" s="30"/>
+      <c r="BE24" s="30"/>
+      <c r="BF24" s="30"/>
+      <c r="BG24" s="30"/>
+      <c r="BH24" s="30"/>
+      <c r="BI24" s="30"/>
+      <c r="BJ24" s="30"/>
+      <c r="BK24" s="30"/>
+      <c r="BL24" s="30"/>
       <c r="BM24"/>
       <c r="BN24"/>
       <c r="BO24"/>
@@ -4570,81 +4661,81 @@
       <c r="CP24"/>
     </row>
     <row r="25" spans="1:94" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="45"/>
-      <c r="B25" s="61" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="57"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="76">
-        <f>F24+1</f>
-        <v>45840</v>
-      </c>
-      <c r="F25" s="76">
-        <f>E25+4</f>
-        <v>45844</v>
-      </c>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="I25" s="31"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="31"/>
-      <c r="L25" s="31"/>
-      <c r="M25" s="31"/>
-      <c r="N25" s="31"/>
-      <c r="O25" s="31"/>
-      <c r="P25" s="31"/>
-      <c r="Q25" s="31"/>
-      <c r="R25" s="31"/>
-      <c r="S25" s="31"/>
-      <c r="T25" s="31"/>
-      <c r="U25" s="31"/>
-      <c r="V25" s="31"/>
-      <c r="W25" s="31"/>
-      <c r="X25" s="31"/>
-      <c r="Y25" s="31"/>
-      <c r="Z25" s="31"/>
-      <c r="AA25" s="31"/>
-      <c r="AB25" s="31"/>
-      <c r="AC25" s="31"/>
-      <c r="AD25" s="31"/>
-      <c r="AE25" s="31"/>
-      <c r="AF25" s="31"/>
-      <c r="AG25" s="31"/>
-      <c r="AH25" s="31"/>
-      <c r="AI25" s="31"/>
-      <c r="AJ25" s="31"/>
-      <c r="AK25" s="31"/>
-      <c r="AL25" s="31"/>
-      <c r="AM25" s="31"/>
-      <c r="AN25" s="31"/>
-      <c r="AO25" s="31"/>
-      <c r="AP25" s="31"/>
-      <c r="AQ25" s="31"/>
-      <c r="AR25" s="31"/>
-      <c r="AS25" s="31"/>
-      <c r="AT25" s="31"/>
-      <c r="AU25" s="31"/>
-      <c r="AV25" s="31"/>
-      <c r="AW25" s="31"/>
-      <c r="AX25" s="31"/>
-      <c r="AY25" s="31"/>
-      <c r="AZ25" s="31"/>
-      <c r="BA25" s="31"/>
-      <c r="BB25" s="31"/>
-      <c r="BC25" s="31"/>
-      <c r="BD25" s="31"/>
-      <c r="BE25" s="31"/>
-      <c r="BF25" s="31"/>
-      <c r="BG25" s="31"/>
-      <c r="BH25" s="31"/>
-      <c r="BI25" s="31"/>
-      <c r="BJ25" s="31"/>
-      <c r="BK25" s="31"/>
-      <c r="BL25" s="31"/>
+      <c r="A25" s="44"/>
+      <c r="B25" s="98" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" s="22">
+        <v>0</v>
+      </c>
+      <c r="E25" s="73">
+        <v>45851</v>
+      </c>
+      <c r="F25" s="73">
+        <f>E25+2</f>
+        <v>45853</v>
+      </c>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="30"/>
+      <c r="N25" s="30"/>
+      <c r="O25" s="30"/>
+      <c r="P25" s="30"/>
+      <c r="Q25" s="30"/>
+      <c r="R25" s="30"/>
+      <c r="S25" s="30"/>
+      <c r="T25" s="30"/>
+      <c r="U25" s="30"/>
+      <c r="V25" s="30"/>
+      <c r="W25" s="30"/>
+      <c r="X25" s="30"/>
+      <c r="Y25" s="30"/>
+      <c r="Z25" s="30"/>
+      <c r="AA25" s="30"/>
+      <c r="AB25" s="30"/>
+      <c r="AC25" s="30"/>
+      <c r="AD25" s="30"/>
+      <c r="AE25" s="30"/>
+      <c r="AF25" s="30"/>
+      <c r="AG25" s="30"/>
+      <c r="AH25" s="30"/>
+      <c r="AI25" s="30"/>
+      <c r="AJ25" s="30"/>
+      <c r="AK25" s="30"/>
+      <c r="AL25" s="30"/>
+      <c r="AM25" s="30"/>
+      <c r="AN25" s="30"/>
+      <c r="AO25" s="30"/>
+      <c r="AP25" s="30"/>
+      <c r="AQ25" s="30"/>
+      <c r="AR25" s="30"/>
+      <c r="AS25" s="30"/>
+      <c r="AT25" s="30"/>
+      <c r="AU25" s="30"/>
+      <c r="AV25" s="30"/>
+      <c r="AW25" s="30"/>
+      <c r="AX25" s="30"/>
+      <c r="AY25" s="30"/>
+      <c r="AZ25" s="30"/>
+      <c r="BA25" s="30"/>
+      <c r="BB25" s="30"/>
+      <c r="BC25" s="30"/>
+      <c r="BD25" s="30"/>
+      <c r="BE25" s="30"/>
+      <c r="BF25" s="30"/>
+      <c r="BG25" s="30"/>
+      <c r="BH25" s="30"/>
+      <c r="BI25" s="30"/>
+      <c r="BJ25" s="30"/>
+      <c r="BK25" s="30"/>
+      <c r="BL25" s="30"/>
       <c r="BM25"/>
       <c r="BN25"/>
       <c r="BO25"/>
@@ -4677,81 +4768,84 @@
       <c r="CP25"/>
     </row>
     <row r="26" spans="1:94" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="45"/>
-      <c r="B26" s="61" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" s="57"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="76">
-        <f>E25+5</f>
-        <v>45845</v>
-      </c>
-      <c r="F26" s="76">
+      <c r="A26" s="44"/>
+      <c r="B26" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="22">
+        <v>0</v>
+      </c>
+      <c r="E26" s="73">
+        <v>45853</v>
+      </c>
+      <c r="F26" s="73">
         <f>E26+5</f>
-        <v>45850</v>
-      </c>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14">
+        <v>45858</v>
+      </c>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="I26" s="31"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="31"/>
-      <c r="L26" s="31"/>
-      <c r="M26" s="31"/>
-      <c r="N26" s="31"/>
-      <c r="O26" s="31"/>
-      <c r="P26" s="31"/>
-      <c r="Q26" s="31"/>
-      <c r="R26" s="31"/>
-      <c r="S26" s="31"/>
-      <c r="T26" s="31"/>
-      <c r="U26" s="31"/>
-      <c r="V26" s="31"/>
-      <c r="W26" s="31"/>
-      <c r="X26" s="31"/>
-      <c r="Y26" s="31"/>
-      <c r="Z26" s="31"/>
-      <c r="AA26" s="31"/>
-      <c r="AB26" s="31"/>
-      <c r="AC26" s="31"/>
-      <c r="AD26" s="31"/>
-      <c r="AE26" s="31"/>
-      <c r="AF26" s="31"/>
-      <c r="AG26" s="31"/>
-      <c r="AH26" s="31"/>
-      <c r="AI26" s="31"/>
-      <c r="AJ26" s="31"/>
-      <c r="AK26" s="31"/>
-      <c r="AL26" s="31"/>
-      <c r="AM26" s="31"/>
-      <c r="AN26" s="31"/>
-      <c r="AO26" s="31"/>
-      <c r="AP26" s="31"/>
-      <c r="AQ26" s="31"/>
-      <c r="AR26" s="31"/>
-      <c r="AS26" s="31"/>
-      <c r="AT26" s="31"/>
-      <c r="AU26" s="31"/>
-      <c r="AV26" s="31"/>
-      <c r="AW26" s="31"/>
-      <c r="AX26" s="31"/>
-      <c r="AY26" s="31"/>
-      <c r="AZ26" s="31"/>
-      <c r="BA26" s="31"/>
-      <c r="BB26" s="31"/>
-      <c r="BC26" s="31"/>
-      <c r="BD26" s="31"/>
-      <c r="BE26" s="31"/>
-      <c r="BF26" s="31"/>
-      <c r="BG26" s="31"/>
-      <c r="BH26" s="31"/>
-      <c r="BI26" s="31"/>
-      <c r="BJ26" s="31"/>
-      <c r="BK26" s="31"/>
-      <c r="BL26" s="31"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="30"/>
+      <c r="M26" s="30"/>
+      <c r="N26" s="30"/>
+      <c r="O26" s="30"/>
+      <c r="P26" s="30"/>
+      <c r="Q26" s="30"/>
+      <c r="R26" s="30"/>
+      <c r="S26" s="30"/>
+      <c r="T26" s="30"/>
+      <c r="U26" s="30"/>
+      <c r="V26" s="30"/>
+      <c r="W26" s="30"/>
+      <c r="X26" s="30"/>
+      <c r="Y26" s="30"/>
+      <c r="Z26" s="30"/>
+      <c r="AA26" s="30"/>
+      <c r="AB26" s="30"/>
+      <c r="AC26" s="30"/>
+      <c r="AD26" s="30"/>
+      <c r="AE26" s="30"/>
+      <c r="AF26" s="30"/>
+      <c r="AG26" s="30"/>
+      <c r="AH26" s="30"/>
+      <c r="AI26" s="30"/>
+      <c r="AJ26" s="30"/>
+      <c r="AK26" s="30"/>
+      <c r="AL26" s="30"/>
+      <c r="AM26" s="30"/>
+      <c r="AN26" s="30"/>
+      <c r="AO26" s="30"/>
+      <c r="AP26" s="30"/>
+      <c r="AQ26" s="30"/>
+      <c r="AR26" s="30"/>
+      <c r="AS26" s="30"/>
+      <c r="AT26" s="30"/>
+      <c r="AU26" s="30"/>
+      <c r="AV26" s="30"/>
+      <c r="AW26" s="30"/>
+      <c r="AX26" s="30"/>
+      <c r="AY26" s="30"/>
+      <c r="AZ26" s="30"/>
+      <c r="BA26" s="30"/>
+      <c r="BB26" s="30"/>
+      <c r="BC26" s="30"/>
+      <c r="BD26" s="30"/>
+      <c r="BE26" s="30"/>
+      <c r="BF26" s="30"/>
+      <c r="BG26" s="30"/>
+      <c r="BH26" s="30"/>
+      <c r="BI26" s="30"/>
+      <c r="BJ26" s="30"/>
+      <c r="BK26" s="30"/>
+      <c r="BL26" s="30"/>
       <c r="BM26"/>
       <c r="BN26"/>
       <c r="BO26"/>
@@ -4784,81 +4878,85 @@
       <c r="CP26"/>
     </row>
     <row r="27" spans="1:94" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="45"/>
-      <c r="B27" s="61" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="57"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="76">
+      <c r="A27" s="44"/>
+      <c r="B27" s="98" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" s="22">
+        <v>0</v>
+      </c>
+      <c r="E27" s="73">
         <f>F26+1</f>
-        <v>45851</v>
-      </c>
-      <c r="F27" s="76">
+        <v>45859</v>
+      </c>
+      <c r="F27" s="73">
         <f>E27+4</f>
-        <v>45855</v>
-      </c>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14">
+        <v>45863</v>
+      </c>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="I27" s="31"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="31"/>
-      <c r="L27" s="31"/>
-      <c r="M27" s="31"/>
-      <c r="N27" s="31"/>
-      <c r="O27" s="31"/>
-      <c r="P27" s="31"/>
-      <c r="Q27" s="31"/>
-      <c r="R27" s="31"/>
-      <c r="S27" s="31"/>
-      <c r="T27" s="31"/>
-      <c r="U27" s="31"/>
-      <c r="V27" s="31"/>
-      <c r="W27" s="31"/>
-      <c r="X27" s="31"/>
-      <c r="Y27" s="31"/>
-      <c r="Z27" s="31"/>
-      <c r="AA27" s="31"/>
-      <c r="AB27" s="31"/>
-      <c r="AC27" s="31"/>
-      <c r="AD27" s="31"/>
-      <c r="AE27" s="31"/>
-      <c r="AF27" s="31"/>
-      <c r="AG27" s="31"/>
-      <c r="AH27" s="31"/>
-      <c r="AI27" s="31"/>
-      <c r="AJ27" s="31"/>
-      <c r="AK27" s="31"/>
-      <c r="AL27" s="31"/>
-      <c r="AM27" s="31"/>
-      <c r="AN27" s="31"/>
-      <c r="AO27" s="31"/>
-      <c r="AP27" s="31"/>
-      <c r="AQ27" s="31"/>
-      <c r="AR27" s="31"/>
-      <c r="AS27" s="31"/>
-      <c r="AT27" s="31"/>
-      <c r="AU27" s="31"/>
-      <c r="AV27" s="31"/>
-      <c r="AW27" s="31"/>
-      <c r="AX27" s="31"/>
-      <c r="AY27" s="31"/>
-      <c r="AZ27" s="31"/>
-      <c r="BA27" s="31"/>
-      <c r="BB27" s="31"/>
-      <c r="BC27" s="31"/>
-      <c r="BD27" s="31"/>
-      <c r="BE27" s="31"/>
-      <c r="BF27" s="31"/>
-      <c r="BG27" s="31"/>
-      <c r="BH27" s="31"/>
-      <c r="BI27" s="31"/>
-      <c r="BJ27" s="31"/>
-      <c r="BK27" s="31"/>
-      <c r="BL27" s="31"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="30"/>
+      <c r="N27" s="30"/>
+      <c r="O27" s="30"/>
+      <c r="P27" s="30"/>
+      <c r="Q27" s="30"/>
+      <c r="R27" s="30"/>
+      <c r="S27" s="30"/>
+      <c r="T27" s="30"/>
+      <c r="U27" s="30"/>
+      <c r="V27" s="30"/>
+      <c r="W27" s="30"/>
+      <c r="X27" s="30"/>
+      <c r="Y27" s="30"/>
+      <c r="Z27" s="30"/>
+      <c r="AA27" s="30"/>
+      <c r="AB27" s="30"/>
+      <c r="AC27" s="30"/>
+      <c r="AD27" s="30"/>
+      <c r="AE27" s="30"/>
+      <c r="AF27" s="30"/>
+      <c r="AG27" s="30"/>
+      <c r="AH27" s="30"/>
+      <c r="AI27" s="30"/>
+      <c r="AJ27" s="30"/>
+      <c r="AK27" s="30"/>
+      <c r="AL27" s="30"/>
+      <c r="AM27" s="30"/>
+      <c r="AN27" s="30"/>
+      <c r="AO27" s="30"/>
+      <c r="AP27" s="30"/>
+      <c r="AQ27" s="30"/>
+      <c r="AR27" s="30"/>
+      <c r="AS27" s="30"/>
+      <c r="AT27" s="30"/>
+      <c r="AU27" s="30"/>
+      <c r="AV27" s="30"/>
+      <c r="AW27" s="30"/>
+      <c r="AX27" s="30"/>
+      <c r="AY27" s="30"/>
+      <c r="AZ27" s="30"/>
+      <c r="BA27" s="30"/>
+      <c r="BB27" s="30"/>
+      <c r="BC27" s="30"/>
+      <c r="BD27" s="30"/>
+      <c r="BE27" s="30"/>
+      <c r="BF27" s="30"/>
+      <c r="BG27" s="30"/>
+      <c r="BH27" s="30"/>
+      <c r="BI27" s="30"/>
+      <c r="BJ27" s="30"/>
+      <c r="BK27" s="30"/>
+      <c r="BL27" s="30"/>
       <c r="BM27"/>
       <c r="BN27"/>
       <c r="BO27"/>
@@ -4891,81 +4989,85 @@
       <c r="CP27"/>
     </row>
     <row r="28" spans="1:94" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="45"/>
-      <c r="B28" s="61" t="s">
-        <v>19</v>
-      </c>
-      <c r="C28" s="57"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="76">
-        <f>E26</f>
-        <v>45845</v>
-      </c>
-      <c r="F28" s="76">
-        <f>E28+4</f>
-        <v>45849</v>
-      </c>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14">
+      <c r="A28" s="44"/>
+      <c r="B28" s="59" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="22">
+        <v>0</v>
+      </c>
+      <c r="E28" s="73">
+        <f>E27+5</f>
+        <v>45864</v>
+      </c>
+      <c r="F28" s="73">
+        <f>E28+10</f>
+        <v>45874</v>
+      </c>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13">
         <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="I28" s="31"/>
-      <c r="J28" s="31"/>
-      <c r="K28" s="31"/>
-      <c r="L28" s="31"/>
-      <c r="M28" s="31"/>
-      <c r="N28" s="31"/>
-      <c r="O28" s="31"/>
-      <c r="P28" s="31"/>
-      <c r="Q28" s="31"/>
-      <c r="R28" s="31"/>
-      <c r="S28" s="31"/>
-      <c r="T28" s="31"/>
-      <c r="U28" s="31"/>
-      <c r="V28" s="31"/>
-      <c r="W28" s="31"/>
-      <c r="X28" s="31"/>
-      <c r="Y28" s="31"/>
-      <c r="Z28" s="31"/>
-      <c r="AA28" s="31"/>
-      <c r="AB28" s="31"/>
-      <c r="AC28" s="31"/>
-      <c r="AD28" s="31"/>
-      <c r="AE28" s="31"/>
-      <c r="AF28" s="31"/>
-      <c r="AG28" s="31"/>
-      <c r="AH28" s="31"/>
-      <c r="AI28" s="31"/>
-      <c r="AJ28" s="31"/>
-      <c r="AK28" s="31"/>
-      <c r="AL28" s="31"/>
-      <c r="AM28" s="31"/>
-      <c r="AN28" s="31"/>
-      <c r="AO28" s="31"/>
-      <c r="AP28" s="31"/>
-      <c r="AQ28" s="31"/>
-      <c r="AR28" s="31"/>
-      <c r="AS28" s="31"/>
-      <c r="AT28" s="31"/>
-      <c r="AU28" s="31"/>
-      <c r="AV28" s="31"/>
-      <c r="AW28" s="31"/>
-      <c r="AX28" s="31"/>
-      <c r="AY28" s="31"/>
-      <c r="AZ28" s="31"/>
-      <c r="BA28" s="31"/>
-      <c r="BB28" s="31"/>
-      <c r="BC28" s="31"/>
-      <c r="BD28" s="31"/>
-      <c r="BE28" s="31"/>
-      <c r="BF28" s="31"/>
-      <c r="BG28" s="31"/>
-      <c r="BH28" s="31"/>
-      <c r="BI28" s="31"/>
-      <c r="BJ28" s="31"/>
-      <c r="BK28" s="31"/>
-      <c r="BL28" s="31"/>
+        <v>11</v>
+      </c>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="30"/>
+      <c r="N28" s="30"/>
+      <c r="O28" s="30"/>
+      <c r="P28" s="30"/>
+      <c r="Q28" s="30"/>
+      <c r="R28" s="30"/>
+      <c r="S28" s="30"/>
+      <c r="T28" s="30"/>
+      <c r="U28" s="30"/>
+      <c r="V28" s="30"/>
+      <c r="W28" s="30"/>
+      <c r="X28" s="30"/>
+      <c r="Y28" s="30"/>
+      <c r="Z28" s="30"/>
+      <c r="AA28" s="30"/>
+      <c r="AB28" s="30"/>
+      <c r="AC28" s="30"/>
+      <c r="AD28" s="30"/>
+      <c r="AE28" s="30"/>
+      <c r="AF28" s="30"/>
+      <c r="AG28" s="30"/>
+      <c r="AH28" s="30"/>
+      <c r="AI28" s="30"/>
+      <c r="AJ28" s="30"/>
+      <c r="AK28" s="30"/>
+      <c r="AL28" s="30"/>
+      <c r="AM28" s="30"/>
+      <c r="AN28" s="30"/>
+      <c r="AO28" s="30"/>
+      <c r="AP28" s="30"/>
+      <c r="AQ28" s="30"/>
+      <c r="AR28" s="30"/>
+      <c r="AS28" s="30"/>
+      <c r="AT28" s="30"/>
+      <c r="AU28" s="30"/>
+      <c r="AV28" s="30"/>
+      <c r="AW28" s="30"/>
+      <c r="AX28" s="30"/>
+      <c r="AY28" s="30"/>
+      <c r="AZ28" s="30"/>
+      <c r="BA28" s="30"/>
+      <c r="BB28" s="30"/>
+      <c r="BC28" s="30"/>
+      <c r="BD28" s="30"/>
+      <c r="BE28" s="30"/>
+      <c r="BF28" s="30"/>
+      <c r="BG28" s="30"/>
+      <c r="BH28" s="30"/>
+      <c r="BI28" s="30"/>
+      <c r="BJ28" s="30"/>
+      <c r="BK28" s="30"/>
+      <c r="BL28" s="30"/>
       <c r="BM28"/>
       <c r="BN28"/>
       <c r="BO28"/>
@@ -4998,77 +5100,85 @@
       <c r="CP28"/>
     </row>
     <row r="29" spans="1:94" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="45" t="s">
+      <c r="A29" s="44"/>
+      <c r="B29" s="98" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" s="22">
+        <v>0</v>
+      </c>
+      <c r="E29" s="73">
+        <f>F28+1</f>
+        <v>45875</v>
+      </c>
+      <c r="F29" s="73">
+        <f>E29+10</f>
+        <v>45885</v>
+      </c>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13">
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="B29" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="C29" s="58"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="77"/>
-      <c r="F29" s="78"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I29" s="31"/>
-      <c r="J29" s="31"/>
-      <c r="K29" s="31"/>
-      <c r="L29" s="31"/>
-      <c r="M29" s="31"/>
-      <c r="N29" s="31"/>
-      <c r="O29" s="31"/>
-      <c r="P29" s="31"/>
-      <c r="Q29" s="31"/>
-      <c r="R29" s="31"/>
-      <c r="S29" s="31"/>
-      <c r="T29" s="31"/>
-      <c r="U29" s="31"/>
-      <c r="V29" s="31"/>
-      <c r="W29" s="31"/>
-      <c r="X29" s="31"/>
-      <c r="Y29" s="31"/>
-      <c r="Z29" s="31"/>
-      <c r="AA29" s="31"/>
-      <c r="AB29" s="31"/>
-      <c r="AC29" s="31"/>
-      <c r="AD29" s="31"/>
-      <c r="AE29" s="31"/>
-      <c r="AF29" s="31"/>
-      <c r="AG29" s="31"/>
-      <c r="AH29" s="31"/>
-      <c r="AI29" s="31"/>
-      <c r="AJ29" s="31"/>
-      <c r="AK29" s="31"/>
-      <c r="AL29" s="31"/>
-      <c r="AM29" s="31"/>
-      <c r="AN29" s="31"/>
-      <c r="AO29" s="31"/>
-      <c r="AP29" s="31"/>
-      <c r="AQ29" s="31"/>
-      <c r="AR29" s="31"/>
-      <c r="AS29" s="31"/>
-      <c r="AT29" s="31"/>
-      <c r="AU29" s="31"/>
-      <c r="AV29" s="31"/>
-      <c r="AW29" s="31"/>
-      <c r="AX29" s="31"/>
-      <c r="AY29" s="31"/>
-      <c r="AZ29" s="31"/>
-      <c r="BA29" s="31"/>
-      <c r="BB29" s="31"/>
-      <c r="BC29" s="31"/>
-      <c r="BD29" s="31"/>
-      <c r="BE29" s="31"/>
-      <c r="BF29" s="31"/>
-      <c r="BG29" s="31"/>
-      <c r="BH29" s="31"/>
-      <c r="BI29" s="31"/>
-      <c r="BJ29" s="31"/>
-      <c r="BK29" s="31"/>
-      <c r="BL29" s="31"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="30"/>
+      <c r="M29" s="30"/>
+      <c r="N29" s="30"/>
+      <c r="O29" s="30"/>
+      <c r="P29" s="30"/>
+      <c r="Q29" s="30"/>
+      <c r="R29" s="30"/>
+      <c r="S29" s="30"/>
+      <c r="T29" s="30"/>
+      <c r="U29" s="30"/>
+      <c r="V29" s="30"/>
+      <c r="W29" s="30"/>
+      <c r="X29" s="30"/>
+      <c r="Y29" s="30"/>
+      <c r="Z29" s="30"/>
+      <c r="AA29" s="30"/>
+      <c r="AB29" s="30"/>
+      <c r="AC29" s="30"/>
+      <c r="AD29" s="30"/>
+      <c r="AE29" s="30"/>
+      <c r="AF29" s="30"/>
+      <c r="AG29" s="30"/>
+      <c r="AH29" s="30"/>
+      <c r="AI29" s="30"/>
+      <c r="AJ29" s="30"/>
+      <c r="AK29" s="30"/>
+      <c r="AL29" s="30"/>
+      <c r="AM29" s="30"/>
+      <c r="AN29" s="30"/>
+      <c r="AO29" s="30"/>
+      <c r="AP29" s="30"/>
+      <c r="AQ29" s="30"/>
+      <c r="AR29" s="30"/>
+      <c r="AS29" s="30"/>
+      <c r="AT29" s="30"/>
+      <c r="AU29" s="30"/>
+      <c r="AV29" s="30"/>
+      <c r="AW29" s="30"/>
+      <c r="AX29" s="30"/>
+      <c r="AY29" s="30"/>
+      <c r="AZ29" s="30"/>
+      <c r="BA29" s="30"/>
+      <c r="BB29" s="30"/>
+      <c r="BC29" s="30"/>
+      <c r="BD29" s="30"/>
+      <c r="BE29" s="30"/>
+      <c r="BF29" s="30"/>
+      <c r="BG29" s="30"/>
+      <c r="BH29" s="30"/>
+      <c r="BI29" s="30"/>
+      <c r="BJ29" s="30"/>
+      <c r="BK29" s="30"/>
+      <c r="BL29" s="30"/>
       <c r="BM29"/>
       <c r="BN29"/>
       <c r="BO29"/>
@@ -5101,79 +5211,85 @@
       <c r="CP29"/>
     </row>
     <row r="30" spans="1:94" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="45"/>
-      <c r="B30" s="62" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30" s="59"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="79" t="s">
-        <v>28</v>
-      </c>
-      <c r="F30" s="79" t="s">
-        <v>28</v>
-      </c>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14" t="e">
+      <c r="A30" s="44"/>
+      <c r="B30" s="98" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30" s="22">
+        <v>0</v>
+      </c>
+      <c r="E30" s="73">
+        <f>F29</f>
+        <v>45885</v>
+      </c>
+      <c r="F30" s="73">
+        <f>E30+10</f>
+        <v>45895</v>
+      </c>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I30" s="31"/>
-      <c r="J30" s="31"/>
-      <c r="K30" s="31"/>
-      <c r="L30" s="31"/>
-      <c r="M30" s="31"/>
-      <c r="N30" s="31"/>
-      <c r="O30" s="31"/>
-      <c r="P30" s="31"/>
-      <c r="Q30" s="31"/>
-      <c r="R30" s="31"/>
-      <c r="S30" s="31"/>
-      <c r="T30" s="31"/>
-      <c r="U30" s="31"/>
-      <c r="V30" s="31"/>
-      <c r="W30" s="31"/>
-      <c r="X30" s="31"/>
-      <c r="Y30" s="31"/>
-      <c r="Z30" s="31"/>
-      <c r="AA30" s="31"/>
-      <c r="AB30" s="31"/>
-      <c r="AC30" s="31"/>
-      <c r="AD30" s="31"/>
-      <c r="AE30" s="31"/>
-      <c r="AF30" s="31"/>
-      <c r="AG30" s="31"/>
-      <c r="AH30" s="31"/>
-      <c r="AI30" s="31"/>
-      <c r="AJ30" s="31"/>
-      <c r="AK30" s="31"/>
-      <c r="AL30" s="31"/>
-      <c r="AM30" s="31"/>
-      <c r="AN30" s="31"/>
-      <c r="AO30" s="31"/>
-      <c r="AP30" s="31"/>
-      <c r="AQ30" s="31"/>
-      <c r="AR30" s="31"/>
-      <c r="AS30" s="31"/>
-      <c r="AT30" s="31"/>
-      <c r="AU30" s="31"/>
-      <c r="AV30" s="31"/>
-      <c r="AW30" s="31"/>
-      <c r="AX30" s="31"/>
-      <c r="AY30" s="31"/>
-      <c r="AZ30" s="31"/>
-      <c r="BA30" s="31"/>
-      <c r="BB30" s="31"/>
-      <c r="BC30" s="31"/>
-      <c r="BD30" s="31"/>
-      <c r="BE30" s="31"/>
-      <c r="BF30" s="31"/>
-      <c r="BG30" s="31"/>
-      <c r="BH30" s="31"/>
-      <c r="BI30" s="31"/>
-      <c r="BJ30" s="31"/>
-      <c r="BK30" s="31"/>
-      <c r="BL30" s="31"/>
+        <v>11</v>
+      </c>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="30"/>
+      <c r="M30" s="30"/>
+      <c r="N30" s="30"/>
+      <c r="O30" s="30"/>
+      <c r="P30" s="30"/>
+      <c r="Q30" s="30"/>
+      <c r="R30" s="30"/>
+      <c r="S30" s="30"/>
+      <c r="T30" s="30"/>
+      <c r="U30" s="30"/>
+      <c r="V30" s="30"/>
+      <c r="W30" s="30"/>
+      <c r="X30" s="30"/>
+      <c r="Y30" s="30"/>
+      <c r="Z30" s="30"/>
+      <c r="AA30" s="30"/>
+      <c r="AB30" s="30"/>
+      <c r="AC30" s="30"/>
+      <c r="AD30" s="30"/>
+      <c r="AE30" s="30"/>
+      <c r="AF30" s="30"/>
+      <c r="AG30" s="30"/>
+      <c r="AH30" s="30"/>
+      <c r="AI30" s="30"/>
+      <c r="AJ30" s="30"/>
+      <c r="AK30" s="30"/>
+      <c r="AL30" s="30"/>
+      <c r="AM30" s="30"/>
+      <c r="AN30" s="30"/>
+      <c r="AO30" s="30"/>
+      <c r="AP30" s="30"/>
+      <c r="AQ30" s="30"/>
+      <c r="AR30" s="30"/>
+      <c r="AS30" s="30"/>
+      <c r="AT30" s="30"/>
+      <c r="AU30" s="30"/>
+      <c r="AV30" s="30"/>
+      <c r="AW30" s="30"/>
+      <c r="AX30" s="30"/>
+      <c r="AY30" s="30"/>
+      <c r="AZ30" s="30"/>
+      <c r="BA30" s="30"/>
+      <c r="BB30" s="30"/>
+      <c r="BC30" s="30"/>
+      <c r="BD30" s="30"/>
+      <c r="BE30" s="30"/>
+      <c r="BF30" s="30"/>
+      <c r="BG30" s="30"/>
+      <c r="BH30" s="30"/>
+      <c r="BI30" s="30"/>
+      <c r="BJ30" s="30"/>
+      <c r="BK30" s="30"/>
+      <c r="BL30" s="30"/>
       <c r="BM30"/>
       <c r="BN30"/>
       <c r="BO30"/>
@@ -5206,79 +5322,81 @@
       <c r="CP30"/>
     </row>
     <row r="31" spans="1:94" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="45"/>
-      <c r="B31" s="62" t="s">
-        <v>16</v>
-      </c>
-      <c r="C31" s="59"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="79" t="s">
-        <v>28</v>
-      </c>
-      <c r="F31" s="79" t="s">
-        <v>28</v>
-      </c>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I31" s="31"/>
-      <c r="J31" s="31"/>
-      <c r="K31" s="31"/>
-      <c r="L31" s="31"/>
-      <c r="M31" s="31"/>
-      <c r="N31" s="31"/>
-      <c r="O31" s="31"/>
-      <c r="P31" s="31"/>
-      <c r="Q31" s="31"/>
-      <c r="R31" s="31"/>
-      <c r="S31" s="31"/>
-      <c r="T31" s="31"/>
-      <c r="U31" s="31"/>
-      <c r="V31" s="31"/>
-      <c r="W31" s="31"/>
-      <c r="X31" s="31"/>
-      <c r="Y31" s="31"/>
-      <c r="Z31" s="31"/>
-      <c r="AA31" s="31"/>
-      <c r="AB31" s="31"/>
-      <c r="AC31" s="31"/>
-      <c r="AD31" s="31"/>
-      <c r="AE31" s="31"/>
-      <c r="AF31" s="31"/>
-      <c r="AG31" s="31"/>
-      <c r="AH31" s="31"/>
-      <c r="AI31" s="31"/>
-      <c r="AJ31" s="31"/>
-      <c r="AK31" s="31"/>
-      <c r="AL31" s="31"/>
-      <c r="AM31" s="31"/>
-      <c r="AN31" s="31"/>
-      <c r="AO31" s="31"/>
-      <c r="AP31" s="31"/>
-      <c r="AQ31" s="31"/>
-      <c r="AR31" s="31"/>
-      <c r="AS31" s="31"/>
-      <c r="AT31" s="31"/>
-      <c r="AU31" s="31"/>
-      <c r="AV31" s="31"/>
-      <c r="AW31" s="31"/>
-      <c r="AX31" s="31"/>
-      <c r="AY31" s="31"/>
-      <c r="AZ31" s="31"/>
-      <c r="BA31" s="31"/>
-      <c r="BB31" s="31"/>
-      <c r="BC31" s="31"/>
-      <c r="BD31" s="31"/>
-      <c r="BE31" s="31"/>
-      <c r="BF31" s="31"/>
-      <c r="BG31" s="31"/>
-      <c r="BH31" s="31"/>
-      <c r="BI31" s="31"/>
-      <c r="BJ31" s="31"/>
-      <c r="BK31" s="31"/>
-      <c r="BL31" s="31"/>
+      <c r="A31" s="44"/>
+      <c r="B31" s="98" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31" s="22">
+        <v>0</v>
+      </c>
+      <c r="E31" s="73">
+        <f>F30</f>
+        <v>45895</v>
+      </c>
+      <c r="F31" s="73">
+        <v>45900</v>
+      </c>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="30"/>
+      <c r="M31" s="30"/>
+      <c r="N31" s="30"/>
+      <c r="O31" s="30"/>
+      <c r="P31" s="30"/>
+      <c r="Q31" s="30"/>
+      <c r="R31" s="30"/>
+      <c r="S31" s="30"/>
+      <c r="T31" s="30"/>
+      <c r="U31" s="30"/>
+      <c r="V31" s="30"/>
+      <c r="W31" s="30"/>
+      <c r="X31" s="30"/>
+      <c r="Y31" s="30"/>
+      <c r="Z31" s="30"/>
+      <c r="AA31" s="30"/>
+      <c r="AB31" s="30"/>
+      <c r="AC31" s="30"/>
+      <c r="AD31" s="30"/>
+      <c r="AE31" s="30"/>
+      <c r="AF31" s="30"/>
+      <c r="AG31" s="30"/>
+      <c r="AH31" s="30"/>
+      <c r="AI31" s="30"/>
+      <c r="AJ31" s="30"/>
+      <c r="AK31" s="30"/>
+      <c r="AL31" s="30"/>
+      <c r="AM31" s="30"/>
+      <c r="AN31" s="30"/>
+      <c r="AO31" s="30"/>
+      <c r="AP31" s="30"/>
+      <c r="AQ31" s="30"/>
+      <c r="AR31" s="30"/>
+      <c r="AS31" s="30"/>
+      <c r="AT31" s="30"/>
+      <c r="AU31" s="30"/>
+      <c r="AV31" s="30"/>
+      <c r="AW31" s="30"/>
+      <c r="AX31" s="30"/>
+      <c r="AY31" s="30"/>
+      <c r="AZ31" s="30"/>
+      <c r="BA31" s="30"/>
+      <c r="BB31" s="30"/>
+      <c r="BC31" s="30"/>
+      <c r="BD31" s="30"/>
+      <c r="BE31" s="30"/>
+      <c r="BF31" s="30"/>
+      <c r="BG31" s="30"/>
+      <c r="BH31" s="30"/>
+      <c r="BI31" s="30"/>
+      <c r="BJ31" s="30"/>
+      <c r="BK31" s="30"/>
+      <c r="BL31" s="30"/>
       <c r="BM31"/>
       <c r="BN31"/>
       <c r="BO31"/>
@@ -5311,79 +5429,80 @@
       <c r="CP31"/>
     </row>
     <row r="32" spans="1:94" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="45"/>
-      <c r="B32" s="62" t="s">
-        <v>17</v>
-      </c>
-      <c r="C32" s="59"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="79" t="s">
-        <v>28</v>
-      </c>
-      <c r="F32" s="79" t="s">
-        <v>28</v>
-      </c>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I32" s="31"/>
-      <c r="J32" s="31"/>
-      <c r="K32" s="31"/>
-      <c r="L32" s="31"/>
-      <c r="M32" s="31"/>
-      <c r="N32" s="31"/>
-      <c r="O32" s="31"/>
-      <c r="P32" s="31"/>
-      <c r="Q32" s="31"/>
-      <c r="R32" s="31"/>
-      <c r="S32" s="31"/>
-      <c r="T32" s="31"/>
-      <c r="U32" s="31"/>
-      <c r="V32" s="31"/>
-      <c r="W32" s="31"/>
-      <c r="X32" s="31"/>
-      <c r="Y32" s="31"/>
-      <c r="Z32" s="31"/>
-      <c r="AA32" s="31"/>
-      <c r="AB32" s="31"/>
-      <c r="AC32" s="31"/>
-      <c r="AD32" s="31"/>
-      <c r="AE32" s="31"/>
-      <c r="AF32" s="31"/>
-      <c r="AG32" s="31"/>
-      <c r="AH32" s="31"/>
-      <c r="AI32" s="31"/>
-      <c r="AJ32" s="31"/>
-      <c r="AK32" s="31"/>
-      <c r="AL32" s="31"/>
-      <c r="AM32" s="31"/>
-      <c r="AN32" s="31"/>
-      <c r="AO32" s="31"/>
-      <c r="AP32" s="31"/>
-      <c r="AQ32" s="31"/>
-      <c r="AR32" s="31"/>
-      <c r="AS32" s="31"/>
-      <c r="AT32" s="31"/>
-      <c r="AU32" s="31"/>
-      <c r="AV32" s="31"/>
-      <c r="AW32" s="31"/>
-      <c r="AX32" s="31"/>
-      <c r="AY32" s="31"/>
-      <c r="AZ32" s="31"/>
-      <c r="BA32" s="31"/>
-      <c r="BB32" s="31"/>
-      <c r="BC32" s="31"/>
-      <c r="BD32" s="31"/>
-      <c r="BE32" s="31"/>
-      <c r="BF32" s="31"/>
-      <c r="BG32" s="31"/>
-      <c r="BH32" s="31"/>
-      <c r="BI32" s="31"/>
-      <c r="BJ32" s="31"/>
-      <c r="BK32" s="31"/>
-      <c r="BL32" s="31"/>
+      <c r="A32" s="44"/>
+      <c r="B32" s="98" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="D32" s="22">
+        <v>0</v>
+      </c>
+      <c r="E32" s="73">
+        <v>45851</v>
+      </c>
+      <c r="F32" s="73">
+        <v>45853</v>
+      </c>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="30"/>
+      <c r="K32" s="30"/>
+      <c r="L32" s="30"/>
+      <c r="M32" s="30"/>
+      <c r="N32" s="30"/>
+      <c r="O32" s="30"/>
+      <c r="P32" s="30"/>
+      <c r="Q32" s="30"/>
+      <c r="R32" s="30"/>
+      <c r="S32" s="30"/>
+      <c r="T32" s="30"/>
+      <c r="U32" s="30"/>
+      <c r="V32" s="30"/>
+      <c r="W32" s="30"/>
+      <c r="X32" s="30"/>
+      <c r="Y32" s="30"/>
+      <c r="Z32" s="30"/>
+      <c r="AA32" s="30"/>
+      <c r="AB32" s="30"/>
+      <c r="AC32" s="30"/>
+      <c r="AD32" s="30"/>
+      <c r="AE32" s="30"/>
+      <c r="AF32" s="30"/>
+      <c r="AG32" s="30"/>
+      <c r="AH32" s="30"/>
+      <c r="AI32" s="30"/>
+      <c r="AJ32" s="30"/>
+      <c r="AK32" s="30"/>
+      <c r="AL32" s="30"/>
+      <c r="AM32" s="30"/>
+      <c r="AN32" s="30"/>
+      <c r="AO32" s="30"/>
+      <c r="AP32" s="30"/>
+      <c r="AQ32" s="30"/>
+      <c r="AR32" s="30"/>
+      <c r="AS32" s="30"/>
+      <c r="AT32" s="30"/>
+      <c r="AU32" s="30"/>
+      <c r="AV32" s="30"/>
+      <c r="AW32" s="30"/>
+      <c r="AX32" s="30"/>
+      <c r="AY32" s="30"/>
+      <c r="AZ32" s="30"/>
+      <c r="BA32" s="30"/>
+      <c r="BB32" s="30"/>
+      <c r="BC32" s="30"/>
+      <c r="BD32" s="30"/>
+      <c r="BE32" s="30"/>
+      <c r="BF32" s="30"/>
+      <c r="BG32" s="30"/>
+      <c r="BH32" s="30"/>
+      <c r="BI32" s="30"/>
+      <c r="BJ32" s="30"/>
+      <c r="BK32" s="30"/>
+      <c r="BL32" s="30"/>
       <c r="BM32"/>
       <c r="BN32"/>
       <c r="BO32"/>
@@ -5416,79 +5535,80 @@
       <c r="CP32"/>
     </row>
     <row r="33" spans="1:94" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="45"/>
-      <c r="B33" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="C33" s="59"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="79" t="s">
-        <v>28</v>
-      </c>
-      <c r="F33" s="79" t="s">
-        <v>28</v>
-      </c>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I33" s="31"/>
-      <c r="J33" s="31"/>
-      <c r="K33" s="31"/>
-      <c r="L33" s="31"/>
-      <c r="M33" s="31"/>
-      <c r="N33" s="31"/>
-      <c r="O33" s="31"/>
-      <c r="P33" s="31"/>
-      <c r="Q33" s="31"/>
-      <c r="R33" s="31"/>
-      <c r="S33" s="31"/>
-      <c r="T33" s="31"/>
-      <c r="U33" s="31"/>
-      <c r="V33" s="31"/>
-      <c r="W33" s="31"/>
-      <c r="X33" s="31"/>
-      <c r="Y33" s="31"/>
-      <c r="Z33" s="31"/>
-      <c r="AA33" s="31"/>
-      <c r="AB33" s="31"/>
-      <c r="AC33" s="31"/>
-      <c r="AD33" s="31"/>
-      <c r="AE33" s="31"/>
-      <c r="AF33" s="31"/>
-      <c r="AG33" s="31"/>
-      <c r="AH33" s="31"/>
-      <c r="AI33" s="31"/>
-      <c r="AJ33" s="31"/>
-      <c r="AK33" s="31"/>
-      <c r="AL33" s="31"/>
-      <c r="AM33" s="31"/>
-      <c r="AN33" s="31"/>
-      <c r="AO33" s="31"/>
-      <c r="AP33" s="31"/>
-      <c r="AQ33" s="31"/>
-      <c r="AR33" s="31"/>
-      <c r="AS33" s="31"/>
-      <c r="AT33" s="31"/>
-      <c r="AU33" s="31"/>
-      <c r="AV33" s="31"/>
-      <c r="AW33" s="31"/>
-      <c r="AX33" s="31"/>
-      <c r="AY33" s="31"/>
-      <c r="AZ33" s="31"/>
-      <c r="BA33" s="31"/>
-      <c r="BB33" s="31"/>
-      <c r="BC33" s="31"/>
-      <c r="BD33" s="31"/>
-      <c r="BE33" s="31"/>
-      <c r="BF33" s="31"/>
-      <c r="BG33" s="31"/>
-      <c r="BH33" s="31"/>
-      <c r="BI33" s="31"/>
-      <c r="BJ33" s="31"/>
-      <c r="BK33" s="31"/>
-      <c r="BL33" s="31"/>
+      <c r="A33" s="44"/>
+      <c r="B33" s="98" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="D33" s="22">
+        <v>0</v>
+      </c>
+      <c r="E33" s="73">
+        <v>45853</v>
+      </c>
+      <c r="F33" s="73">
+        <v>45855</v>
+      </c>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="30"/>
+      <c r="M33" s="30"/>
+      <c r="N33" s="30"/>
+      <c r="O33" s="30"/>
+      <c r="P33" s="30"/>
+      <c r="Q33" s="30"/>
+      <c r="R33" s="30"/>
+      <c r="S33" s="30"/>
+      <c r="T33" s="30"/>
+      <c r="U33" s="30"/>
+      <c r="V33" s="30"/>
+      <c r="W33" s="30"/>
+      <c r="X33" s="30"/>
+      <c r="Y33" s="30"/>
+      <c r="Z33" s="30"/>
+      <c r="AA33" s="30"/>
+      <c r="AB33" s="30"/>
+      <c r="AC33" s="30"/>
+      <c r="AD33" s="30"/>
+      <c r="AE33" s="30"/>
+      <c r="AF33" s="30"/>
+      <c r="AG33" s="30"/>
+      <c r="AH33" s="30"/>
+      <c r="AI33" s="30"/>
+      <c r="AJ33" s="30"/>
+      <c r="AK33" s="30"/>
+      <c r="AL33" s="30"/>
+      <c r="AM33" s="30"/>
+      <c r="AN33" s="30"/>
+      <c r="AO33" s="30"/>
+      <c r="AP33" s="30"/>
+      <c r="AQ33" s="30"/>
+      <c r="AR33" s="30"/>
+      <c r="AS33" s="30"/>
+      <c r="AT33" s="30"/>
+      <c r="AU33" s="30"/>
+      <c r="AV33" s="30"/>
+      <c r="AW33" s="30"/>
+      <c r="AX33" s="30"/>
+      <c r="AY33" s="30"/>
+      <c r="AZ33" s="30"/>
+      <c r="BA33" s="30"/>
+      <c r="BB33" s="30"/>
+      <c r="BC33" s="30"/>
+      <c r="BD33" s="30"/>
+      <c r="BE33" s="30"/>
+      <c r="BF33" s="30"/>
+      <c r="BG33" s="30"/>
+      <c r="BH33" s="30"/>
+      <c r="BI33" s="30"/>
+      <c r="BJ33" s="30"/>
+      <c r="BK33" s="30"/>
+      <c r="BL33" s="30"/>
       <c r="BM33"/>
       <c r="BN33"/>
       <c r="BO33"/>
@@ -5521,79 +5641,80 @@
       <c r="CP33"/>
     </row>
     <row r="34" spans="1:94" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="45"/>
-      <c r="B34" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="C34" s="59"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="79" t="s">
-        <v>28</v>
-      </c>
-      <c r="F34" s="79" t="s">
-        <v>28</v>
-      </c>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I34" s="31"/>
-      <c r="J34" s="31"/>
-      <c r="K34" s="31"/>
-      <c r="L34" s="31"/>
-      <c r="M34" s="31"/>
-      <c r="N34" s="31"/>
-      <c r="O34" s="31"/>
-      <c r="P34" s="31"/>
-      <c r="Q34" s="31"/>
-      <c r="R34" s="31"/>
-      <c r="S34" s="31"/>
-      <c r="T34" s="31"/>
-      <c r="U34" s="31"/>
-      <c r="V34" s="31"/>
-      <c r="W34" s="31"/>
-      <c r="X34" s="31"/>
-      <c r="Y34" s="31"/>
-      <c r="Z34" s="31"/>
-      <c r="AA34" s="31"/>
-      <c r="AB34" s="31"/>
-      <c r="AC34" s="31"/>
-      <c r="AD34" s="31"/>
-      <c r="AE34" s="31"/>
-      <c r="AF34" s="31"/>
-      <c r="AG34" s="31"/>
-      <c r="AH34" s="31"/>
-      <c r="AI34" s="31"/>
-      <c r="AJ34" s="31"/>
-      <c r="AK34" s="31"/>
-      <c r="AL34" s="31"/>
-      <c r="AM34" s="31"/>
-      <c r="AN34" s="31"/>
-      <c r="AO34" s="31"/>
-      <c r="AP34" s="31"/>
-      <c r="AQ34" s="31"/>
-      <c r="AR34" s="31"/>
-      <c r="AS34" s="31"/>
-      <c r="AT34" s="31"/>
-      <c r="AU34" s="31"/>
-      <c r="AV34" s="31"/>
-      <c r="AW34" s="31"/>
-      <c r="AX34" s="31"/>
-      <c r="AY34" s="31"/>
-      <c r="AZ34" s="31"/>
-      <c r="BA34" s="31"/>
-      <c r="BB34" s="31"/>
-      <c r="BC34" s="31"/>
-      <c r="BD34" s="31"/>
-      <c r="BE34" s="31"/>
-      <c r="BF34" s="31"/>
-      <c r="BG34" s="31"/>
-      <c r="BH34" s="31"/>
-      <c r="BI34" s="31"/>
-      <c r="BJ34" s="31"/>
-      <c r="BK34" s="31"/>
-      <c r="BL34" s="31"/>
+      <c r="A34" s="44"/>
+      <c r="B34" s="98" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="D34" s="22">
+        <v>0</v>
+      </c>
+      <c r="E34" s="73">
+        <v>45856</v>
+      </c>
+      <c r="F34" s="73">
+        <v>45866</v>
+      </c>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="30"/>
+      <c r="K34" s="30"/>
+      <c r="L34" s="30"/>
+      <c r="M34" s="30"/>
+      <c r="N34" s="30"/>
+      <c r="O34" s="30"/>
+      <c r="P34" s="30"/>
+      <c r="Q34" s="30"/>
+      <c r="R34" s="30"/>
+      <c r="S34" s="30"/>
+      <c r="T34" s="30"/>
+      <c r="U34" s="30"/>
+      <c r="V34" s="30"/>
+      <c r="W34" s="30"/>
+      <c r="X34" s="30"/>
+      <c r="Y34" s="30"/>
+      <c r="Z34" s="30"/>
+      <c r="AA34" s="30"/>
+      <c r="AB34" s="30"/>
+      <c r="AC34" s="30"/>
+      <c r="AD34" s="30"/>
+      <c r="AE34" s="30"/>
+      <c r="AF34" s="30"/>
+      <c r="AG34" s="30"/>
+      <c r="AH34" s="30"/>
+      <c r="AI34" s="30"/>
+      <c r="AJ34" s="30"/>
+      <c r="AK34" s="30"/>
+      <c r="AL34" s="30"/>
+      <c r="AM34" s="30"/>
+      <c r="AN34" s="30"/>
+      <c r="AO34" s="30"/>
+      <c r="AP34" s="30"/>
+      <c r="AQ34" s="30"/>
+      <c r="AR34" s="30"/>
+      <c r="AS34" s="30"/>
+      <c r="AT34" s="30"/>
+      <c r="AU34" s="30"/>
+      <c r="AV34" s="30"/>
+      <c r="AW34" s="30"/>
+      <c r="AX34" s="30"/>
+      <c r="AY34" s="30"/>
+      <c r="AZ34" s="30"/>
+      <c r="BA34" s="30"/>
+      <c r="BB34" s="30"/>
+      <c r="BC34" s="30"/>
+      <c r="BD34" s="30"/>
+      <c r="BE34" s="30"/>
+      <c r="BF34" s="30"/>
+      <c r="BG34" s="30"/>
+      <c r="BH34" s="30"/>
+      <c r="BI34" s="30"/>
+      <c r="BJ34" s="30"/>
+      <c r="BK34" s="30"/>
+      <c r="BL34" s="30"/>
       <c r="BM34"/>
       <c r="BN34"/>
       <c r="BO34"/>
@@ -5626,75 +5747,80 @@
       <c r="CP34"/>
     </row>
     <row r="35" spans="1:94" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="B35" s="63"/>
-      <c r="C35" s="60"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="80"/>
-      <c r="F35" s="80"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I35" s="31"/>
-      <c r="J35" s="31"/>
-      <c r="K35" s="31"/>
-      <c r="L35" s="31"/>
-      <c r="M35" s="31"/>
-      <c r="N35" s="31"/>
-      <c r="O35" s="31"/>
-      <c r="P35" s="31"/>
-      <c r="Q35" s="31"/>
-      <c r="R35" s="31"/>
-      <c r="S35" s="31"/>
-      <c r="T35" s="31"/>
-      <c r="U35" s="31"/>
-      <c r="V35" s="31"/>
-      <c r="W35" s="31"/>
-      <c r="X35" s="31"/>
-      <c r="Y35" s="31"/>
-      <c r="Z35" s="31"/>
-      <c r="AA35" s="31"/>
-      <c r="AB35" s="31"/>
-      <c r="AC35" s="31"/>
-      <c r="AD35" s="31"/>
-      <c r="AE35" s="31"/>
-      <c r="AF35" s="31"/>
-      <c r="AG35" s="31"/>
-      <c r="AH35" s="31"/>
-      <c r="AI35" s="31"/>
-      <c r="AJ35" s="31"/>
-      <c r="AK35" s="31"/>
-      <c r="AL35" s="31"/>
-      <c r="AM35" s="31"/>
-      <c r="AN35" s="31"/>
-      <c r="AO35" s="31"/>
-      <c r="AP35" s="31"/>
-      <c r="AQ35" s="31"/>
-      <c r="AR35" s="31"/>
-      <c r="AS35" s="31"/>
-      <c r="AT35" s="31"/>
-      <c r="AU35" s="31"/>
-      <c r="AV35" s="31"/>
-      <c r="AW35" s="31"/>
-      <c r="AX35" s="31"/>
-      <c r="AY35" s="31"/>
-      <c r="AZ35" s="31"/>
-      <c r="BA35" s="31"/>
-      <c r="BB35" s="31"/>
-      <c r="BC35" s="31"/>
-      <c r="BD35" s="31"/>
-      <c r="BE35" s="31"/>
-      <c r="BF35" s="31"/>
-      <c r="BG35" s="31"/>
-      <c r="BH35" s="31"/>
-      <c r="BI35" s="31"/>
-      <c r="BJ35" s="31"/>
-      <c r="BK35" s="31"/>
-      <c r="BL35" s="31"/>
+      <c r="A35" s="44"/>
+      <c r="B35" s="99" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35" s="22">
+        <v>0</v>
+      </c>
+      <c r="E35" s="73">
+        <v>45866</v>
+      </c>
+      <c r="F35" s="73">
+        <v>45877</v>
+      </c>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="30"/>
+      <c r="K35" s="30"/>
+      <c r="L35" s="30"/>
+      <c r="M35" s="30"/>
+      <c r="N35" s="30"/>
+      <c r="O35" s="30"/>
+      <c r="P35" s="30"/>
+      <c r="Q35" s="30"/>
+      <c r="R35" s="30"/>
+      <c r="S35" s="30"/>
+      <c r="T35" s="30"/>
+      <c r="U35" s="30"/>
+      <c r="V35" s="30"/>
+      <c r="W35" s="30"/>
+      <c r="X35" s="30"/>
+      <c r="Y35" s="30"/>
+      <c r="Z35" s="30"/>
+      <c r="AA35" s="30"/>
+      <c r="AB35" s="30"/>
+      <c r="AC35" s="30"/>
+      <c r="AD35" s="30"/>
+      <c r="AE35" s="30"/>
+      <c r="AF35" s="30"/>
+      <c r="AG35" s="30"/>
+      <c r="AH35" s="30"/>
+      <c r="AI35" s="30"/>
+      <c r="AJ35" s="30"/>
+      <c r="AK35" s="30"/>
+      <c r="AL35" s="30"/>
+      <c r="AM35" s="30"/>
+      <c r="AN35" s="30"/>
+      <c r="AO35" s="30"/>
+      <c r="AP35" s="30"/>
+      <c r="AQ35" s="30"/>
+      <c r="AR35" s="30"/>
+      <c r="AS35" s="30"/>
+      <c r="AT35" s="30"/>
+      <c r="AU35" s="30"/>
+      <c r="AV35" s="30"/>
+      <c r="AW35" s="30"/>
+      <c r="AX35" s="30"/>
+      <c r="AY35" s="30"/>
+      <c r="AZ35" s="30"/>
+      <c r="BA35" s="30"/>
+      <c r="BB35" s="30"/>
+      <c r="BC35" s="30"/>
+      <c r="BD35" s="30"/>
+      <c r="BE35" s="30"/>
+      <c r="BF35" s="30"/>
+      <c r="BG35" s="30"/>
+      <c r="BH35" s="30"/>
+      <c r="BI35" s="30"/>
+      <c r="BJ35" s="30"/>
+      <c r="BK35" s="30"/>
+      <c r="BL35" s="30"/>
       <c r="BM35"/>
       <c r="BN35"/>
       <c r="BO35"/>
@@ -5727,77 +5853,80 @@
       <c r="CP35"/>
     </row>
     <row r="36" spans="1:94" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="B36" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="C36" s="28"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="81"/>
-      <c r="F36" s="82"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I36" s="33"/>
-      <c r="J36" s="33"/>
-      <c r="K36" s="33"/>
-      <c r="L36" s="33"/>
-      <c r="M36" s="33"/>
-      <c r="N36" s="33"/>
-      <c r="O36" s="33"/>
-      <c r="P36" s="33"/>
-      <c r="Q36" s="33"/>
-      <c r="R36" s="33"/>
-      <c r="S36" s="33"/>
-      <c r="T36" s="33"/>
-      <c r="U36" s="33"/>
-      <c r="V36" s="33"/>
-      <c r="W36" s="33"/>
-      <c r="X36" s="33"/>
-      <c r="Y36" s="33"/>
-      <c r="Z36" s="33"/>
-      <c r="AA36" s="33"/>
-      <c r="AB36" s="33"/>
-      <c r="AC36" s="33"/>
-      <c r="AD36" s="33"/>
-      <c r="AE36" s="33"/>
-      <c r="AF36" s="33"/>
-      <c r="AG36" s="33"/>
-      <c r="AH36" s="33"/>
-      <c r="AI36" s="33"/>
-      <c r="AJ36" s="33"/>
-      <c r="AK36" s="33"/>
-      <c r="AL36" s="33"/>
-      <c r="AM36" s="33"/>
-      <c r="AN36" s="33"/>
-      <c r="AO36" s="33"/>
-      <c r="AP36" s="33"/>
-      <c r="AQ36" s="33"/>
-      <c r="AR36" s="33"/>
-      <c r="AS36" s="33"/>
-      <c r="AT36" s="33"/>
-      <c r="AU36" s="33"/>
-      <c r="AV36" s="33"/>
-      <c r="AW36" s="33"/>
-      <c r="AX36" s="33"/>
-      <c r="AY36" s="33"/>
-      <c r="AZ36" s="33"/>
-      <c r="BA36" s="33"/>
-      <c r="BB36" s="33"/>
-      <c r="BC36" s="33"/>
-      <c r="BD36" s="33"/>
-      <c r="BE36" s="33"/>
-      <c r="BF36" s="33"/>
-      <c r="BG36" s="33"/>
-      <c r="BH36" s="33"/>
-      <c r="BI36" s="33"/>
-      <c r="BJ36" s="33"/>
-      <c r="BK36" s="33"/>
-      <c r="BL36" s="33"/>
+      <c r="A36" s="44"/>
+      <c r="B36" s="99" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="D36" s="22">
+        <v>0</v>
+      </c>
+      <c r="E36" s="73">
+        <v>45883</v>
+      </c>
+      <c r="F36" s="73">
+        <v>45890</v>
+      </c>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="30"/>
+      <c r="K36" s="30"/>
+      <c r="L36" s="30"/>
+      <c r="M36" s="30"/>
+      <c r="N36" s="30"/>
+      <c r="O36" s="30"/>
+      <c r="P36" s="30"/>
+      <c r="Q36" s="30"/>
+      <c r="R36" s="30"/>
+      <c r="S36" s="30"/>
+      <c r="T36" s="30"/>
+      <c r="U36" s="30"/>
+      <c r="V36" s="30"/>
+      <c r="W36" s="30"/>
+      <c r="X36" s="30"/>
+      <c r="Y36" s="30"/>
+      <c r="Z36" s="30"/>
+      <c r="AA36" s="30"/>
+      <c r="AB36" s="30"/>
+      <c r="AC36" s="30"/>
+      <c r="AD36" s="30"/>
+      <c r="AE36" s="30"/>
+      <c r="AF36" s="30"/>
+      <c r="AG36" s="30"/>
+      <c r="AH36" s="30"/>
+      <c r="AI36" s="30"/>
+      <c r="AJ36" s="30"/>
+      <c r="AK36" s="30"/>
+      <c r="AL36" s="30"/>
+      <c r="AM36" s="30"/>
+      <c r="AN36" s="30"/>
+      <c r="AO36" s="30"/>
+      <c r="AP36" s="30"/>
+      <c r="AQ36" s="30"/>
+      <c r="AR36" s="30"/>
+      <c r="AS36" s="30"/>
+      <c r="AT36" s="30"/>
+      <c r="AU36" s="30"/>
+      <c r="AV36" s="30"/>
+      <c r="AW36" s="30"/>
+      <c r="AX36" s="30"/>
+      <c r="AY36" s="30"/>
+      <c r="AZ36" s="30"/>
+      <c r="BA36" s="30"/>
+      <c r="BB36" s="30"/>
+      <c r="BC36" s="30"/>
+      <c r="BD36" s="30"/>
+      <c r="BE36" s="30"/>
+      <c r="BF36" s="30"/>
+      <c r="BG36" s="30"/>
+      <c r="BH36" s="30"/>
+      <c r="BI36" s="30"/>
+      <c r="BJ36" s="30"/>
+      <c r="BK36" s="30"/>
+      <c r="BL36" s="30"/>
       <c r="BM36"/>
       <c r="BN36"/>
       <c r="BO36"/>
@@ -5829,15 +5958,2531 @@
       <c r="CO36"/>
       <c r="CP36"/>
     </row>
-    <row r="37" spans="1:94" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="6"/>
+    <row r="37" spans="1:94" s="3" customFormat="1" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="44"/>
+      <c r="B37" s="99" t="s">
+        <v>86</v>
+      </c>
+      <c r="C37" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="D37" s="22">
+        <v>0</v>
+      </c>
+      <c r="E37" s="73">
+        <v>45890</v>
+      </c>
+      <c r="F37" s="73">
+        <v>45892</v>
+      </c>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="30"/>
+      <c r="K37" s="30"/>
+      <c r="L37" s="30"/>
+      <c r="M37" s="30"/>
+      <c r="N37" s="30"/>
+      <c r="O37" s="30"/>
+      <c r="P37" s="30"/>
+      <c r="Q37" s="30"/>
+      <c r="R37" s="30"/>
+      <c r="S37" s="30"/>
+      <c r="T37" s="30"/>
+      <c r="U37" s="30"/>
+      <c r="V37" s="30"/>
+      <c r="W37" s="30"/>
+      <c r="X37" s="30"/>
+      <c r="Y37" s="30"/>
+      <c r="Z37" s="30"/>
+      <c r="AA37" s="30"/>
+      <c r="AB37" s="30"/>
+      <c r="AC37" s="30"/>
+      <c r="AD37" s="30"/>
+      <c r="AE37" s="30"/>
+      <c r="AF37" s="30"/>
+      <c r="AG37" s="30"/>
+      <c r="AH37" s="30"/>
+      <c r="AI37" s="30"/>
+      <c r="AJ37" s="30"/>
+      <c r="AK37" s="30"/>
+      <c r="AL37" s="30"/>
+      <c r="AM37" s="30"/>
+      <c r="AN37" s="30"/>
+      <c r="AO37" s="30"/>
+      <c r="AP37" s="30"/>
+      <c r="AQ37" s="30"/>
+      <c r="AR37" s="30"/>
+      <c r="AS37" s="30"/>
+      <c r="AT37" s="30"/>
+      <c r="AU37" s="30"/>
+      <c r="AV37" s="30"/>
+      <c r="AW37" s="30"/>
+      <c r="AX37" s="30"/>
+      <c r="AY37" s="30"/>
+      <c r="AZ37" s="30"/>
+      <c r="BA37" s="30"/>
+      <c r="BB37" s="30"/>
+      <c r="BC37" s="30"/>
+      <c r="BD37" s="30"/>
+      <c r="BE37" s="30"/>
+      <c r="BF37" s="30"/>
+      <c r="BG37" s="30"/>
+      <c r="BH37" s="30"/>
+      <c r="BI37" s="30"/>
+      <c r="BJ37" s="30"/>
+      <c r="BK37" s="30"/>
+      <c r="BL37" s="30"/>
+      <c r="BM37"/>
+      <c r="BN37"/>
+      <c r="BO37"/>
+      <c r="BP37"/>
+      <c r="BQ37"/>
+      <c r="BR37"/>
+      <c r="BS37"/>
+      <c r="BT37"/>
+      <c r="BU37"/>
+      <c r="BV37"/>
+      <c r="BW37"/>
+      <c r="BX37"/>
+      <c r="BY37"/>
+      <c r="BZ37"/>
+      <c r="CA37"/>
+      <c r="CB37"/>
+      <c r="CC37"/>
+      <c r="CD37"/>
+      <c r="CE37"/>
+      <c r="CF37"/>
+      <c r="CG37"/>
+      <c r="CH37"/>
+      <c r="CI37"/>
+      <c r="CJ37"/>
+      <c r="CK37"/>
+      <c r="CL37"/>
+      <c r="CM37"/>
+      <c r="CN37"/>
+      <c r="CO37"/>
+      <c r="CP37"/>
     </row>
-    <row r="38" spans="1:94" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="11"/>
-      <c r="F38" s="47"/>
+    <row r="38" spans="1:94" s="3" customFormat="1" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="44"/>
+      <c r="B38" s="99" t="s">
+        <v>82</v>
+      </c>
+      <c r="C38" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38" s="22">
+        <v>0</v>
+      </c>
+      <c r="E38" s="73">
+        <v>45892</v>
+      </c>
+      <c r="F38" s="73">
+        <v>45894</v>
+      </c>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="30"/>
+      <c r="K38" s="30"/>
+      <c r="L38" s="30"/>
+      <c r="M38" s="30"/>
+      <c r="N38" s="30"/>
+      <c r="O38" s="30"/>
+      <c r="P38" s="30"/>
+      <c r="Q38" s="30"/>
+      <c r="R38" s="30"/>
+      <c r="S38" s="30"/>
+      <c r="T38" s="30"/>
+      <c r="U38" s="30"/>
+      <c r="V38" s="30"/>
+      <c r="W38" s="30"/>
+      <c r="X38" s="30"/>
+      <c r="Y38" s="30"/>
+      <c r="Z38" s="30"/>
+      <c r="AA38" s="30"/>
+      <c r="AB38" s="30"/>
+      <c r="AC38" s="30"/>
+      <c r="AD38" s="30"/>
+      <c r="AE38" s="30"/>
+      <c r="AF38" s="30"/>
+      <c r="AG38" s="30"/>
+      <c r="AH38" s="30"/>
+      <c r="AI38" s="30"/>
+      <c r="AJ38" s="30"/>
+      <c r="AK38" s="30"/>
+      <c r="AL38" s="30"/>
+      <c r="AM38" s="30"/>
+      <c r="AN38" s="30"/>
+      <c r="AO38" s="30"/>
+      <c r="AP38" s="30"/>
+      <c r="AQ38" s="30"/>
+      <c r="AR38" s="30"/>
+      <c r="AS38" s="30"/>
+      <c r="AT38" s="30"/>
+      <c r="AU38" s="30"/>
+      <c r="AV38" s="30"/>
+      <c r="AW38" s="30"/>
+      <c r="AX38" s="30"/>
+      <c r="AY38" s="30"/>
+      <c r="AZ38" s="30"/>
+      <c r="BA38" s="30"/>
+      <c r="BB38" s="30"/>
+      <c r="BC38" s="30"/>
+      <c r="BD38" s="30"/>
+      <c r="BE38" s="30"/>
+      <c r="BF38" s="30"/>
+      <c r="BG38" s="30"/>
+      <c r="BH38" s="30"/>
+      <c r="BI38" s="30"/>
+      <c r="BJ38" s="30"/>
+      <c r="BK38" s="30"/>
+      <c r="BL38" s="30"/>
+      <c r="BM38"/>
+      <c r="BN38"/>
+      <c r="BO38"/>
+      <c r="BP38"/>
+      <c r="BQ38"/>
+      <c r="BR38"/>
+      <c r="BS38"/>
+      <c r="BT38"/>
+      <c r="BU38"/>
+      <c r="BV38"/>
+      <c r="BW38"/>
+      <c r="BX38"/>
+      <c r="BY38"/>
+      <c r="BZ38"/>
+      <c r="CA38"/>
+      <c r="CB38"/>
+      <c r="CC38"/>
+      <c r="CD38"/>
+      <c r="CE38"/>
+      <c r="CF38"/>
+      <c r="CG38"/>
+      <c r="CH38"/>
+      <c r="CI38"/>
+      <c r="CJ38"/>
+      <c r="CK38"/>
+      <c r="CL38"/>
+      <c r="CM38"/>
+      <c r="CN38"/>
+      <c r="CO38"/>
+      <c r="CP38"/>
     </row>
-    <row r="39" spans="1:94" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C39" s="12"/>
+    <row r="39" spans="1:94" s="3" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="44"/>
+      <c r="B39" s="99" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="D39" s="22">
+        <v>0</v>
+      </c>
+      <c r="E39" s="73">
+        <v>45894</v>
+      </c>
+      <c r="F39" s="73">
+        <v>45896</v>
+      </c>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="30"/>
+      <c r="J39" s="30"/>
+      <c r="K39" s="30"/>
+      <c r="L39" s="30"/>
+      <c r="M39" s="30"/>
+      <c r="N39" s="30"/>
+      <c r="O39" s="30"/>
+      <c r="P39" s="30"/>
+      <c r="Q39" s="30"/>
+      <c r="R39" s="30"/>
+      <c r="S39" s="30"/>
+      <c r="T39" s="30"/>
+      <c r="U39" s="30"/>
+      <c r="V39" s="30"/>
+      <c r="W39" s="30"/>
+      <c r="X39" s="30"/>
+      <c r="Y39" s="30"/>
+      <c r="Z39" s="30"/>
+      <c r="AA39" s="30"/>
+      <c r="AB39" s="30"/>
+      <c r="AC39" s="30"/>
+      <c r="AD39" s="30"/>
+      <c r="AE39" s="30"/>
+      <c r="AF39" s="30"/>
+      <c r="AG39" s="30"/>
+      <c r="AH39" s="30"/>
+      <c r="AI39" s="30"/>
+      <c r="AJ39" s="30"/>
+      <c r="AK39" s="30"/>
+      <c r="AL39" s="30"/>
+      <c r="AM39" s="30"/>
+      <c r="AN39" s="30"/>
+      <c r="AO39" s="30"/>
+      <c r="AP39" s="30"/>
+      <c r="AQ39" s="30"/>
+      <c r="AR39" s="30"/>
+      <c r="AS39" s="30"/>
+      <c r="AT39" s="30"/>
+      <c r="AU39" s="30"/>
+      <c r="AV39" s="30"/>
+      <c r="AW39" s="30"/>
+      <c r="AX39" s="30"/>
+      <c r="AY39" s="30"/>
+      <c r="AZ39" s="30"/>
+      <c r="BA39" s="30"/>
+      <c r="BB39" s="30"/>
+      <c r="BC39" s="30"/>
+      <c r="BD39" s="30"/>
+      <c r="BE39" s="30"/>
+      <c r="BF39" s="30"/>
+      <c r="BG39" s="30"/>
+      <c r="BH39" s="30"/>
+      <c r="BI39" s="30"/>
+      <c r="BJ39" s="30"/>
+      <c r="BK39" s="30"/>
+      <c r="BL39" s="30"/>
+      <c r="BM39"/>
+      <c r="BN39"/>
+      <c r="BO39"/>
+      <c r="BP39"/>
+      <c r="BQ39"/>
+      <c r="BR39"/>
+      <c r="BS39"/>
+      <c r="BT39"/>
+      <c r="BU39"/>
+      <c r="BV39"/>
+      <c r="BW39"/>
+      <c r="BX39"/>
+      <c r="BY39"/>
+      <c r="BZ39"/>
+      <c r="CA39"/>
+      <c r="CB39"/>
+      <c r="CC39"/>
+      <c r="CD39"/>
+      <c r="CE39"/>
+      <c r="CF39"/>
+      <c r="CG39"/>
+      <c r="CH39"/>
+      <c r="CI39"/>
+      <c r="CJ39"/>
+      <c r="CK39"/>
+      <c r="CL39"/>
+      <c r="CM39"/>
+      <c r="CN39"/>
+      <c r="CO39"/>
+      <c r="CP39"/>
+    </row>
+    <row r="40" spans="1:94" s="3" customFormat="1" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="44"/>
+      <c r="B40" s="99" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" s="22">
+        <v>0</v>
+      </c>
+      <c r="E40" s="73">
+        <v>45896</v>
+      </c>
+      <c r="F40" s="73">
+        <v>45898</v>
+      </c>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="30"/>
+      <c r="J40" s="30"/>
+      <c r="K40" s="30"/>
+      <c r="L40" s="30"/>
+      <c r="M40" s="30"/>
+      <c r="N40" s="30"/>
+      <c r="O40" s="30"/>
+      <c r="P40" s="30"/>
+      <c r="Q40" s="30"/>
+      <c r="R40" s="30"/>
+      <c r="S40" s="30"/>
+      <c r="T40" s="30"/>
+      <c r="U40" s="30"/>
+      <c r="V40" s="30"/>
+      <c r="W40" s="30"/>
+      <c r="X40" s="30"/>
+      <c r="Y40" s="30"/>
+      <c r="Z40" s="30"/>
+      <c r="AA40" s="30"/>
+      <c r="AB40" s="30"/>
+      <c r="AC40" s="30"/>
+      <c r="AD40" s="30"/>
+      <c r="AE40" s="30"/>
+      <c r="AF40" s="30"/>
+      <c r="AG40" s="30"/>
+      <c r="AH40" s="30"/>
+      <c r="AI40" s="30"/>
+      <c r="AJ40" s="30"/>
+      <c r="AK40" s="30"/>
+      <c r="AL40" s="30"/>
+      <c r="AM40" s="30"/>
+      <c r="AN40" s="30"/>
+      <c r="AO40" s="30"/>
+      <c r="AP40" s="30"/>
+      <c r="AQ40" s="30"/>
+      <c r="AR40" s="30"/>
+      <c r="AS40" s="30"/>
+      <c r="AT40" s="30"/>
+      <c r="AU40" s="30"/>
+      <c r="AV40" s="30"/>
+      <c r="AW40" s="30"/>
+      <c r="AX40" s="30"/>
+      <c r="AY40" s="30"/>
+      <c r="AZ40" s="30"/>
+      <c r="BA40" s="30"/>
+      <c r="BB40" s="30"/>
+      <c r="BC40" s="30"/>
+      <c r="BD40" s="30"/>
+      <c r="BE40" s="30"/>
+      <c r="BF40" s="30"/>
+      <c r="BG40" s="30"/>
+      <c r="BH40" s="30"/>
+      <c r="BI40" s="30"/>
+      <c r="BJ40" s="30"/>
+      <c r="BK40" s="30"/>
+      <c r="BL40" s="30"/>
+      <c r="BM40"/>
+      <c r="BN40"/>
+      <c r="BO40"/>
+      <c r="BP40"/>
+      <c r="BQ40"/>
+      <c r="BR40"/>
+      <c r="BS40"/>
+      <c r="BT40"/>
+      <c r="BU40"/>
+      <c r="BV40"/>
+      <c r="BW40"/>
+      <c r="BX40"/>
+      <c r="BY40"/>
+      <c r="BZ40"/>
+      <c r="CA40"/>
+      <c r="CB40"/>
+      <c r="CC40"/>
+      <c r="CD40"/>
+      <c r="CE40"/>
+      <c r="CF40"/>
+      <c r="CG40"/>
+      <c r="CH40"/>
+      <c r="CI40"/>
+      <c r="CJ40"/>
+      <c r="CK40"/>
+      <c r="CL40"/>
+      <c r="CM40"/>
+      <c r="CN40"/>
+      <c r="CO40"/>
+      <c r="CP40"/>
+    </row>
+    <row r="41" spans="1:94" s="3" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="44"/>
+      <c r="B41" s="99" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="D41" s="22">
+        <v>0</v>
+      </c>
+      <c r="E41" s="73">
+        <v>45898</v>
+      </c>
+      <c r="F41" s="73">
+        <v>45900</v>
+      </c>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="30"/>
+      <c r="J41" s="30"/>
+      <c r="K41" s="30"/>
+      <c r="L41" s="30"/>
+      <c r="M41" s="30"/>
+      <c r="N41" s="30"/>
+      <c r="O41" s="30"/>
+      <c r="P41" s="30"/>
+      <c r="Q41" s="30"/>
+      <c r="R41" s="30"/>
+      <c r="S41" s="30"/>
+      <c r="T41" s="30"/>
+      <c r="U41" s="30"/>
+      <c r="V41" s="30"/>
+      <c r="W41" s="30"/>
+      <c r="X41" s="30"/>
+      <c r="Y41" s="30"/>
+      <c r="Z41" s="30"/>
+      <c r="AA41" s="30"/>
+      <c r="AB41" s="30"/>
+      <c r="AC41" s="30"/>
+      <c r="AD41" s="30"/>
+      <c r="AE41" s="30"/>
+      <c r="AF41" s="30"/>
+      <c r="AG41" s="30"/>
+      <c r="AH41" s="30"/>
+      <c r="AI41" s="30"/>
+      <c r="AJ41" s="30"/>
+      <c r="AK41" s="30"/>
+      <c r="AL41" s="30"/>
+      <c r="AM41" s="30"/>
+      <c r="AN41" s="30"/>
+      <c r="AO41" s="30"/>
+      <c r="AP41" s="30"/>
+      <c r="AQ41" s="30"/>
+      <c r="AR41" s="30"/>
+      <c r="AS41" s="30"/>
+      <c r="AT41" s="30"/>
+      <c r="AU41" s="30"/>
+      <c r="AV41" s="30"/>
+      <c r="AW41" s="30"/>
+      <c r="AX41" s="30"/>
+      <c r="AY41" s="30"/>
+      <c r="AZ41" s="30"/>
+      <c r="BA41" s="30"/>
+      <c r="BB41" s="30"/>
+      <c r="BC41" s="30"/>
+      <c r="BD41" s="30"/>
+      <c r="BE41" s="30"/>
+      <c r="BF41" s="30"/>
+      <c r="BG41" s="30"/>
+      <c r="BH41" s="30"/>
+      <c r="BI41" s="30"/>
+      <c r="BJ41" s="30"/>
+      <c r="BK41" s="30"/>
+      <c r="BL41" s="30"/>
+      <c r="BM41"/>
+      <c r="BN41"/>
+      <c r="BO41"/>
+      <c r="BP41"/>
+      <c r="BQ41"/>
+      <c r="BR41"/>
+      <c r="BS41"/>
+      <c r="BT41"/>
+      <c r="BU41"/>
+      <c r="BV41"/>
+      <c r="BW41"/>
+      <c r="BX41"/>
+      <c r="BY41"/>
+      <c r="BZ41"/>
+      <c r="CA41"/>
+      <c r="CB41"/>
+      <c r="CC41"/>
+      <c r="CD41"/>
+      <c r="CE41"/>
+      <c r="CF41"/>
+      <c r="CG41"/>
+      <c r="CH41"/>
+      <c r="CI41"/>
+      <c r="CJ41"/>
+      <c r="CK41"/>
+      <c r="CL41"/>
+      <c r="CM41"/>
+      <c r="CN41"/>
+      <c r="CO41"/>
+      <c r="CP41"/>
+    </row>
+    <row r="42" spans="1:94" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="44"/>
+      <c r="B42" s="99"/>
+      <c r="C42" s="56"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="73"/>
+      <c r="F42" s="73"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="30"/>
+      <c r="J42" s="30"/>
+      <c r="K42" s="30"/>
+      <c r="L42" s="30"/>
+      <c r="M42" s="30"/>
+      <c r="N42" s="30"/>
+      <c r="O42" s="30"/>
+      <c r="P42" s="30"/>
+      <c r="Q42" s="30"/>
+      <c r="R42" s="30"/>
+      <c r="S42" s="30"/>
+      <c r="T42" s="30"/>
+      <c r="U42" s="30"/>
+      <c r="V42" s="30"/>
+      <c r="W42" s="30"/>
+      <c r="X42" s="30"/>
+      <c r="Y42" s="30"/>
+      <c r="Z42" s="30"/>
+      <c r="AA42" s="30"/>
+      <c r="AB42" s="30"/>
+      <c r="AC42" s="30"/>
+      <c r="AD42" s="30"/>
+      <c r="AE42" s="30"/>
+      <c r="AF42" s="30"/>
+      <c r="AG42" s="30"/>
+      <c r="AH42" s="30"/>
+      <c r="AI42" s="30"/>
+      <c r="AJ42" s="30"/>
+      <c r="AK42" s="30"/>
+      <c r="AL42" s="30"/>
+      <c r="AM42" s="30"/>
+      <c r="AN42" s="30"/>
+      <c r="AO42" s="30"/>
+      <c r="AP42" s="30"/>
+      <c r="AQ42" s="30"/>
+      <c r="AR42" s="30"/>
+      <c r="AS42" s="30"/>
+      <c r="AT42" s="30"/>
+      <c r="AU42" s="30"/>
+      <c r="AV42" s="30"/>
+      <c r="AW42" s="30"/>
+      <c r="AX42" s="30"/>
+      <c r="AY42" s="30"/>
+      <c r="AZ42" s="30"/>
+      <c r="BA42" s="30"/>
+      <c r="BB42" s="30"/>
+      <c r="BC42" s="30"/>
+      <c r="BD42" s="30"/>
+      <c r="BE42" s="30"/>
+      <c r="BF42" s="30"/>
+      <c r="BG42" s="30"/>
+      <c r="BH42" s="30"/>
+      <c r="BI42" s="30"/>
+      <c r="BJ42" s="30"/>
+      <c r="BK42" s="30"/>
+      <c r="BL42" s="30"/>
+      <c r="BM42"/>
+      <c r="BN42"/>
+      <c r="BO42"/>
+      <c r="BP42"/>
+      <c r="BQ42"/>
+      <c r="BR42"/>
+      <c r="BS42"/>
+      <c r="BT42"/>
+      <c r="BU42"/>
+      <c r="BV42"/>
+      <c r="BW42"/>
+      <c r="BX42"/>
+      <c r="BY42"/>
+      <c r="BZ42"/>
+      <c r="CA42"/>
+      <c r="CB42"/>
+      <c r="CC42"/>
+      <c r="CD42"/>
+      <c r="CE42"/>
+      <c r="CF42"/>
+      <c r="CG42"/>
+      <c r="CH42"/>
+      <c r="CI42"/>
+      <c r="CJ42"/>
+      <c r="CK42"/>
+      <c r="CL42"/>
+      <c r="CM42"/>
+      <c r="CN42"/>
+      <c r="CO42"/>
+      <c r="CP42"/>
+    </row>
+    <row r="43" spans="1:94" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="44"/>
+      <c r="B43" s="99"/>
+      <c r="C43" s="56"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="73"/>
+      <c r="F43" s="73"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="30"/>
+      <c r="J43" s="30"/>
+      <c r="K43" s="30"/>
+      <c r="L43" s="30"/>
+      <c r="M43" s="30"/>
+      <c r="N43" s="30"/>
+      <c r="O43" s="30"/>
+      <c r="P43" s="30"/>
+      <c r="Q43" s="30"/>
+      <c r="R43" s="30"/>
+      <c r="S43" s="30"/>
+      <c r="T43" s="30"/>
+      <c r="U43" s="30"/>
+      <c r="V43" s="30"/>
+      <c r="W43" s="30"/>
+      <c r="X43" s="30"/>
+      <c r="Y43" s="30"/>
+      <c r="Z43" s="30"/>
+      <c r="AA43" s="30"/>
+      <c r="AB43" s="30"/>
+      <c r="AC43" s="30"/>
+      <c r="AD43" s="30"/>
+      <c r="AE43" s="30"/>
+      <c r="AF43" s="30"/>
+      <c r="AG43" s="30"/>
+      <c r="AH43" s="30"/>
+      <c r="AI43" s="30"/>
+      <c r="AJ43" s="30"/>
+      <c r="AK43" s="30"/>
+      <c r="AL43" s="30"/>
+      <c r="AM43" s="30"/>
+      <c r="AN43" s="30"/>
+      <c r="AO43" s="30"/>
+      <c r="AP43" s="30"/>
+      <c r="AQ43" s="30"/>
+      <c r="AR43" s="30"/>
+      <c r="AS43" s="30"/>
+      <c r="AT43" s="30"/>
+      <c r="AU43" s="30"/>
+      <c r="AV43" s="30"/>
+      <c r="AW43" s="30"/>
+      <c r="AX43" s="30"/>
+      <c r="AY43" s="30"/>
+      <c r="AZ43" s="30"/>
+      <c r="BA43" s="30"/>
+      <c r="BB43" s="30"/>
+      <c r="BC43" s="30"/>
+      <c r="BD43" s="30"/>
+      <c r="BE43" s="30"/>
+      <c r="BF43" s="30"/>
+      <c r="BG43" s="30"/>
+      <c r="BH43" s="30"/>
+      <c r="BI43" s="30"/>
+      <c r="BJ43" s="30"/>
+      <c r="BK43" s="30"/>
+      <c r="BL43" s="30"/>
+      <c r="BM43"/>
+      <c r="BN43"/>
+      <c r="BO43"/>
+      <c r="BP43"/>
+      <c r="BQ43"/>
+      <c r="BR43"/>
+      <c r="BS43"/>
+      <c r="BT43"/>
+      <c r="BU43"/>
+      <c r="BV43"/>
+      <c r="BW43"/>
+      <c r="BX43"/>
+      <c r="BY43"/>
+      <c r="BZ43"/>
+      <c r="CA43"/>
+      <c r="CB43"/>
+      <c r="CC43"/>
+      <c r="CD43"/>
+      <c r="CE43"/>
+      <c r="CF43"/>
+      <c r="CG43"/>
+      <c r="CH43"/>
+      <c r="CI43"/>
+      <c r="CJ43"/>
+      <c r="CK43"/>
+      <c r="CL43"/>
+      <c r="CM43"/>
+      <c r="CN43"/>
+      <c r="CO43"/>
+      <c r="CP43"/>
+    </row>
+    <row r="44" spans="1:94" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="44"/>
+      <c r="B44" s="99"/>
+      <c r="C44" s="56"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="73"/>
+      <c r="F44" s="73"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="30"/>
+      <c r="J44" s="30"/>
+      <c r="K44" s="30"/>
+      <c r="L44" s="30"/>
+      <c r="M44" s="30"/>
+      <c r="N44" s="30"/>
+      <c r="O44" s="30"/>
+      <c r="P44" s="30"/>
+      <c r="Q44" s="30"/>
+      <c r="R44" s="30"/>
+      <c r="S44" s="30"/>
+      <c r="T44" s="30"/>
+      <c r="U44" s="30"/>
+      <c r="V44" s="30"/>
+      <c r="W44" s="30"/>
+      <c r="X44" s="30"/>
+      <c r="Y44" s="30"/>
+      <c r="Z44" s="30"/>
+      <c r="AA44" s="30"/>
+      <c r="AB44" s="30"/>
+      <c r="AC44" s="30"/>
+      <c r="AD44" s="30"/>
+      <c r="AE44" s="30"/>
+      <c r="AF44" s="30"/>
+      <c r="AG44" s="30"/>
+      <c r="AH44" s="30"/>
+      <c r="AI44" s="30"/>
+      <c r="AJ44" s="30"/>
+      <c r="AK44" s="30"/>
+      <c r="AL44" s="30"/>
+      <c r="AM44" s="30"/>
+      <c r="AN44" s="30"/>
+      <c r="AO44" s="30"/>
+      <c r="AP44" s="30"/>
+      <c r="AQ44" s="30"/>
+      <c r="AR44" s="30"/>
+      <c r="AS44" s="30"/>
+      <c r="AT44" s="30"/>
+      <c r="AU44" s="30"/>
+      <c r="AV44" s="30"/>
+      <c r="AW44" s="30"/>
+      <c r="AX44" s="30"/>
+      <c r="AY44" s="30"/>
+      <c r="AZ44" s="30"/>
+      <c r="BA44" s="30"/>
+      <c r="BB44" s="30"/>
+      <c r="BC44" s="30"/>
+      <c r="BD44" s="30"/>
+      <c r="BE44" s="30"/>
+      <c r="BF44" s="30"/>
+      <c r="BG44" s="30"/>
+      <c r="BH44" s="30"/>
+      <c r="BI44" s="30"/>
+      <c r="BJ44" s="30"/>
+      <c r="BK44" s="30"/>
+      <c r="BL44" s="30"/>
+      <c r="BM44"/>
+      <c r="BN44"/>
+      <c r="BO44"/>
+      <c r="BP44"/>
+      <c r="BQ44"/>
+      <c r="BR44"/>
+      <c r="BS44"/>
+      <c r="BT44"/>
+      <c r="BU44"/>
+      <c r="BV44"/>
+      <c r="BW44"/>
+      <c r="BX44"/>
+      <c r="BY44"/>
+      <c r="BZ44"/>
+      <c r="CA44"/>
+      <c r="CB44"/>
+      <c r="CC44"/>
+      <c r="CD44"/>
+      <c r="CE44"/>
+      <c r="CF44"/>
+      <c r="CG44"/>
+      <c r="CH44"/>
+      <c r="CI44"/>
+      <c r="CJ44"/>
+      <c r="CK44"/>
+      <c r="CL44"/>
+      <c r="CM44"/>
+      <c r="CN44"/>
+      <c r="CO44"/>
+      <c r="CP44"/>
+    </row>
+    <row r="45" spans="1:94" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="44"/>
+      <c r="B45" s="99"/>
+      <c r="C45" s="56"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="73"/>
+      <c r="F45" s="73"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="30"/>
+      <c r="J45" s="30"/>
+      <c r="K45" s="30"/>
+      <c r="L45" s="30"/>
+      <c r="M45" s="30"/>
+      <c r="N45" s="30"/>
+      <c r="O45" s="30"/>
+      <c r="P45" s="30"/>
+      <c r="Q45" s="30"/>
+      <c r="R45" s="30"/>
+      <c r="S45" s="30"/>
+      <c r="T45" s="30"/>
+      <c r="U45" s="30"/>
+      <c r="V45" s="30"/>
+      <c r="W45" s="30"/>
+      <c r="X45" s="30"/>
+      <c r="Y45" s="30"/>
+      <c r="Z45" s="30"/>
+      <c r="AA45" s="30"/>
+      <c r="AB45" s="30"/>
+      <c r="AC45" s="30"/>
+      <c r="AD45" s="30"/>
+      <c r="AE45" s="30"/>
+      <c r="AF45" s="30"/>
+      <c r="AG45" s="30"/>
+      <c r="AH45" s="30"/>
+      <c r="AI45" s="30"/>
+      <c r="AJ45" s="30"/>
+      <c r="AK45" s="30"/>
+      <c r="AL45" s="30"/>
+      <c r="AM45" s="30"/>
+      <c r="AN45" s="30"/>
+      <c r="AO45" s="30"/>
+      <c r="AP45" s="30"/>
+      <c r="AQ45" s="30"/>
+      <c r="AR45" s="30"/>
+      <c r="AS45" s="30"/>
+      <c r="AT45" s="30"/>
+      <c r="AU45" s="30"/>
+      <c r="AV45" s="30"/>
+      <c r="AW45" s="30"/>
+      <c r="AX45" s="30"/>
+      <c r="AY45" s="30"/>
+      <c r="AZ45" s="30"/>
+      <c r="BA45" s="30"/>
+      <c r="BB45" s="30"/>
+      <c r="BC45" s="30"/>
+      <c r="BD45" s="30"/>
+      <c r="BE45" s="30"/>
+      <c r="BF45" s="30"/>
+      <c r="BG45" s="30"/>
+      <c r="BH45" s="30"/>
+      <c r="BI45" s="30"/>
+      <c r="BJ45" s="30"/>
+      <c r="BK45" s="30"/>
+      <c r="BL45" s="30"/>
+      <c r="BM45"/>
+      <c r="BN45"/>
+      <c r="BO45"/>
+      <c r="BP45"/>
+      <c r="BQ45"/>
+      <c r="BR45"/>
+      <c r="BS45"/>
+      <c r="BT45"/>
+      <c r="BU45"/>
+      <c r="BV45"/>
+      <c r="BW45"/>
+      <c r="BX45"/>
+      <c r="BY45"/>
+      <c r="BZ45"/>
+      <c r="CA45"/>
+      <c r="CB45"/>
+      <c r="CC45"/>
+      <c r="CD45"/>
+      <c r="CE45"/>
+      <c r="CF45"/>
+      <c r="CG45"/>
+      <c r="CH45"/>
+      <c r="CI45"/>
+      <c r="CJ45"/>
+      <c r="CK45"/>
+      <c r="CL45"/>
+      <c r="CM45"/>
+      <c r="CN45"/>
+      <c r="CO45"/>
+      <c r="CP45"/>
+    </row>
+    <row r="46" spans="1:94" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="44"/>
+      <c r="B46" s="99"/>
+      <c r="C46" s="56"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="73"/>
+      <c r="F46" s="73"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="30"/>
+      <c r="J46" s="30"/>
+      <c r="K46" s="30"/>
+      <c r="L46" s="30"/>
+      <c r="M46" s="30"/>
+      <c r="N46" s="30"/>
+      <c r="O46" s="30"/>
+      <c r="P46" s="30"/>
+      <c r="Q46" s="30"/>
+      <c r="R46" s="30"/>
+      <c r="S46" s="30"/>
+      <c r="T46" s="30"/>
+      <c r="U46" s="30"/>
+      <c r="V46" s="30"/>
+      <c r="W46" s="30"/>
+      <c r="X46" s="30"/>
+      <c r="Y46" s="30"/>
+      <c r="Z46" s="30"/>
+      <c r="AA46" s="30"/>
+      <c r="AB46" s="30"/>
+      <c r="AC46" s="30"/>
+      <c r="AD46" s="30"/>
+      <c r="AE46" s="30"/>
+      <c r="AF46" s="30"/>
+      <c r="AG46" s="30"/>
+      <c r="AH46" s="30"/>
+      <c r="AI46" s="30"/>
+      <c r="AJ46" s="30"/>
+      <c r="AK46" s="30"/>
+      <c r="AL46" s="30"/>
+      <c r="AM46" s="30"/>
+      <c r="AN46" s="30"/>
+      <c r="AO46" s="30"/>
+      <c r="AP46" s="30"/>
+      <c r="AQ46" s="30"/>
+      <c r="AR46" s="30"/>
+      <c r="AS46" s="30"/>
+      <c r="AT46" s="30"/>
+      <c r="AU46" s="30"/>
+      <c r="AV46" s="30"/>
+      <c r="AW46" s="30"/>
+      <c r="AX46" s="30"/>
+      <c r="AY46" s="30"/>
+      <c r="AZ46" s="30"/>
+      <c r="BA46" s="30"/>
+      <c r="BB46" s="30"/>
+      <c r="BC46" s="30"/>
+      <c r="BD46" s="30"/>
+      <c r="BE46" s="30"/>
+      <c r="BF46" s="30"/>
+      <c r="BG46" s="30"/>
+      <c r="BH46" s="30"/>
+      <c r="BI46" s="30"/>
+      <c r="BJ46" s="30"/>
+      <c r="BK46" s="30"/>
+      <c r="BL46" s="30"/>
+      <c r="BM46"/>
+      <c r="BN46"/>
+      <c r="BO46"/>
+      <c r="BP46"/>
+      <c r="BQ46"/>
+      <c r="BR46"/>
+      <c r="BS46"/>
+      <c r="BT46"/>
+      <c r="BU46"/>
+      <c r="BV46"/>
+      <c r="BW46"/>
+      <c r="BX46"/>
+      <c r="BY46"/>
+      <c r="BZ46"/>
+      <c r="CA46"/>
+      <c r="CB46"/>
+      <c r="CC46"/>
+      <c r="CD46"/>
+      <c r="CE46"/>
+      <c r="CF46"/>
+      <c r="CG46"/>
+      <c r="CH46"/>
+      <c r="CI46"/>
+      <c r="CJ46"/>
+      <c r="CK46"/>
+      <c r="CL46"/>
+      <c r="CM46"/>
+      <c r="CN46"/>
+      <c r="CO46"/>
+      <c r="CP46"/>
+    </row>
+    <row r="47" spans="1:94" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="44"/>
+      <c r="B47" s="99"/>
+      <c r="C47" s="56"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="73"/>
+      <c r="F47" s="73"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="30"/>
+      <c r="J47" s="30"/>
+      <c r="K47" s="30"/>
+      <c r="L47" s="30"/>
+      <c r="M47" s="30"/>
+      <c r="N47" s="30"/>
+      <c r="O47" s="30"/>
+      <c r="P47" s="30"/>
+      <c r="Q47" s="30"/>
+      <c r="R47" s="30"/>
+      <c r="S47" s="30"/>
+      <c r="T47" s="30"/>
+      <c r="U47" s="30"/>
+      <c r="V47" s="30"/>
+      <c r="W47" s="30"/>
+      <c r="X47" s="30"/>
+      <c r="Y47" s="30"/>
+      <c r="Z47" s="30"/>
+      <c r="AA47" s="30"/>
+      <c r="AB47" s="30"/>
+      <c r="AC47" s="30"/>
+      <c r="AD47" s="30"/>
+      <c r="AE47" s="30"/>
+      <c r="AF47" s="30"/>
+      <c r="AG47" s="30"/>
+      <c r="AH47" s="30"/>
+      <c r="AI47" s="30"/>
+      <c r="AJ47" s="30"/>
+      <c r="AK47" s="30"/>
+      <c r="AL47" s="30"/>
+      <c r="AM47" s="30"/>
+      <c r="AN47" s="30"/>
+      <c r="AO47" s="30"/>
+      <c r="AP47" s="30"/>
+      <c r="AQ47" s="30"/>
+      <c r="AR47" s="30"/>
+      <c r="AS47" s="30"/>
+      <c r="AT47" s="30"/>
+      <c r="AU47" s="30"/>
+      <c r="AV47" s="30"/>
+      <c r="AW47" s="30"/>
+      <c r="AX47" s="30"/>
+      <c r="AY47" s="30"/>
+      <c r="AZ47" s="30"/>
+      <c r="BA47" s="30"/>
+      <c r="BB47" s="30"/>
+      <c r="BC47" s="30"/>
+      <c r="BD47" s="30"/>
+      <c r="BE47" s="30"/>
+      <c r="BF47" s="30"/>
+      <c r="BG47" s="30"/>
+      <c r="BH47" s="30"/>
+      <c r="BI47" s="30"/>
+      <c r="BJ47" s="30"/>
+      <c r="BK47" s="30"/>
+      <c r="BL47" s="30"/>
+      <c r="BM47"/>
+      <c r="BN47"/>
+      <c r="BO47"/>
+      <c r="BP47"/>
+      <c r="BQ47"/>
+      <c r="BR47"/>
+      <c r="BS47"/>
+      <c r="BT47"/>
+      <c r="BU47"/>
+      <c r="BV47"/>
+      <c r="BW47"/>
+      <c r="BX47"/>
+      <c r="BY47"/>
+      <c r="BZ47"/>
+      <c r="CA47"/>
+      <c r="CB47"/>
+      <c r="CC47"/>
+      <c r="CD47"/>
+      <c r="CE47"/>
+      <c r="CF47"/>
+      <c r="CG47"/>
+      <c r="CH47"/>
+      <c r="CI47"/>
+      <c r="CJ47"/>
+      <c r="CK47"/>
+      <c r="CL47"/>
+      <c r="CM47"/>
+      <c r="CN47"/>
+      <c r="CO47"/>
+      <c r="CP47"/>
+    </row>
+    <row r="48" spans="1:94" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="44"/>
+      <c r="B48" s="99"/>
+      <c r="C48" s="56"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="73"/>
+      <c r="F48" s="73"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="30"/>
+      <c r="J48" s="30"/>
+      <c r="K48" s="30"/>
+      <c r="L48" s="30"/>
+      <c r="M48" s="30"/>
+      <c r="N48" s="30"/>
+      <c r="O48" s="30"/>
+      <c r="P48" s="30"/>
+      <c r="Q48" s="30"/>
+      <c r="R48" s="30"/>
+      <c r="S48" s="30"/>
+      <c r="T48" s="30"/>
+      <c r="U48" s="30"/>
+      <c r="V48" s="30"/>
+      <c r="W48" s="30"/>
+      <c r="X48" s="30"/>
+      <c r="Y48" s="30"/>
+      <c r="Z48" s="30"/>
+      <c r="AA48" s="30"/>
+      <c r="AB48" s="30"/>
+      <c r="AC48" s="30"/>
+      <c r="AD48" s="30"/>
+      <c r="AE48" s="30"/>
+      <c r="AF48" s="30"/>
+      <c r="AG48" s="30"/>
+      <c r="AH48" s="30"/>
+      <c r="AI48" s="30"/>
+      <c r="AJ48" s="30"/>
+      <c r="AK48" s="30"/>
+      <c r="AL48" s="30"/>
+      <c r="AM48" s="30"/>
+      <c r="AN48" s="30"/>
+      <c r="AO48" s="30"/>
+      <c r="AP48" s="30"/>
+      <c r="AQ48" s="30"/>
+      <c r="AR48" s="30"/>
+      <c r="AS48" s="30"/>
+      <c r="AT48" s="30"/>
+      <c r="AU48" s="30"/>
+      <c r="AV48" s="30"/>
+      <c r="AW48" s="30"/>
+      <c r="AX48" s="30"/>
+      <c r="AY48" s="30"/>
+      <c r="AZ48" s="30"/>
+      <c r="BA48" s="30"/>
+      <c r="BB48" s="30"/>
+      <c r="BC48" s="30"/>
+      <c r="BD48" s="30"/>
+      <c r="BE48" s="30"/>
+      <c r="BF48" s="30"/>
+      <c r="BG48" s="30"/>
+      <c r="BH48" s="30"/>
+      <c r="BI48" s="30"/>
+      <c r="BJ48" s="30"/>
+      <c r="BK48" s="30"/>
+      <c r="BL48" s="30"/>
+      <c r="BM48"/>
+      <c r="BN48"/>
+      <c r="BO48"/>
+      <c r="BP48"/>
+      <c r="BQ48"/>
+      <c r="BR48"/>
+      <c r="BS48"/>
+      <c r="BT48"/>
+      <c r="BU48"/>
+      <c r="BV48"/>
+      <c r="BW48"/>
+      <c r="BX48"/>
+      <c r="BY48"/>
+      <c r="BZ48"/>
+      <c r="CA48"/>
+      <c r="CB48"/>
+      <c r="CC48"/>
+      <c r="CD48"/>
+      <c r="CE48"/>
+      <c r="CF48"/>
+      <c r="CG48"/>
+      <c r="CH48"/>
+      <c r="CI48"/>
+      <c r="CJ48"/>
+      <c r="CK48"/>
+      <c r="CL48"/>
+      <c r="CM48"/>
+      <c r="CN48"/>
+      <c r="CO48"/>
+      <c r="CP48"/>
+    </row>
+    <row r="49" spans="1:94" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="44"/>
+      <c r="B49" s="99"/>
+      <c r="C49" s="56"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="73"/>
+      <c r="F49" s="73"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="30"/>
+      <c r="J49" s="30"/>
+      <c r="K49" s="30"/>
+      <c r="L49" s="30"/>
+      <c r="M49" s="30"/>
+      <c r="N49" s="30"/>
+      <c r="O49" s="30"/>
+      <c r="P49" s="30"/>
+      <c r="Q49" s="30"/>
+      <c r="R49" s="30"/>
+      <c r="S49" s="30"/>
+      <c r="T49" s="30"/>
+      <c r="U49" s="30"/>
+      <c r="V49" s="30"/>
+      <c r="W49" s="30"/>
+      <c r="X49" s="30"/>
+      <c r="Y49" s="30"/>
+      <c r="Z49" s="30"/>
+      <c r="AA49" s="30"/>
+      <c r="AB49" s="30"/>
+      <c r="AC49" s="30"/>
+      <c r="AD49" s="30"/>
+      <c r="AE49" s="30"/>
+      <c r="AF49" s="30"/>
+      <c r="AG49" s="30"/>
+      <c r="AH49" s="30"/>
+      <c r="AI49" s="30"/>
+      <c r="AJ49" s="30"/>
+      <c r="AK49" s="30"/>
+      <c r="AL49" s="30"/>
+      <c r="AM49" s="30"/>
+      <c r="AN49" s="30"/>
+      <c r="AO49" s="30"/>
+      <c r="AP49" s="30"/>
+      <c r="AQ49" s="30"/>
+      <c r="AR49" s="30"/>
+      <c r="AS49" s="30"/>
+      <c r="AT49" s="30"/>
+      <c r="AU49" s="30"/>
+      <c r="AV49" s="30"/>
+      <c r="AW49" s="30"/>
+      <c r="AX49" s="30"/>
+      <c r="AY49" s="30"/>
+      <c r="AZ49" s="30"/>
+      <c r="BA49" s="30"/>
+      <c r="BB49" s="30"/>
+      <c r="BC49" s="30"/>
+      <c r="BD49" s="30"/>
+      <c r="BE49" s="30"/>
+      <c r="BF49" s="30"/>
+      <c r="BG49" s="30"/>
+      <c r="BH49" s="30"/>
+      <c r="BI49" s="30"/>
+      <c r="BJ49" s="30"/>
+      <c r="BK49" s="30"/>
+      <c r="BL49" s="30"/>
+      <c r="BM49"/>
+      <c r="BN49"/>
+      <c r="BO49"/>
+      <c r="BP49"/>
+      <c r="BQ49"/>
+      <c r="BR49"/>
+      <c r="BS49"/>
+      <c r="BT49"/>
+      <c r="BU49"/>
+      <c r="BV49"/>
+      <c r="BW49"/>
+      <c r="BX49"/>
+      <c r="BY49"/>
+      <c r="BZ49"/>
+      <c r="CA49"/>
+      <c r="CB49"/>
+      <c r="CC49"/>
+      <c r="CD49"/>
+      <c r="CE49"/>
+      <c r="CF49"/>
+      <c r="CG49"/>
+      <c r="CH49"/>
+      <c r="CI49"/>
+      <c r="CJ49"/>
+      <c r="CK49"/>
+      <c r="CL49"/>
+      <c r="CM49"/>
+      <c r="CN49"/>
+      <c r="CO49"/>
+      <c r="CP49"/>
+    </row>
+    <row r="50" spans="1:94" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="44"/>
+      <c r="B50" s="99"/>
+      <c r="C50" s="56"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="73"/>
+      <c r="F50" s="73"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="30"/>
+      <c r="J50" s="30"/>
+      <c r="K50" s="30"/>
+      <c r="L50" s="30"/>
+      <c r="M50" s="30"/>
+      <c r="N50" s="30"/>
+      <c r="O50" s="30"/>
+      <c r="P50" s="30"/>
+      <c r="Q50" s="30"/>
+      <c r="R50" s="30"/>
+      <c r="S50" s="30"/>
+      <c r="T50" s="30"/>
+      <c r="U50" s="30"/>
+      <c r="V50" s="30"/>
+      <c r="W50" s="30"/>
+      <c r="X50" s="30"/>
+      <c r="Y50" s="30"/>
+      <c r="Z50" s="30"/>
+      <c r="AA50" s="30"/>
+      <c r="AB50" s="30"/>
+      <c r="AC50" s="30"/>
+      <c r="AD50" s="30"/>
+      <c r="AE50" s="30"/>
+      <c r="AF50" s="30"/>
+      <c r="AG50" s="30"/>
+      <c r="AH50" s="30"/>
+      <c r="AI50" s="30"/>
+      <c r="AJ50" s="30"/>
+      <c r="AK50" s="30"/>
+      <c r="AL50" s="30"/>
+      <c r="AM50" s="30"/>
+      <c r="AN50" s="30"/>
+      <c r="AO50" s="30"/>
+      <c r="AP50" s="30"/>
+      <c r="AQ50" s="30"/>
+      <c r="AR50" s="30"/>
+      <c r="AS50" s="30"/>
+      <c r="AT50" s="30"/>
+      <c r="AU50" s="30"/>
+      <c r="AV50" s="30"/>
+      <c r="AW50" s="30"/>
+      <c r="AX50" s="30"/>
+      <c r="AY50" s="30"/>
+      <c r="AZ50" s="30"/>
+      <c r="BA50" s="30"/>
+      <c r="BB50" s="30"/>
+      <c r="BC50" s="30"/>
+      <c r="BD50" s="30"/>
+      <c r="BE50" s="30"/>
+      <c r="BF50" s="30"/>
+      <c r="BG50" s="30"/>
+      <c r="BH50" s="30"/>
+      <c r="BI50" s="30"/>
+      <c r="BJ50" s="30"/>
+      <c r="BK50" s="30"/>
+      <c r="BL50" s="30"/>
+      <c r="BM50"/>
+      <c r="BN50"/>
+      <c r="BO50"/>
+      <c r="BP50"/>
+      <c r="BQ50"/>
+      <c r="BR50"/>
+      <c r="BS50"/>
+      <c r="BT50"/>
+      <c r="BU50"/>
+      <c r="BV50"/>
+      <c r="BW50"/>
+      <c r="BX50"/>
+      <c r="BY50"/>
+      <c r="BZ50"/>
+      <c r="CA50"/>
+      <c r="CB50"/>
+      <c r="CC50"/>
+      <c r="CD50"/>
+      <c r="CE50"/>
+      <c r="CF50"/>
+      <c r="CG50"/>
+      <c r="CH50"/>
+      <c r="CI50"/>
+      <c r="CJ50"/>
+      <c r="CK50"/>
+      <c r="CL50"/>
+      <c r="CM50"/>
+      <c r="CN50"/>
+      <c r="CO50"/>
+      <c r="CP50"/>
+    </row>
+    <row r="51" spans="1:94" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="B51" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C51" s="57"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="74"/>
+      <c r="F51" s="75"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I51" s="30"/>
+      <c r="J51" s="30"/>
+      <c r="K51" s="30"/>
+      <c r="L51" s="30"/>
+      <c r="M51" s="30"/>
+      <c r="N51" s="30"/>
+      <c r="O51" s="30"/>
+      <c r="P51" s="30"/>
+      <c r="Q51" s="30"/>
+      <c r="R51" s="30"/>
+      <c r="S51" s="30"/>
+      <c r="T51" s="30"/>
+      <c r="U51" s="30"/>
+      <c r="V51" s="30"/>
+      <c r="W51" s="30"/>
+      <c r="X51" s="30"/>
+      <c r="Y51" s="30"/>
+      <c r="Z51" s="30"/>
+      <c r="AA51" s="30"/>
+      <c r="AB51" s="30"/>
+      <c r="AC51" s="30"/>
+      <c r="AD51" s="30"/>
+      <c r="AE51" s="30"/>
+      <c r="AF51" s="30"/>
+      <c r="AG51" s="30"/>
+      <c r="AH51" s="30"/>
+      <c r="AI51" s="30"/>
+      <c r="AJ51" s="30"/>
+      <c r="AK51" s="30"/>
+      <c r="AL51" s="30"/>
+      <c r="AM51" s="30"/>
+      <c r="AN51" s="30"/>
+      <c r="AO51" s="30"/>
+      <c r="AP51" s="30"/>
+      <c r="AQ51" s="30"/>
+      <c r="AR51" s="30"/>
+      <c r="AS51" s="30"/>
+      <c r="AT51" s="30"/>
+      <c r="AU51" s="30"/>
+      <c r="AV51" s="30"/>
+      <c r="AW51" s="30"/>
+      <c r="AX51" s="30"/>
+      <c r="AY51" s="30"/>
+      <c r="AZ51" s="30"/>
+      <c r="BA51" s="30"/>
+      <c r="BB51" s="30"/>
+      <c r="BC51" s="30"/>
+      <c r="BD51" s="30"/>
+      <c r="BE51" s="30"/>
+      <c r="BF51" s="30"/>
+      <c r="BG51" s="30"/>
+      <c r="BH51" s="30"/>
+      <c r="BI51" s="30"/>
+      <c r="BJ51" s="30"/>
+      <c r="BK51" s="30"/>
+      <c r="BL51" s="30"/>
+      <c r="BM51"/>
+      <c r="BN51"/>
+      <c r="BO51"/>
+      <c r="BP51"/>
+      <c r="BQ51"/>
+      <c r="BR51"/>
+      <c r="BS51"/>
+      <c r="BT51"/>
+      <c r="BU51"/>
+      <c r="BV51"/>
+      <c r="BW51"/>
+      <c r="BX51"/>
+      <c r="BY51"/>
+      <c r="BZ51"/>
+      <c r="CA51"/>
+      <c r="CB51"/>
+      <c r="CC51"/>
+      <c r="CD51"/>
+      <c r="CE51"/>
+      <c r="CF51"/>
+      <c r="CG51"/>
+      <c r="CH51"/>
+      <c r="CI51"/>
+      <c r="CJ51"/>
+      <c r="CK51"/>
+      <c r="CL51"/>
+      <c r="CM51"/>
+      <c r="CN51"/>
+      <c r="CO51"/>
+      <c r="CP51"/>
+    </row>
+    <row r="52" spans="1:94" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="44"/>
+      <c r="B52" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="C52" s="58"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="76" t="s">
+        <v>26</v>
+      </c>
+      <c r="F52" s="76" t="s">
+        <v>26</v>
+      </c>
+      <c r="G52" s="13"/>
+      <c r="H52" s="13" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I52" s="30"/>
+      <c r="J52" s="30"/>
+      <c r="K52" s="30"/>
+      <c r="L52" s="30"/>
+      <c r="M52" s="30"/>
+      <c r="N52" s="30"/>
+      <c r="O52" s="30"/>
+      <c r="P52" s="30"/>
+      <c r="Q52" s="30"/>
+      <c r="R52" s="30"/>
+      <c r="S52" s="30"/>
+      <c r="T52" s="30"/>
+      <c r="U52" s="30"/>
+      <c r="V52" s="30"/>
+      <c r="W52" s="30"/>
+      <c r="X52" s="30"/>
+      <c r="Y52" s="30"/>
+      <c r="Z52" s="30"/>
+      <c r="AA52" s="30"/>
+      <c r="AB52" s="30"/>
+      <c r="AC52" s="30"/>
+      <c r="AD52" s="30"/>
+      <c r="AE52" s="30"/>
+      <c r="AF52" s="30"/>
+      <c r="AG52" s="30"/>
+      <c r="AH52" s="30"/>
+      <c r="AI52" s="30"/>
+      <c r="AJ52" s="30"/>
+      <c r="AK52" s="30"/>
+      <c r="AL52" s="30"/>
+      <c r="AM52" s="30"/>
+      <c r="AN52" s="30"/>
+      <c r="AO52" s="30"/>
+      <c r="AP52" s="30"/>
+      <c r="AQ52" s="30"/>
+      <c r="AR52" s="30"/>
+      <c r="AS52" s="30"/>
+      <c r="AT52" s="30"/>
+      <c r="AU52" s="30"/>
+      <c r="AV52" s="30"/>
+      <c r="AW52" s="30"/>
+      <c r="AX52" s="30"/>
+      <c r="AY52" s="30"/>
+      <c r="AZ52" s="30"/>
+      <c r="BA52" s="30"/>
+      <c r="BB52" s="30"/>
+      <c r="BC52" s="30"/>
+      <c r="BD52" s="30"/>
+      <c r="BE52" s="30"/>
+      <c r="BF52" s="30"/>
+      <c r="BG52" s="30"/>
+      <c r="BH52" s="30"/>
+      <c r="BI52" s="30"/>
+      <c r="BJ52" s="30"/>
+      <c r="BK52" s="30"/>
+      <c r="BL52" s="30"/>
+      <c r="BM52"/>
+      <c r="BN52"/>
+      <c r="BO52"/>
+      <c r="BP52"/>
+      <c r="BQ52"/>
+      <c r="BR52"/>
+      <c r="BS52"/>
+      <c r="BT52"/>
+      <c r="BU52"/>
+      <c r="BV52"/>
+      <c r="BW52"/>
+      <c r="BX52"/>
+      <c r="BY52"/>
+      <c r="BZ52"/>
+      <c r="CA52"/>
+      <c r="CB52"/>
+      <c r="CC52"/>
+      <c r="CD52"/>
+      <c r="CE52"/>
+      <c r="CF52"/>
+      <c r="CG52"/>
+      <c r="CH52"/>
+      <c r="CI52"/>
+      <c r="CJ52"/>
+      <c r="CK52"/>
+      <c r="CL52"/>
+      <c r="CM52"/>
+      <c r="CN52"/>
+      <c r="CO52"/>
+      <c r="CP52"/>
+    </row>
+    <row r="53" spans="1:94" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="44"/>
+      <c r="B53" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="C53" s="58"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="76" t="s">
+        <v>26</v>
+      </c>
+      <c r="F53" s="76" t="s">
+        <v>26</v>
+      </c>
+      <c r="G53" s="13"/>
+      <c r="H53" s="13" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I53" s="30"/>
+      <c r="J53" s="30"/>
+      <c r="K53" s="30"/>
+      <c r="L53" s="30"/>
+      <c r="M53" s="30"/>
+      <c r="N53" s="30"/>
+      <c r="O53" s="30"/>
+      <c r="P53" s="30"/>
+      <c r="Q53" s="30"/>
+      <c r="R53" s="30"/>
+      <c r="S53" s="30"/>
+      <c r="T53" s="30"/>
+      <c r="U53" s="30"/>
+      <c r="V53" s="30"/>
+      <c r="W53" s="30"/>
+      <c r="X53" s="30"/>
+      <c r="Y53" s="30"/>
+      <c r="Z53" s="30"/>
+      <c r="AA53" s="30"/>
+      <c r="AB53" s="30"/>
+      <c r="AC53" s="30"/>
+      <c r="AD53" s="30"/>
+      <c r="AE53" s="30"/>
+      <c r="AF53" s="30"/>
+      <c r="AG53" s="30"/>
+      <c r="AH53" s="30"/>
+      <c r="AI53" s="30"/>
+      <c r="AJ53" s="30"/>
+      <c r="AK53" s="30"/>
+      <c r="AL53" s="30"/>
+      <c r="AM53" s="30"/>
+      <c r="AN53" s="30"/>
+      <c r="AO53" s="30"/>
+      <c r="AP53" s="30"/>
+      <c r="AQ53" s="30"/>
+      <c r="AR53" s="30"/>
+      <c r="AS53" s="30"/>
+      <c r="AT53" s="30"/>
+      <c r="AU53" s="30"/>
+      <c r="AV53" s="30"/>
+      <c r="AW53" s="30"/>
+      <c r="AX53" s="30"/>
+      <c r="AY53" s="30"/>
+      <c r="AZ53" s="30"/>
+      <c r="BA53" s="30"/>
+      <c r="BB53" s="30"/>
+      <c r="BC53" s="30"/>
+      <c r="BD53" s="30"/>
+      <c r="BE53" s="30"/>
+      <c r="BF53" s="30"/>
+      <c r="BG53" s="30"/>
+      <c r="BH53" s="30"/>
+      <c r="BI53" s="30"/>
+      <c r="BJ53" s="30"/>
+      <c r="BK53" s="30"/>
+      <c r="BL53" s="30"/>
+      <c r="BM53"/>
+      <c r="BN53"/>
+      <c r="BO53"/>
+      <c r="BP53"/>
+      <c r="BQ53"/>
+      <c r="BR53"/>
+      <c r="BS53"/>
+      <c r="BT53"/>
+      <c r="BU53"/>
+      <c r="BV53"/>
+      <c r="BW53"/>
+      <c r="BX53"/>
+      <c r="BY53"/>
+      <c r="BZ53"/>
+      <c r="CA53"/>
+      <c r="CB53"/>
+      <c r="CC53"/>
+      <c r="CD53"/>
+      <c r="CE53"/>
+      <c r="CF53"/>
+      <c r="CG53"/>
+      <c r="CH53"/>
+      <c r="CI53"/>
+      <c r="CJ53"/>
+      <c r="CK53"/>
+      <c r="CL53"/>
+      <c r="CM53"/>
+      <c r="CN53"/>
+      <c r="CO53"/>
+      <c r="CP53"/>
+    </row>
+    <row r="54" spans="1:94" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="44"/>
+      <c r="B54" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="C54" s="58"/>
+      <c r="D54" s="25"/>
+      <c r="E54" s="76" t="s">
+        <v>26</v>
+      </c>
+      <c r="F54" s="76" t="s">
+        <v>26</v>
+      </c>
+      <c r="G54" s="13"/>
+      <c r="H54" s="13" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I54" s="30"/>
+      <c r="J54" s="30"/>
+      <c r="K54" s="30"/>
+      <c r="L54" s="30"/>
+      <c r="M54" s="30"/>
+      <c r="N54" s="30"/>
+      <c r="O54" s="30"/>
+      <c r="P54" s="30"/>
+      <c r="Q54" s="30"/>
+      <c r="R54" s="30"/>
+      <c r="S54" s="30"/>
+      <c r="T54" s="30"/>
+      <c r="U54" s="30"/>
+      <c r="V54" s="30"/>
+      <c r="W54" s="30"/>
+      <c r="X54" s="30"/>
+      <c r="Y54" s="30"/>
+      <c r="Z54" s="30"/>
+      <c r="AA54" s="30"/>
+      <c r="AB54" s="30"/>
+      <c r="AC54" s="30"/>
+      <c r="AD54" s="30"/>
+      <c r="AE54" s="30"/>
+      <c r="AF54" s="30"/>
+      <c r="AG54" s="30"/>
+      <c r="AH54" s="30"/>
+      <c r="AI54" s="30"/>
+      <c r="AJ54" s="30"/>
+      <c r="AK54" s="30"/>
+      <c r="AL54" s="30"/>
+      <c r="AM54" s="30"/>
+      <c r="AN54" s="30"/>
+      <c r="AO54" s="30"/>
+      <c r="AP54" s="30"/>
+      <c r="AQ54" s="30"/>
+      <c r="AR54" s="30"/>
+      <c r="AS54" s="30"/>
+      <c r="AT54" s="30"/>
+      <c r="AU54" s="30"/>
+      <c r="AV54" s="30"/>
+      <c r="AW54" s="30"/>
+      <c r="AX54" s="30"/>
+      <c r="AY54" s="30"/>
+      <c r="AZ54" s="30"/>
+      <c r="BA54" s="30"/>
+      <c r="BB54" s="30"/>
+      <c r="BC54" s="30"/>
+      <c r="BD54" s="30"/>
+      <c r="BE54" s="30"/>
+      <c r="BF54" s="30"/>
+      <c r="BG54" s="30"/>
+      <c r="BH54" s="30"/>
+      <c r="BI54" s="30"/>
+      <c r="BJ54" s="30"/>
+      <c r="BK54" s="30"/>
+      <c r="BL54" s="30"/>
+      <c r="BM54"/>
+      <c r="BN54"/>
+      <c r="BO54"/>
+      <c r="BP54"/>
+      <c r="BQ54"/>
+      <c r="BR54"/>
+      <c r="BS54"/>
+      <c r="BT54"/>
+      <c r="BU54"/>
+      <c r="BV54"/>
+      <c r="BW54"/>
+      <c r="BX54"/>
+      <c r="BY54"/>
+      <c r="BZ54"/>
+      <c r="CA54"/>
+      <c r="CB54"/>
+      <c r="CC54"/>
+      <c r="CD54"/>
+      <c r="CE54"/>
+      <c r="CF54"/>
+      <c r="CG54"/>
+      <c r="CH54"/>
+      <c r="CI54"/>
+      <c r="CJ54"/>
+      <c r="CK54"/>
+      <c r="CL54"/>
+      <c r="CM54"/>
+      <c r="CN54"/>
+      <c r="CO54"/>
+      <c r="CP54"/>
+    </row>
+    <row r="55" spans="1:94" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="44"/>
+      <c r="B55" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="C55" s="58"/>
+      <c r="D55" s="25"/>
+      <c r="E55" s="76" t="s">
+        <v>26</v>
+      </c>
+      <c r="F55" s="76" t="s">
+        <v>26</v>
+      </c>
+      <c r="G55" s="13"/>
+      <c r="H55" s="13" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I55" s="30"/>
+      <c r="J55" s="30"/>
+      <c r="K55" s="30"/>
+      <c r="L55" s="30"/>
+      <c r="M55" s="30"/>
+      <c r="N55" s="30"/>
+      <c r="O55" s="30"/>
+      <c r="P55" s="30"/>
+      <c r="Q55" s="30"/>
+      <c r="R55" s="30"/>
+      <c r="S55" s="30"/>
+      <c r="T55" s="30"/>
+      <c r="U55" s="30"/>
+      <c r="V55" s="30"/>
+      <c r="W55" s="30"/>
+      <c r="X55" s="30"/>
+      <c r="Y55" s="30"/>
+      <c r="Z55" s="30"/>
+      <c r="AA55" s="30"/>
+      <c r="AB55" s="30"/>
+      <c r="AC55" s="30"/>
+      <c r="AD55" s="30"/>
+      <c r="AE55" s="30"/>
+      <c r="AF55" s="30"/>
+      <c r="AG55" s="30"/>
+      <c r="AH55" s="30"/>
+      <c r="AI55" s="30"/>
+      <c r="AJ55" s="30"/>
+      <c r="AK55" s="30"/>
+      <c r="AL55" s="30"/>
+      <c r="AM55" s="30"/>
+      <c r="AN55" s="30"/>
+      <c r="AO55" s="30"/>
+      <c r="AP55" s="30"/>
+      <c r="AQ55" s="30"/>
+      <c r="AR55" s="30"/>
+      <c r="AS55" s="30"/>
+      <c r="AT55" s="30"/>
+      <c r="AU55" s="30"/>
+      <c r="AV55" s="30"/>
+      <c r="AW55" s="30"/>
+      <c r="AX55" s="30"/>
+      <c r="AY55" s="30"/>
+      <c r="AZ55" s="30"/>
+      <c r="BA55" s="30"/>
+      <c r="BB55" s="30"/>
+      <c r="BC55" s="30"/>
+      <c r="BD55" s="30"/>
+      <c r="BE55" s="30"/>
+      <c r="BF55" s="30"/>
+      <c r="BG55" s="30"/>
+      <c r="BH55" s="30"/>
+      <c r="BI55" s="30"/>
+      <c r="BJ55" s="30"/>
+      <c r="BK55" s="30"/>
+      <c r="BL55" s="30"/>
+      <c r="BM55"/>
+      <c r="BN55"/>
+      <c r="BO55"/>
+      <c r="BP55"/>
+      <c r="BQ55"/>
+      <c r="BR55"/>
+      <c r="BS55"/>
+      <c r="BT55"/>
+      <c r="BU55"/>
+      <c r="BV55"/>
+      <c r="BW55"/>
+      <c r="BX55"/>
+      <c r="BY55"/>
+      <c r="BZ55"/>
+      <c r="CA55"/>
+      <c r="CB55"/>
+      <c r="CC55"/>
+      <c r="CD55"/>
+      <c r="CE55"/>
+      <c r="CF55"/>
+      <c r="CG55"/>
+      <c r="CH55"/>
+      <c r="CI55"/>
+      <c r="CJ55"/>
+      <c r="CK55"/>
+      <c r="CL55"/>
+      <c r="CM55"/>
+      <c r="CN55"/>
+      <c r="CO55"/>
+      <c r="CP55"/>
+    </row>
+    <row r="56" spans="1:94" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="44"/>
+      <c r="B56" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56" s="58"/>
+      <c r="D56" s="25"/>
+      <c r="E56" s="76" t="s">
+        <v>26</v>
+      </c>
+      <c r="F56" s="76" t="s">
+        <v>26</v>
+      </c>
+      <c r="G56" s="13"/>
+      <c r="H56" s="13" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I56" s="30"/>
+      <c r="J56" s="30"/>
+      <c r="K56" s="30"/>
+      <c r="L56" s="30"/>
+      <c r="M56" s="30"/>
+      <c r="N56" s="30"/>
+      <c r="O56" s="30"/>
+      <c r="P56" s="30"/>
+      <c r="Q56" s="30"/>
+      <c r="R56" s="30"/>
+      <c r="S56" s="30"/>
+      <c r="T56" s="30"/>
+      <c r="U56" s="30"/>
+      <c r="V56" s="30"/>
+      <c r="W56" s="30"/>
+      <c r="X56" s="30"/>
+      <c r="Y56" s="30"/>
+      <c r="Z56" s="30"/>
+      <c r="AA56" s="30"/>
+      <c r="AB56" s="30"/>
+      <c r="AC56" s="30"/>
+      <c r="AD56" s="30"/>
+      <c r="AE56" s="30"/>
+      <c r="AF56" s="30"/>
+      <c r="AG56" s="30"/>
+      <c r="AH56" s="30"/>
+      <c r="AI56" s="30"/>
+      <c r="AJ56" s="30"/>
+      <c r="AK56" s="30"/>
+      <c r="AL56" s="30"/>
+      <c r="AM56" s="30"/>
+      <c r="AN56" s="30"/>
+      <c r="AO56" s="30"/>
+      <c r="AP56" s="30"/>
+      <c r="AQ56" s="30"/>
+      <c r="AR56" s="30"/>
+      <c r="AS56" s="30"/>
+      <c r="AT56" s="30"/>
+      <c r="AU56" s="30"/>
+      <c r="AV56" s="30"/>
+      <c r="AW56" s="30"/>
+      <c r="AX56" s="30"/>
+      <c r="AY56" s="30"/>
+      <c r="AZ56" s="30"/>
+      <c r="BA56" s="30"/>
+      <c r="BB56" s="30"/>
+      <c r="BC56" s="30"/>
+      <c r="BD56" s="30"/>
+      <c r="BE56" s="30"/>
+      <c r="BF56" s="30"/>
+      <c r="BG56" s="30"/>
+      <c r="BH56" s="30"/>
+      <c r="BI56" s="30"/>
+      <c r="BJ56" s="30"/>
+      <c r="BK56" s="30"/>
+      <c r="BL56" s="30"/>
+      <c r="BM56"/>
+      <c r="BN56"/>
+      <c r="BO56"/>
+      <c r="BP56"/>
+      <c r="BQ56"/>
+      <c r="BR56"/>
+      <c r="BS56"/>
+      <c r="BT56"/>
+      <c r="BU56"/>
+      <c r="BV56"/>
+      <c r="BW56"/>
+      <c r="BX56"/>
+      <c r="BY56"/>
+      <c r="BZ56"/>
+      <c r="CA56"/>
+      <c r="CB56"/>
+      <c r="CC56"/>
+      <c r="CD56"/>
+      <c r="CE56"/>
+      <c r="CF56"/>
+      <c r="CG56"/>
+      <c r="CH56"/>
+      <c r="CI56"/>
+      <c r="CJ56"/>
+      <c r="CK56"/>
+      <c r="CL56"/>
+      <c r="CM56"/>
+      <c r="CN56"/>
+      <c r="CO56"/>
+      <c r="CP56"/>
+    </row>
+    <row r="57" spans="1:94" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="B57" s="90" t="s">
+        <v>68</v>
+      </c>
+      <c r="C57" s="91"/>
+      <c r="D57" s="92"/>
+      <c r="E57" s="93"/>
+      <c r="F57" s="93"/>
+      <c r="G57" s="13"/>
+      <c r="H57" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I57" s="30"/>
+      <c r="J57" s="30"/>
+      <c r="K57" s="30"/>
+      <c r="L57" s="30"/>
+      <c r="M57" s="30"/>
+      <c r="N57" s="30"/>
+      <c r="O57" s="30"/>
+      <c r="P57" s="30"/>
+      <c r="Q57" s="30"/>
+      <c r="R57" s="30"/>
+      <c r="S57" s="30"/>
+      <c r="T57" s="30"/>
+      <c r="U57" s="30"/>
+      <c r="V57" s="30"/>
+      <c r="W57" s="30"/>
+      <c r="X57" s="30"/>
+      <c r="Y57" s="30"/>
+      <c r="Z57" s="30"/>
+      <c r="AA57" s="30"/>
+      <c r="AB57" s="30"/>
+      <c r="AC57" s="30"/>
+      <c r="AD57" s="30"/>
+      <c r="AE57" s="30"/>
+      <c r="AF57" s="30"/>
+      <c r="AG57" s="30"/>
+      <c r="AH57" s="30"/>
+      <c r="AI57" s="30"/>
+      <c r="AJ57" s="30"/>
+      <c r="AK57" s="30"/>
+      <c r="AL57" s="30"/>
+      <c r="AM57" s="30"/>
+      <c r="AN57" s="30"/>
+      <c r="AO57" s="30"/>
+      <c r="AP57" s="30"/>
+      <c r="AQ57" s="30"/>
+      <c r="AR57" s="30"/>
+      <c r="AS57" s="30"/>
+      <c r="AT57" s="30"/>
+      <c r="AU57" s="30"/>
+      <c r="AV57" s="30"/>
+      <c r="AW57" s="30"/>
+      <c r="AX57" s="30"/>
+      <c r="AY57" s="30"/>
+      <c r="AZ57" s="30"/>
+      <c r="BA57" s="30"/>
+      <c r="BB57" s="30"/>
+      <c r="BC57" s="30"/>
+      <c r="BD57" s="30"/>
+      <c r="BE57" s="30"/>
+      <c r="BF57" s="30"/>
+      <c r="BG57" s="30"/>
+      <c r="BH57" s="30"/>
+      <c r="BI57" s="30"/>
+      <c r="BJ57" s="30"/>
+      <c r="BK57" s="30"/>
+      <c r="BL57" s="30"/>
+      <c r="BM57"/>
+      <c r="BN57"/>
+      <c r="BO57"/>
+      <c r="BP57"/>
+      <c r="BQ57"/>
+      <c r="BR57"/>
+      <c r="BS57"/>
+      <c r="BT57"/>
+      <c r="BU57"/>
+      <c r="BV57"/>
+      <c r="BW57"/>
+      <c r="BX57"/>
+      <c r="BY57"/>
+      <c r="BZ57"/>
+      <c r="CA57"/>
+      <c r="CB57"/>
+      <c r="CC57"/>
+      <c r="CD57"/>
+      <c r="CE57"/>
+      <c r="CF57"/>
+      <c r="CG57"/>
+      <c r="CH57"/>
+      <c r="CI57"/>
+      <c r="CJ57"/>
+      <c r="CK57"/>
+      <c r="CL57"/>
+      <c r="CM57"/>
+      <c r="CN57"/>
+      <c r="CO57"/>
+      <c r="CP57"/>
+    </row>
+    <row r="58" spans="1:94" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="44"/>
+      <c r="B58" s="94"/>
+      <c r="C58" s="95"/>
+      <c r="D58" s="96"/>
+      <c r="E58" s="97"/>
+      <c r="F58" s="97"/>
+      <c r="G58" s="13"/>
+      <c r="H58" s="13"/>
+      <c r="I58" s="30"/>
+      <c r="J58" s="30"/>
+      <c r="K58" s="30"/>
+      <c r="L58" s="30"/>
+      <c r="M58" s="30"/>
+      <c r="N58" s="30"/>
+      <c r="O58" s="30"/>
+      <c r="P58" s="30"/>
+      <c r="Q58" s="30"/>
+      <c r="R58" s="30"/>
+      <c r="S58" s="30"/>
+      <c r="T58" s="30"/>
+      <c r="U58" s="30"/>
+      <c r="V58" s="30"/>
+      <c r="W58" s="30"/>
+      <c r="X58" s="30"/>
+      <c r="Y58" s="30"/>
+      <c r="Z58" s="30"/>
+      <c r="AA58" s="30"/>
+      <c r="AB58" s="30"/>
+      <c r="AC58" s="30"/>
+      <c r="AD58" s="30"/>
+      <c r="AE58" s="30"/>
+      <c r="AF58" s="30"/>
+      <c r="AG58" s="30"/>
+      <c r="AH58" s="30"/>
+      <c r="AI58" s="30"/>
+      <c r="AJ58" s="30"/>
+      <c r="AK58" s="30"/>
+      <c r="AL58" s="30"/>
+      <c r="AM58" s="30"/>
+      <c r="AN58" s="30"/>
+      <c r="AO58" s="30"/>
+      <c r="AP58" s="30"/>
+      <c r="AQ58" s="30"/>
+      <c r="AR58" s="30"/>
+      <c r="AS58" s="30"/>
+      <c r="AT58" s="30"/>
+      <c r="AU58" s="30"/>
+      <c r="AV58" s="30"/>
+      <c r="AW58" s="30"/>
+      <c r="AX58" s="30"/>
+      <c r="AY58" s="30"/>
+      <c r="AZ58" s="30"/>
+      <c r="BA58" s="30"/>
+      <c r="BB58" s="30"/>
+      <c r="BC58" s="30"/>
+      <c r="BD58" s="30"/>
+      <c r="BE58" s="30"/>
+      <c r="BF58" s="30"/>
+      <c r="BG58" s="30"/>
+      <c r="BH58" s="30"/>
+      <c r="BI58" s="30"/>
+      <c r="BJ58" s="30"/>
+      <c r="BK58" s="30"/>
+      <c r="BL58" s="30"/>
+      <c r="BM58"/>
+      <c r="BN58"/>
+      <c r="BO58"/>
+      <c r="BP58"/>
+      <c r="BQ58"/>
+      <c r="BR58"/>
+      <c r="BS58"/>
+      <c r="BT58"/>
+      <c r="BU58"/>
+      <c r="BV58"/>
+      <c r="BW58"/>
+      <c r="BX58"/>
+      <c r="BY58"/>
+      <c r="BZ58"/>
+      <c r="CA58"/>
+      <c r="CB58"/>
+      <c r="CC58"/>
+      <c r="CD58"/>
+      <c r="CE58"/>
+      <c r="CF58"/>
+      <c r="CG58"/>
+      <c r="CH58"/>
+      <c r="CI58"/>
+      <c r="CJ58"/>
+      <c r="CK58"/>
+      <c r="CL58"/>
+      <c r="CM58"/>
+      <c r="CN58"/>
+      <c r="CO58"/>
+      <c r="CP58"/>
+    </row>
+    <row r="59" spans="1:94" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="44"/>
+      <c r="B59" s="94"/>
+      <c r="C59" s="95"/>
+      <c r="D59" s="96"/>
+      <c r="E59" s="97"/>
+      <c r="F59" s="97"/>
+      <c r="G59" s="13"/>
+      <c r="H59" s="13"/>
+      <c r="I59" s="30"/>
+      <c r="J59" s="30"/>
+      <c r="K59" s="30"/>
+      <c r="L59" s="30"/>
+      <c r="M59" s="30"/>
+      <c r="N59" s="30"/>
+      <c r="O59" s="30"/>
+      <c r="P59" s="30"/>
+      <c r="Q59" s="30"/>
+      <c r="R59" s="30"/>
+      <c r="S59" s="30"/>
+      <c r="T59" s="30"/>
+      <c r="U59" s="30"/>
+      <c r="V59" s="30"/>
+      <c r="W59" s="30"/>
+      <c r="X59" s="30"/>
+      <c r="Y59" s="30"/>
+      <c r="Z59" s="30"/>
+      <c r="AA59" s="30"/>
+      <c r="AB59" s="30"/>
+      <c r="AC59" s="30"/>
+      <c r="AD59" s="30"/>
+      <c r="AE59" s="30"/>
+      <c r="AF59" s="30"/>
+      <c r="AG59" s="30"/>
+      <c r="AH59" s="30"/>
+      <c r="AI59" s="30"/>
+      <c r="AJ59" s="30"/>
+      <c r="AK59" s="30"/>
+      <c r="AL59" s="30"/>
+      <c r="AM59" s="30"/>
+      <c r="AN59" s="30"/>
+      <c r="AO59" s="30"/>
+      <c r="AP59" s="30"/>
+      <c r="AQ59" s="30"/>
+      <c r="AR59" s="30"/>
+      <c r="AS59" s="30"/>
+      <c r="AT59" s="30"/>
+      <c r="AU59" s="30"/>
+      <c r="AV59" s="30"/>
+      <c r="AW59" s="30"/>
+      <c r="AX59" s="30"/>
+      <c r="AY59" s="30"/>
+      <c r="AZ59" s="30"/>
+      <c r="BA59" s="30"/>
+      <c r="BB59" s="30"/>
+      <c r="BC59" s="30"/>
+      <c r="BD59" s="30"/>
+      <c r="BE59" s="30"/>
+      <c r="BF59" s="30"/>
+      <c r="BG59" s="30"/>
+      <c r="BH59" s="30"/>
+      <c r="BI59" s="30"/>
+      <c r="BJ59" s="30"/>
+      <c r="BK59" s="30"/>
+      <c r="BL59" s="30"/>
+      <c r="BM59"/>
+      <c r="BN59"/>
+      <c r="BO59"/>
+      <c r="BP59"/>
+      <c r="BQ59"/>
+      <c r="BR59"/>
+      <c r="BS59"/>
+      <c r="BT59"/>
+      <c r="BU59"/>
+      <c r="BV59"/>
+      <c r="BW59"/>
+      <c r="BX59"/>
+      <c r="BY59"/>
+      <c r="BZ59"/>
+      <c r="CA59"/>
+      <c r="CB59"/>
+      <c r="CC59"/>
+      <c r="CD59"/>
+      <c r="CE59"/>
+      <c r="CF59"/>
+      <c r="CG59"/>
+      <c r="CH59"/>
+      <c r="CI59"/>
+      <c r="CJ59"/>
+      <c r="CK59"/>
+      <c r="CL59"/>
+      <c r="CM59"/>
+      <c r="CN59"/>
+      <c r="CO59"/>
+      <c r="CP59"/>
+    </row>
+    <row r="60" spans="1:94" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="44"/>
+      <c r="B60" s="94"/>
+      <c r="C60" s="95"/>
+      <c r="D60" s="96"/>
+      <c r="E60" s="97"/>
+      <c r="F60" s="97"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="13"/>
+      <c r="I60" s="30"/>
+      <c r="J60" s="30"/>
+      <c r="K60" s="30"/>
+      <c r="L60" s="30"/>
+      <c r="M60" s="30"/>
+      <c r="N60" s="30"/>
+      <c r="O60" s="30"/>
+      <c r="P60" s="30"/>
+      <c r="Q60" s="30"/>
+      <c r="R60" s="30"/>
+      <c r="S60" s="30"/>
+      <c r="T60" s="30"/>
+      <c r="U60" s="30"/>
+      <c r="V60" s="30"/>
+      <c r="W60" s="30"/>
+      <c r="X60" s="30"/>
+      <c r="Y60" s="30"/>
+      <c r="Z60" s="30"/>
+      <c r="AA60" s="30"/>
+      <c r="AB60" s="30"/>
+      <c r="AC60" s="30"/>
+      <c r="AD60" s="30"/>
+      <c r="AE60" s="30"/>
+      <c r="AF60" s="30"/>
+      <c r="AG60" s="30"/>
+      <c r="AH60" s="30"/>
+      <c r="AI60" s="30"/>
+      <c r="AJ60" s="30"/>
+      <c r="AK60" s="30"/>
+      <c r="AL60" s="30"/>
+      <c r="AM60" s="30"/>
+      <c r="AN60" s="30"/>
+      <c r="AO60" s="30"/>
+      <c r="AP60" s="30"/>
+      <c r="AQ60" s="30"/>
+      <c r="AR60" s="30"/>
+      <c r="AS60" s="30"/>
+      <c r="AT60" s="30"/>
+      <c r="AU60" s="30"/>
+      <c r="AV60" s="30"/>
+      <c r="AW60" s="30"/>
+      <c r="AX60" s="30"/>
+      <c r="AY60" s="30"/>
+      <c r="AZ60" s="30"/>
+      <c r="BA60" s="30"/>
+      <c r="BB60" s="30"/>
+      <c r="BC60" s="30"/>
+      <c r="BD60" s="30"/>
+      <c r="BE60" s="30"/>
+      <c r="BF60" s="30"/>
+      <c r="BG60" s="30"/>
+      <c r="BH60" s="30"/>
+      <c r="BI60" s="30"/>
+      <c r="BJ60" s="30"/>
+      <c r="BK60" s="30"/>
+      <c r="BL60" s="30"/>
+      <c r="BM60"/>
+      <c r="BN60"/>
+      <c r="BO60"/>
+      <c r="BP60"/>
+      <c r="BQ60"/>
+      <c r="BR60"/>
+      <c r="BS60"/>
+      <c r="BT60"/>
+      <c r="BU60"/>
+      <c r="BV60"/>
+      <c r="BW60"/>
+      <c r="BX60"/>
+      <c r="BY60"/>
+      <c r="BZ60"/>
+      <c r="CA60"/>
+      <c r="CB60"/>
+      <c r="CC60"/>
+      <c r="CD60"/>
+      <c r="CE60"/>
+      <c r="CF60"/>
+      <c r="CG60"/>
+      <c r="CH60"/>
+      <c r="CI60"/>
+      <c r="CJ60"/>
+      <c r="CK60"/>
+      <c r="CL60"/>
+      <c r="CM60"/>
+      <c r="CN60"/>
+      <c r="CO60"/>
+      <c r="CP60"/>
+    </row>
+    <row r="61" spans="1:94" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="B61" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C61" s="27"/>
+      <c r="D61" s="28"/>
+      <c r="E61" s="77"/>
+      <c r="F61" s="78"/>
+      <c r="G61" s="29"/>
+      <c r="H61" s="29" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I61" s="32"/>
+      <c r="J61" s="32"/>
+      <c r="K61" s="32"/>
+      <c r="L61" s="32"/>
+      <c r="M61" s="32"/>
+      <c r="N61" s="32"/>
+      <c r="O61" s="32"/>
+      <c r="P61" s="32"/>
+      <c r="Q61" s="32"/>
+      <c r="R61" s="32"/>
+      <c r="S61" s="32"/>
+      <c r="T61" s="32"/>
+      <c r="U61" s="32"/>
+      <c r="V61" s="32"/>
+      <c r="W61" s="32"/>
+      <c r="X61" s="32"/>
+      <c r="Y61" s="32"/>
+      <c r="Z61" s="32"/>
+      <c r="AA61" s="32"/>
+      <c r="AB61" s="32"/>
+      <c r="AC61" s="32"/>
+      <c r="AD61" s="32"/>
+      <c r="AE61" s="32"/>
+      <c r="AF61" s="32"/>
+      <c r="AG61" s="32"/>
+      <c r="AH61" s="32"/>
+      <c r="AI61" s="32"/>
+      <c r="AJ61" s="32"/>
+      <c r="AK61" s="32"/>
+      <c r="AL61" s="32"/>
+      <c r="AM61" s="32"/>
+      <c r="AN61" s="32"/>
+      <c r="AO61" s="32"/>
+      <c r="AP61" s="32"/>
+      <c r="AQ61" s="32"/>
+      <c r="AR61" s="32"/>
+      <c r="AS61" s="32"/>
+      <c r="AT61" s="32"/>
+      <c r="AU61" s="32"/>
+      <c r="AV61" s="32"/>
+      <c r="AW61" s="32"/>
+      <c r="AX61" s="32"/>
+      <c r="AY61" s="32"/>
+      <c r="AZ61" s="32"/>
+      <c r="BA61" s="32"/>
+      <c r="BB61" s="32"/>
+      <c r="BC61" s="32"/>
+      <c r="BD61" s="32"/>
+      <c r="BE61" s="32"/>
+      <c r="BF61" s="32"/>
+      <c r="BG61" s="32"/>
+      <c r="BH61" s="32"/>
+      <c r="BI61" s="32"/>
+      <c r="BJ61" s="32"/>
+      <c r="BK61" s="32"/>
+      <c r="BL61" s="32"/>
+      <c r="BM61"/>
+      <c r="BN61"/>
+      <c r="BO61"/>
+      <c r="BP61"/>
+      <c r="BQ61"/>
+      <c r="BR61"/>
+      <c r="BS61"/>
+      <c r="BT61"/>
+      <c r="BU61"/>
+      <c r="BV61"/>
+      <c r="BW61"/>
+      <c r="BX61"/>
+      <c r="BY61"/>
+      <c r="BZ61"/>
+      <c r="CA61"/>
+      <c r="CB61"/>
+      <c r="CC61"/>
+      <c r="CD61"/>
+      <c r="CE61"/>
+      <c r="CF61"/>
+      <c r="CG61"/>
+      <c r="CH61"/>
+      <c r="CI61"/>
+      <c r="CJ61"/>
+      <c r="CK61"/>
+      <c r="CL61"/>
+      <c r="CM61"/>
+      <c r="CN61"/>
+      <c r="CO61"/>
+      <c r="CP61"/>
+    </row>
+    <row r="62" spans="1:94" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G62" s="6"/>
+    </row>
+    <row r="63" spans="1:94" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C63" s="11"/>
+      <c r="F63" s="46"/>
+    </row>
+    <row r="64" spans="1:94" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C64" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5853,7 +8498,7 @@
     <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
   </mergeCells>
-  <conditionalFormatting sqref="D7:D36">
+  <conditionalFormatting sqref="D7:D61">
     <cfRule type="dataBar" priority="26">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -5867,12 +8512,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:BL36">
+  <conditionalFormatting sqref="I5:BL61">
     <cfRule type="expression" dxfId="2" priority="45">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:BL36">
+  <conditionalFormatting sqref="I7:BL61">
     <cfRule type="expression" dxfId="1" priority="39">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -5892,7 +8537,7 @@
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="F25:F26 E26" formula="1"/>
+    <ignoredError sqref="F27 E28:F28" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
@@ -5940,7 +8585,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:D36</xm:sqref>
+          <xm:sqref>D7:D61</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -5958,86 +8603,86 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="87.140625" style="35" customWidth="1"/>
+    <col min="1" max="1" width="87.140625" style="34" customWidth="1"/>
     <col min="2" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:2" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+    <row r="2" spans="1:2" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="35"/>
+    </row>
+    <row r="3" spans="1:2" s="40" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="41"/>
+    </row>
+    <row r="4" spans="1:2" s="37" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A4" s="38" t="s">
         <v>31</v>
-      </c>
-      <c r="B2" s="36"/>
-    </row>
-    <row r="3" spans="1:2" s="41" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="42"/>
-    </row>
-    <row r="4" spans="1:2" s="38" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A4" s="39" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="40" t="s">
-        <v>34</v>
+      <c r="A5" s="39" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" s="34" customFormat="1" ht="204.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="43" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" s="37" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A8" s="38" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" s="35" customFormat="1" ht="204.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="44" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" s="38" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A8" s="39" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="75" x14ac:dyDescent="0.2">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="39" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" s="34" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="42" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" s="37" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A11" s="38" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" s="35" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="43" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" s="38" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A11" s="39" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="45" x14ac:dyDescent="0.2">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="39" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" s="34" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="42" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" s="37" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A14" s="38" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" s="35" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="43" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" s="38" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A14" s="39" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="40" t="s">
-        <v>44</v>
+      <c r="A15" s="39" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="90" x14ac:dyDescent="0.2">
-      <c r="A16" s="40" t="s">
-        <v>45</v>
+      <c r="A16" s="39" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
